--- a/实验7：配置管理/20F_Commit总表.xlsx
+++ b/实验7：配置管理/20F_Commit总表.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mz/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mz/Desktop/软工实验/20_F/实验7：配置管理/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B0B307B-D3F0-DB48-B32D-3A4A64D3CE20}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C20429D6-67BE-0A42-943C-92D708287F93}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="760" yWindow="460" windowWidth="27760" windowHeight="17040" xr2:uid="{9388D582-CDE4-9A46-9540-D7DCCDE5460A}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="51">
   <si>
     <t>周次</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -228,6 +228,14 @@
     <t>初稿</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>4.4-5.15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>进度更新、添加实验三统计</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -397,7 +405,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -419,10 +427,13 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -440,13 +451,16 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -798,10 +812,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>22</c:v>
+                  <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>44</c:v>
+                  <c:v>45</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>4</c:v>
@@ -1137,10 +1151,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>61</c:v>
+                  <c:v>64</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>46</c:v>
+                  <c:v>47</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2800,6 +2814,836 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US"/>
+              <a:t>实验三</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" altLang="zh-CN"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:view3D>
+      <c:rotX val="30"/>
+      <c:rotY val="0"/>
+      <c:depthPercent val="100"/>
+      <c:rAngAx val="0"/>
+    </c:view3D>
+    <c:floor>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:floor>
+    <c:sideWall>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:sideWall>
+    <c:backWall>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:backWall>
+    <c:plotArea>
+      <c:layout/>
+      <c:pie3DChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>实验二与实验六-八(1)</c:v>
+          </c:tx>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="25400">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+              <a:sp3d contourW="25400">
+                <a:contourClr>
+                  <a:schemeClr val="lt1"/>
+                </a:contourClr>
+              </a:sp3d>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-8DF2-6542-BA52-14A5B86C3BBF}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="25400">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+              <a:sp3d contourW="25400">
+                <a:contourClr>
+                  <a:schemeClr val="lt1"/>
+                </a:contourClr>
+              </a:sp3d>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-8DF2-6542-BA52-14A5B86C3BBF}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="25400">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+              <a:sp3d contourW="25400">
+                <a:contourClr>
+                  <a:schemeClr val="lt1"/>
+                </a:contourClr>
+              </a:sp3d>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-8DF2-6542-BA52-14A5B86C3BBF}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="25400">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+              <a:sp3d contourW="25400">
+                <a:contourClr>
+                  <a:schemeClr val="lt1"/>
+                </a:contourClr>
+              </a:sp3d>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000007-8DF2-6542-BA52-14A5B86C3BBF}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="4"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="25400">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+              <a:sp3d contourW="25400">
+                <a:contourClr>
+                  <a:schemeClr val="lt1"/>
+                </a:contourClr>
+              </a:sp3d>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000009-8DF2-6542-BA52-14A5B86C3BBF}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="5"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="25400">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+              <a:sp3d contourW="25400">
+                <a:contourClr>
+                  <a:schemeClr val="lt1"/>
+                </a:contourClr>
+              </a:sp3d>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000B-8DF2-6542-BA52-14A5B86C3BBF}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="zh-CN"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="1"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="1"/>
+            <c:leaderLines>
+              <c:spPr>
+                <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="35000"/>
+                      <a:lumOff val="65000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:round/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:leaderLines>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$D$33:$I$34</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>麦梓健</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>孙维华</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>郑锋</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>洪治凑</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>王子璇</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>王伟民</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$D$64:$I$64</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000C-8DF2-6542-BA52-14A5B86C3BBF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="1"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
+      </c:pie3DChart>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US"/>
+              <a:t>实验三</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" altLang="zh-CN"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:view3D>
+      <c:rotX val="30"/>
+      <c:rotY val="0"/>
+      <c:depthPercent val="100"/>
+      <c:rAngAx val="0"/>
+    </c:view3D>
+    <c:floor>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:floor>
+    <c:sideWall>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:sideWall>
+    <c:backWall>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:backWall>
+    <c:plotArea>
+      <c:layout/>
+      <c:pie3DChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>实验二与实验六-八(1)</c:v>
+          </c:tx>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="25400">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+              <a:sp3d contourW="25400">
+                <a:contourClr>
+                  <a:schemeClr val="lt1"/>
+                </a:contourClr>
+              </a:sp3d>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-9E66-9946-A8E7-3FD3B154E0B7}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="25400">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+              <a:sp3d contourW="25400">
+                <a:contourClr>
+                  <a:schemeClr val="lt1"/>
+                </a:contourClr>
+              </a:sp3d>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-9E66-9946-A8E7-3FD3B154E0B7}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="zh-CN"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="1"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="1"/>
+            <c:leaderLines>
+              <c:spPr>
+                <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="35000"/>
+                      <a:lumOff val="65000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:round/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:leaderLines>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$J$3:$K$3</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>文档类</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>代码类</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$J$64:$K$64</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-9E66-9946-A8E7-3FD3B154E0B7}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="1"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
+      </c:pie3DChart>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -3040,6 +3884,86 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="262">
   <cs:axisTitle>
@@ -5636,6 +6560,1044 @@
 </file>
 
 <file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="262">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="25400">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="262">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="25400">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="262">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -6383,6 +8345,82 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="13" name="图表 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A1507C2E-3991-AA4B-9D92-DBF013A4CD39}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId7"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>368300</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>279400</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="14" name="图表 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4586044D-0D74-6B41-851F-D95DA09B57A9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId8"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -6683,10 +8721,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B8501E1-355C-AC4B-88C0-0ED3552E3EDC}">
-  <dimension ref="A1:W52"/>
+  <dimension ref="A1:W64"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="U1" sqref="U1:W2"/>
+    <sheetView tabSelected="1" topLeftCell="Q1" workbookViewId="0">
+      <selection activeCell="Z8" sqref="Z8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -6694,77 +8732,77 @@
     <col min="1" max="3" width="21.83203125" customWidth="1"/>
     <col min="21" max="21" width="18" customWidth="1"/>
     <col min="22" max="22" width="22.33203125" customWidth="1"/>
-    <col min="23" max="23" width="19.6640625" customWidth="1"/>
+    <col min="23" max="23" width="28" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="33">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10"/>
-      <c r="H1" s="10"/>
-      <c r="I1" s="10"/>
-      <c r="J1" s="10"/>
-      <c r="K1" s="10"/>
-      <c r="L1" s="11"/>
-      <c r="U1" s="15" t="s">
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="11"/>
+      <c r="I1" s="11"/>
+      <c r="J1" s="11"/>
+      <c r="K1" s="11"/>
+      <c r="L1" s="12"/>
+      <c r="U1" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="V1" s="15"/>
-      <c r="W1" s="15"/>
+      <c r="V1" s="8"/>
+      <c r="W1" s="8"/>
     </row>
     <row r="2" spans="1:23" ht="23">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="F2" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="G2" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="H2" s="5" t="s">
+      <c r="H2" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="I2" s="5" t="s">
+      <c r="I2" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="J2" s="5" t="s">
+      <c r="J2" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="K2" s="5"/>
-      <c r="L2" s="5"/>
-      <c r="U2" s="15"/>
-      <c r="V2" s="15"/>
-      <c r="W2" s="15"/>
+      <c r="K2" s="9"/>
+      <c r="L2" s="9"/>
+      <c r="U2" s="8"/>
+      <c r="V2" s="8"/>
+      <c r="W2" s="8"/>
     </row>
     <row r="3" spans="1:23" ht="29" customHeight="1">
-      <c r="A3" s="5"/>
-      <c r="B3" s="13"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="5"/>
-      <c r="I3" s="5"/>
+      <c r="A3" s="9"/>
+      <c r="B3" s="14"/>
+      <c r="C3" s="9"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="9"/>
+      <c r="H3" s="9"/>
+      <c r="I3" s="9"/>
       <c r="J3" s="1" t="s">
         <v>18</v>
       </c>
@@ -6774,13 +8812,13 @@
       <c r="L3" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="U3" s="16" t="s">
+      <c r="U3" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="V3" s="16" t="s">
+      <c r="V3" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="W3" s="16" t="s">
+      <c r="W3" s="7" t="s">
         <v>47</v>
       </c>
     </row>
@@ -6788,7 +8826,7 @@
       <c r="A4" s="2">
         <v>2</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="15" t="s">
         <v>34</v>
       </c>
       <c r="C4" s="2" t="s">
@@ -6810,13 +8848,13 @@
       <c r="L4" s="2">
         <v>0</v>
       </c>
-      <c r="U4" s="16">
+      <c r="U4" s="7">
         <v>4.29</v>
       </c>
-      <c r="V4" s="16" t="s">
+      <c r="V4" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="W4" s="16" t="s">
+      <c r="W4" s="7" t="s">
         <v>48</v>
       </c>
     </row>
@@ -6824,7 +8862,7 @@
       <c r="A5" s="2">
         <v>3</v>
       </c>
-      <c r="B5" s="8"/>
+      <c r="B5" s="16"/>
       <c r="C5" s="2" t="s">
         <v>10</v>
       </c>
@@ -6849,15 +8887,21 @@
         <f>SUM(D5:H5)</f>
         <v>23</v>
       </c>
-      <c r="U5" s="16"/>
-      <c r="V5" s="16"/>
-      <c r="W5" s="16"/>
+      <c r="U5" s="7">
+        <v>5.2</v>
+      </c>
+      <c r="V5" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="W5" s="7" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="6" spans="1:23" ht="23">
       <c r="A6" s="2">
         <v>4</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="17" t="s">
         <v>33</v>
       </c>
       <c r="C6" s="2" t="s">
@@ -6888,15 +8932,15 @@
         <f t="shared" ref="L6" si="1">SUM(D6:H6)</f>
         <v>20</v>
       </c>
-      <c r="U6" s="16"/>
-      <c r="V6" s="16"/>
-      <c r="W6" s="16"/>
+      <c r="U6" s="7"/>
+      <c r="V6" s="7"/>
+      <c r="W6" s="7"/>
     </row>
     <row r="7" spans="1:23" ht="23">
       <c r="A7" s="2">
         <v>5</v>
       </c>
-      <c r="B7" s="6"/>
+      <c r="B7" s="17"/>
       <c r="C7" s="2" t="s">
         <v>12</v>
       </c>
@@ -6927,15 +8971,15 @@
         <f>SUM(D7:I7)</f>
         <v>25</v>
       </c>
-      <c r="U7" s="16"/>
-      <c r="V7" s="16"/>
-      <c r="W7" s="16"/>
+      <c r="U7" s="7"/>
+      <c r="V7" s="7"/>
+      <c r="W7" s="7"/>
     </row>
     <row r="8" spans="1:23" ht="23">
       <c r="A8" s="2">
         <v>6</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="17" t="s">
         <v>32</v>
       </c>
       <c r="C8" s="2" t="s">
@@ -6964,15 +9008,15 @@
         <f t="shared" ref="L8:L20" si="2">SUM(D8:I8)</f>
         <v>9</v>
       </c>
-      <c r="U8" s="16"/>
-      <c r="V8" s="16"/>
-      <c r="W8" s="16"/>
+      <c r="U8" s="7"/>
+      <c r="V8" s="7"/>
+      <c r="W8" s="7"/>
     </row>
     <row r="9" spans="1:23" ht="23">
       <c r="A9" s="2">
         <v>7</v>
       </c>
-      <c r="B9" s="6"/>
+      <c r="B9" s="17"/>
       <c r="C9" s="2" t="s">
         <v>14</v>
       </c>
@@ -7001,9 +9045,9 @@
         <f t="shared" si="2"/>
         <v>12</v>
       </c>
-      <c r="U9" s="16"/>
-      <c r="V9" s="16"/>
-      <c r="W9" s="16"/>
+      <c r="U9" s="7"/>
+      <c r="V9" s="7"/>
+      <c r="W9" s="7"/>
     </row>
     <row r="10" spans="1:23" ht="23">
       <c r="A10" s="2">
@@ -7040,43 +9084,47 @@
         <f t="shared" si="2"/>
         <v>18</v>
       </c>
-      <c r="U10" s="16"/>
-      <c r="V10" s="16"/>
-      <c r="W10" s="16"/>
+      <c r="U10" s="7"/>
+      <c r="V10" s="7"/>
+      <c r="W10" s="7"/>
     </row>
     <row r="11" spans="1:23" ht="23">
       <c r="A11" s="2">
         <v>9</v>
       </c>
-      <c r="B11" s="7" t="s">
+      <c r="B11" s="15" t="s">
         <v>36</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
+      <c r="D11" s="2">
+        <v>3</v>
+      </c>
+      <c r="E11" s="2">
+        <v>1</v>
+      </c>
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
       <c r="I11" s="2"/>
       <c r="J11" s="2">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K11" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f>L11-J11</f>
+        <v>1</v>
       </c>
       <c r="L11" s="2">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="12" spans="1:23" ht="23">
       <c r="A12" s="2">
         <v>10</v>
       </c>
-      <c r="B12" s="14"/>
+      <c r="B12" s="18"/>
       <c r="C12" s="2" t="s">
         <v>23</v>
       </c>
@@ -7102,7 +9150,7 @@
       <c r="A13" s="2">
         <v>11</v>
       </c>
-      <c r="B13" s="8"/>
+      <c r="B13" s="16"/>
       <c r="C13" s="2" t="s">
         <v>24</v>
       </c>
@@ -7156,7 +9204,7 @@
       <c r="A15" s="2">
         <v>13</v>
       </c>
-      <c r="B15" s="7" t="s">
+      <c r="B15" s="15" t="s">
         <v>38</v>
       </c>
       <c r="C15" s="2" t="s">
@@ -7184,7 +9232,7 @@
       <c r="A16" s="2">
         <v>14</v>
       </c>
-      <c r="B16" s="14"/>
+      <c r="B16" s="18"/>
       <c r="C16" s="2" t="s">
         <v>27</v>
       </c>
@@ -7210,7 +9258,7 @@
       <c r="A17" s="2">
         <v>15</v>
       </c>
-      <c r="B17" s="8"/>
+      <c r="B17" s="16"/>
       <c r="C17" s="2" t="s">
         <v>28</v>
       </c>
@@ -7322,11 +9370,11 @@
       <c r="C21" s="3"/>
       <c r="D21" s="2">
         <f>SUM(D4:D20)</f>
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E21" s="2">
         <f t="shared" ref="E21:I21" si="3">SUM(E4:E20)</f>
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F21" s="2">
         <f t="shared" si="3"/>
@@ -7346,77 +9394,77 @@
       </c>
       <c r="J21" s="2">
         <f t="shared" ref="J21" si="4">SUM(J4:J20)</f>
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="K21" s="2">
         <f t="shared" si="0"/>
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="L21" s="2">
         <f>SUM(D21:I21)</f>
-        <v>107</v>
+        <v>111</v>
       </c>
     </row>
     <row r="32" spans="1:12" ht="33">
-      <c r="A32" s="9" t="s">
+      <c r="A32" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="B32" s="10"/>
-      <c r="C32" s="10"/>
-      <c r="D32" s="10"/>
-      <c r="E32" s="10"/>
-      <c r="F32" s="10"/>
-      <c r="G32" s="10"/>
-      <c r="H32" s="10"/>
-      <c r="I32" s="10"/>
-      <c r="J32" s="10"/>
-      <c r="K32" s="10"/>
-      <c r="L32" s="11"/>
+      <c r="B32" s="11"/>
+      <c r="C32" s="11"/>
+      <c r="D32" s="11"/>
+      <c r="E32" s="11"/>
+      <c r="F32" s="11"/>
+      <c r="G32" s="11"/>
+      <c r="H32" s="11"/>
+      <c r="I32" s="11"/>
+      <c r="J32" s="11"/>
+      <c r="K32" s="11"/>
+      <c r="L32" s="12"/>
     </row>
     <row r="33" spans="1:12" ht="23">
-      <c r="A33" s="5" t="s">
+      <c r="A33" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B33" s="12" t="s">
+      <c r="B33" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="C33" s="5" t="s">
+      <c r="C33" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="D33" s="5" t="s">
+      <c r="D33" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="E33" s="5" t="s">
+      <c r="E33" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="F33" s="5" t="s">
+      <c r="F33" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="G33" s="5" t="s">
+      <c r="G33" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="H33" s="5" t="s">
+      <c r="H33" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="I33" s="5" t="s">
+      <c r="I33" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="J33" s="5" t="s">
+      <c r="J33" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="K33" s="5"/>
-      <c r="L33" s="5"/>
+      <c r="K33" s="9"/>
+      <c r="L33" s="9"/>
     </row>
     <row r="34" spans="1:12" ht="23">
-      <c r="A34" s="5"/>
-      <c r="B34" s="13"/>
-      <c r="C34" s="5"/>
-      <c r="D34" s="5"/>
-      <c r="E34" s="5"/>
-      <c r="F34" s="5"/>
-      <c r="G34" s="5"/>
-      <c r="H34" s="5"/>
-      <c r="I34" s="5"/>
+      <c r="A34" s="9"/>
+      <c r="B34" s="14"/>
+      <c r="C34" s="9"/>
+      <c r="D34" s="9"/>
+      <c r="E34" s="9"/>
+      <c r="F34" s="9"/>
+      <c r="G34" s="9"/>
+      <c r="H34" s="9"/>
+      <c r="I34" s="9"/>
       <c r="J34" s="1" t="s">
         <v>18</v>
       </c>
@@ -7431,7 +9479,7 @@
       <c r="A35" s="2">
         <v>2</v>
       </c>
-      <c r="B35" s="7" t="s">
+      <c r="B35" s="15" t="s">
         <v>34</v>
       </c>
       <c r="C35" s="2" t="s">
@@ -7474,7 +9522,7 @@
       <c r="A36" s="2">
         <v>3</v>
       </c>
-      <c r="B36" s="8"/>
+      <c r="B36" s="16"/>
       <c r="C36" s="2" t="s">
         <v>10</v>
       </c>
@@ -7518,7 +9566,7 @@
       <c r="A37" s="2">
         <v>4</v>
       </c>
-      <c r="B37" s="6" t="s">
+      <c r="B37" s="17" t="s">
         <v>33</v>
       </c>
       <c r="C37" s="2" t="s">
@@ -7564,7 +9612,7 @@
       <c r="A38" s="2">
         <v>5</v>
       </c>
-      <c r="B38" s="6"/>
+      <c r="B38" s="17"/>
       <c r="C38" s="2" t="s">
         <v>12</v>
       </c>
@@ -7650,65 +9698,65 @@
       </c>
     </row>
     <row r="46" spans="1:12" ht="33">
-      <c r="A46" s="9" t="s">
+      <c r="A46" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="B46" s="10"/>
-      <c r="C46" s="10"/>
-      <c r="D46" s="10"/>
-      <c r="E46" s="10"/>
-      <c r="F46" s="10"/>
-      <c r="G46" s="10"/>
-      <c r="H46" s="10"/>
-      <c r="I46" s="10"/>
-      <c r="J46" s="10"/>
-      <c r="K46" s="10"/>
-      <c r="L46" s="11"/>
+      <c r="B46" s="11"/>
+      <c r="C46" s="11"/>
+      <c r="D46" s="11"/>
+      <c r="E46" s="11"/>
+      <c r="F46" s="11"/>
+      <c r="G46" s="11"/>
+      <c r="H46" s="11"/>
+      <c r="I46" s="11"/>
+      <c r="J46" s="11"/>
+      <c r="K46" s="11"/>
+      <c r="L46" s="12"/>
     </row>
     <row r="47" spans="1:12" ht="23">
-      <c r="A47" s="5" t="s">
+      <c r="A47" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B47" s="12" t="s">
+      <c r="B47" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="C47" s="5" t="s">
+      <c r="C47" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="D47" s="5" t="s">
+      <c r="D47" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="E47" s="5" t="s">
+      <c r="E47" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="F47" s="5" t="s">
+      <c r="F47" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="G47" s="5" t="s">
+      <c r="G47" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="H47" s="5" t="s">
+      <c r="H47" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="I47" s="5" t="s">
+      <c r="I47" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="J47" s="5" t="s">
+      <c r="J47" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="K47" s="5"/>
-      <c r="L47" s="5"/>
+      <c r="K47" s="9"/>
+      <c r="L47" s="9"/>
     </row>
     <row r="48" spans="1:12" ht="23">
-      <c r="A48" s="5"/>
-      <c r="B48" s="13"/>
-      <c r="C48" s="5"/>
-      <c r="D48" s="5"/>
-      <c r="E48" s="5"/>
-      <c r="F48" s="5"/>
-      <c r="G48" s="5"/>
-      <c r="H48" s="5"/>
-      <c r="I48" s="5"/>
+      <c r="A48" s="9"/>
+      <c r="B48" s="14"/>
+      <c r="C48" s="9"/>
+      <c r="D48" s="9"/>
+      <c r="E48" s="9"/>
+      <c r="F48" s="9"/>
+      <c r="G48" s="9"/>
+      <c r="H48" s="9"/>
+      <c r="I48" s="9"/>
       <c r="J48" s="1" t="s">
         <v>18</v>
       </c>
@@ -7723,7 +9771,7 @@
       <c r="A49" s="2">
         <v>6</v>
       </c>
-      <c r="B49" s="6" t="s">
+      <c r="B49" s="17" t="s">
         <v>32</v>
       </c>
       <c r="C49" s="2" t="s">
@@ -7769,7 +9817,7 @@
       <c r="A50" s="2">
         <v>7</v>
       </c>
-      <c r="B50" s="6"/>
+      <c r="B50" s="17"/>
       <c r="C50" s="2" t="s">
         <v>14</v>
       </c>
@@ -7900,34 +9948,272 @@
         <v>39</v>
       </c>
     </row>
+    <row r="58" spans="1:12" ht="33">
+      <c r="A58" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="B58" s="11"/>
+      <c r="C58" s="11"/>
+      <c r="D58" s="11"/>
+      <c r="E58" s="11"/>
+      <c r="F58" s="11"/>
+      <c r="G58" s="11"/>
+      <c r="H58" s="11"/>
+      <c r="I58" s="11"/>
+      <c r="J58" s="11"/>
+      <c r="K58" s="11"/>
+      <c r="L58" s="12"/>
+    </row>
+    <row r="59" spans="1:12" ht="23">
+      <c r="A59" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B59" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="C59" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D59" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="E59" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="F59" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="G59" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="H59" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="I59" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="J59" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="K59" s="9"/>
+      <c r="L59" s="9"/>
+    </row>
+    <row r="60" spans="1:12" ht="23">
+      <c r="A60" s="9"/>
+      <c r="B60" s="14"/>
+      <c r="C60" s="9"/>
+      <c r="D60" s="9"/>
+      <c r="E60" s="9"/>
+      <c r="F60" s="9"/>
+      <c r="G60" s="9"/>
+      <c r="H60" s="9"/>
+      <c r="I60" s="9"/>
+      <c r="J60" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="K60" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="L60" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12" ht="23">
+      <c r="A61" s="6">
+        <v>9</v>
+      </c>
+      <c r="B61" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="C61" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D61" s="6">
+        <f>D11</f>
+        <v>3</v>
+      </c>
+      <c r="E61" s="6">
+        <f t="shared" ref="E61:L61" si="24">E11</f>
+        <v>1</v>
+      </c>
+      <c r="F61" s="6">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="G61" s="6">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="H61" s="6">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="I61" s="6">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="J61" s="6">
+        <f t="shared" si="24"/>
+        <v>3</v>
+      </c>
+      <c r="K61" s="6">
+        <f t="shared" si="24"/>
+        <v>1</v>
+      </c>
+      <c r="L61" s="6">
+        <f t="shared" si="24"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12" ht="23">
+      <c r="A62" s="6">
+        <v>10</v>
+      </c>
+      <c r="B62" s="18"/>
+      <c r="C62" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D62" s="6">
+        <f t="shared" ref="D62:L63" si="25">D12</f>
+        <v>0</v>
+      </c>
+      <c r="E62" s="6">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="F62" s="6">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="G62" s="6">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="H62" s="6">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="I62" s="6">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="J62" s="6">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="K62" s="6">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="L62" s="6">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12" ht="23">
+      <c r="A63" s="6">
+        <v>11</v>
+      </c>
+      <c r="B63" s="16"/>
+      <c r="C63" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D63" s="6">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="E63" s="6">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="F63" s="6">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="G63" s="6">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="H63" s="6">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="I63" s="6">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="J63" s="6">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="K63" s="6">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="L63" s="6">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12" ht="23">
+      <c r="A64" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B64" s="6"/>
+      <c r="C64" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="D64" s="6">
+        <f>SUM(D60:D63)</f>
+        <v>3</v>
+      </c>
+      <c r="E64" s="6">
+        <f>SUM(E60:E63)</f>
+        <v>1</v>
+      </c>
+      <c r="F64" s="6">
+        <f>SUM(F60:F63)</f>
+        <v>0</v>
+      </c>
+      <c r="G64" s="6">
+        <f t="shared" ref="E64:L64" si="26">SUM(G60:G63)</f>
+        <v>0</v>
+      </c>
+      <c r="H64" s="6">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="I64" s="6">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="J64" s="6">
+        <f t="shared" si="26"/>
+        <v>3</v>
+      </c>
+      <c r="K64" s="6">
+        <f t="shared" si="26"/>
+        <v>1</v>
+      </c>
+      <c r="L64" s="6">
+        <f t="shared" si="26"/>
+        <v>4</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="42">
-    <mergeCell ref="U1:W2"/>
-    <mergeCell ref="I2:I3"/>
-    <mergeCell ref="J2:L2"/>
-    <mergeCell ref="A1:L1"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="F2:F3"/>
-    <mergeCell ref="G2:G3"/>
-    <mergeCell ref="H2:H3"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="B11:B13"/>
-    <mergeCell ref="B15:B17"/>
-    <mergeCell ref="A32:L32"/>
-    <mergeCell ref="A33:A34"/>
-    <mergeCell ref="B33:B34"/>
-    <mergeCell ref="C33:C34"/>
-    <mergeCell ref="D33:D34"/>
-    <mergeCell ref="E33:E34"/>
-    <mergeCell ref="F33:F34"/>
-    <mergeCell ref="G33:G34"/>
-    <mergeCell ref="H33:H34"/>
+  <mergeCells count="54">
+    <mergeCell ref="B61:B63"/>
+    <mergeCell ref="A58:L58"/>
+    <mergeCell ref="A59:A60"/>
+    <mergeCell ref="B59:B60"/>
+    <mergeCell ref="C59:C60"/>
+    <mergeCell ref="D59:D60"/>
+    <mergeCell ref="E59:E60"/>
+    <mergeCell ref="F59:F60"/>
+    <mergeCell ref="G59:G60"/>
+    <mergeCell ref="H59:H60"/>
+    <mergeCell ref="I59:I60"/>
+    <mergeCell ref="J59:L59"/>
     <mergeCell ref="B49:B50"/>
     <mergeCell ref="I33:I34"/>
     <mergeCell ref="J33:L33"/>
@@ -7944,6 +10230,32 @@
     <mergeCell ref="H47:H48"/>
     <mergeCell ref="I47:I48"/>
     <mergeCell ref="J47:L47"/>
+    <mergeCell ref="A32:L32"/>
+    <mergeCell ref="A33:A34"/>
+    <mergeCell ref="B33:B34"/>
+    <mergeCell ref="C33:C34"/>
+    <mergeCell ref="D33:D34"/>
+    <mergeCell ref="E33:E34"/>
+    <mergeCell ref="F33:F34"/>
+    <mergeCell ref="G33:G34"/>
+    <mergeCell ref="H33:H34"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="B11:B13"/>
+    <mergeCell ref="B15:B17"/>
+    <mergeCell ref="U1:W2"/>
+    <mergeCell ref="I2:I3"/>
+    <mergeCell ref="J2:L2"/>
+    <mergeCell ref="A1:L1"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="G2:G3"/>
+    <mergeCell ref="H2:H3"/>
+    <mergeCell ref="B2:B3"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/实验7：配置管理/20F_Commit总表.xlsx
+++ b/实验7：配置管理/20F_Commit总表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mz/Desktop/软工实验/20_F/实验7：配置管理/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C20429D6-67BE-0A42-943C-92D708287F93}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D17F80D2-3BA0-B74A-93AD-417C15591121}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="760" yWindow="460" windowWidth="27760" windowHeight="17040" xr2:uid="{9388D582-CDE4-9A46-9540-D7DCCDE5460A}"/>
+    <workbookView xWindow="780" yWindow="460" windowWidth="27760" windowHeight="17040" xr2:uid="{9388D582-CDE4-9A46-9540-D7DCCDE5460A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="52">
   <si>
     <t>周次</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -234,6 +234,10 @@
   </si>
   <si>
     <t>进度更新、添加实验三统计</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>添加各实验占比</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -812,10 +816,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>25</c:v>
+                  <c:v>26</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>45</c:v>
+                  <c:v>47</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>4</c:v>
@@ -887,6 +891,320 @@
         </a:p>
       </c:txPr>
     </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US"/>
+              <a:t>各实验提交次数</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>(Sheet1!$B$4,Sheet1!$B$6,Sheet1!$B$8,Sheet1!$B$10,Sheet1!$B$11)</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>实验零</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>实验一</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>实验二</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>实验六-八(1)</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>实验三</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>(Sheet1!$M$5,Sheet1!$M$7,Sheet1!$M$9,Sheet1!$M$10,Sheet1!$K$21)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>49</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-4CCF-B74A-B1D4-17C2B99C6255}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="859339583"/>
+        <c:axId val="859341215"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="859339583"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="859341215"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="859341215"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="859339583"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:extLst>
@@ -1151,10 +1469,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>64</c:v>
+                  <c:v>65</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>47</c:v>
+                  <c:v>49</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3172,10 +3490,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>3</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0</c:v>
@@ -3537,10 +3855,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>3</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3644,7 +3962,458 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US"/>
+              <a:t>各实验提交占比</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:view3D>
+      <c:rotX val="30"/>
+      <c:rotY val="0"/>
+      <c:depthPercent val="100"/>
+      <c:rAngAx val="0"/>
+    </c:view3D>
+    <c:floor>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:floor>
+    <c:sideWall>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:sideWall>
+    <c:backWall>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:backWall>
+    <c:plotArea>
+      <c:layout/>
+      <c:pie3DChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="25400">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+              <a:sp3d contourW="25400">
+                <a:contourClr>
+                  <a:schemeClr val="lt1"/>
+                </a:contourClr>
+              </a:sp3d>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-6DBF-1645-BF34-2147079D4DED}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="25400">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+              <a:sp3d contourW="25400">
+                <a:contourClr>
+                  <a:schemeClr val="lt1"/>
+                </a:contourClr>
+              </a:sp3d>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-6DBF-1645-BF34-2147079D4DED}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="25400">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+              <a:sp3d contourW="25400">
+                <a:contourClr>
+                  <a:schemeClr val="lt1"/>
+                </a:contourClr>
+              </a:sp3d>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-6DBF-1645-BF34-2147079D4DED}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="25400">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+              <a:sp3d contourW="25400">
+                <a:contourClr>
+                  <a:schemeClr val="lt1"/>
+                </a:contourClr>
+              </a:sp3d>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000007-6DBF-1645-BF34-2147079D4DED}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="4"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="25400">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+              <a:sp3d contourW="25400">
+                <a:contourClr>
+                  <a:schemeClr val="lt1"/>
+                </a:contourClr>
+              </a:sp3d>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000009-6DBF-1645-BF34-2147079D4DED}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="zh-CN"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="1"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="1"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="1"/>
+            <c:leaderLines>
+              <c:spPr>
+                <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="35000"/>
+                      <a:lumOff val="65000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:round/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:leaderLines>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>(Sheet1!$B$4,Sheet1!$B$6,Sheet1!$B$8,Sheet1!$B$10,Sheet1!$B$11)</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>实验零</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>实验一</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>实验二</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>实验六-八(1)</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>实验三</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>(Sheet1!$M$5,Sheet1!$M$7,Sheet1!$M$9,Sheet1!$M$10,Sheet1!$K$21)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>49</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-5CA0-874F-8FE4-F64F93C3A11E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="1"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="1"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
+      </c:pie3DChart>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors10.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -3964,6 +4733,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors9.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="262">
   <cs:axisTitle>
@@ -4483,8 +5292,8 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="262">
+<file path=xl/charts/style10.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -4541,7 +5350,7 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
+    <cs:defRPr sz="1000" kern="1200"/>
   </cs:chartArea>
   <cs:dataLabel>
     <cs:lnRef idx="0"/>
@@ -4592,13 +5401,6 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050">
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
@@ -4609,19 +5411,12 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="25400">
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="0"/>
+    <cs:fillRef idx="1"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
@@ -4659,7 +5454,7 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="0"/>
+    <cs:fillRef idx="1"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
@@ -4702,23 +5497,22 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
         </a:schemeClr>
       </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="65000"/>
             <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:downBar>
@@ -4823,8 +5617,8 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -4956,20 +5750,19 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="lt1"/>
       </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
       </a:ln>
     </cs:spPr>
   </cs:upBar>
@@ -5002,7 +5795,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="262">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -5521,7 +6314,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="262">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -6040,7 +6833,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="262">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -6559,7 +7352,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="262">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -7078,7 +7871,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="262">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -7597,7 +8390,1045 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="262">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="25400">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="262">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="25400">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style9.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="262">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -8421,6 +10252,78 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>1676400</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>279400</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="图表 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0D141F1D-71B0-5846-893A-DD470B14FB46}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId9"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>647700</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="图表 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DEA858D5-BA65-3247-8B48-E10A15061EE3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId10"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -8723,8 +10626,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B8501E1-355C-AC4B-88C0-0ED3552E3EDC}">
   <dimension ref="A1:W64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Q1" workbookViewId="0">
-      <selection activeCell="Z8" sqref="Z8"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="W6" sqref="W6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -8887,6 +10790,10 @@
         <f>SUM(D5:H5)</f>
         <v>23</v>
       </c>
+      <c r="M5">
+        <f>L4+L5</f>
+        <v>23</v>
+      </c>
       <c r="U5" s="7">
         <v>5.2</v>
       </c>
@@ -8932,9 +10839,15 @@
         <f t="shared" ref="L6" si="1">SUM(D6:H6)</f>
         <v>20</v>
       </c>
-      <c r="U6" s="7"/>
-      <c r="V6" s="7"/>
-      <c r="W6" s="7"/>
+      <c r="U6" s="7">
+        <v>5.8</v>
+      </c>
+      <c r="V6" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="W6" s="7" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="7" spans="1:23" ht="23">
       <c r="A7" s="2">
@@ -8970,6 +10883,10 @@
       <c r="L7" s="2">
         <f>SUM(D7:I7)</f>
         <v>25</v>
+      </c>
+      <c r="M7">
+        <f>J6+J7</f>
+        <v>21</v>
       </c>
       <c r="U7" s="7"/>
       <c r="V7" s="7"/>
@@ -9045,6 +10962,10 @@
         <f t="shared" si="2"/>
         <v>12</v>
       </c>
+      <c r="M9">
+        <f>J8+J9</f>
+        <v>9</v>
+      </c>
       <c r="U9" s="7"/>
       <c r="V9" s="7"/>
       <c r="W9" s="7"/>
@@ -9084,6 +11005,10 @@
         <f t="shared" si="2"/>
         <v>18</v>
       </c>
+      <c r="M10">
+        <f>J10</f>
+        <v>8</v>
+      </c>
       <c r="U10" s="7"/>
       <c r="V10" s="7"/>
       <c r="W10" s="7"/>
@@ -9128,22 +11053,26 @@
       <c r="C12" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
+      <c r="D12" s="2">
+        <v>1</v>
+      </c>
+      <c r="E12" s="2">
+        <v>2</v>
+      </c>
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
       <c r="I12" s="2"/>
       <c r="J12" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K12" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L12" s="2">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="13" spans="1:23" ht="23">
@@ -9370,11 +11299,11 @@
       <c r="C21" s="3"/>
       <c r="D21" s="2">
         <f>SUM(D4:D20)</f>
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E21" s="2">
         <f t="shared" ref="E21:I21" si="3">SUM(E4:E20)</f>
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="F21" s="2">
         <f t="shared" si="3"/>
@@ -9394,15 +11323,15 @@
       </c>
       <c r="J21" s="2">
         <f t="shared" ref="J21" si="4">SUM(J4:J20)</f>
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="K21" s="2">
         <f t="shared" si="0"/>
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="L21" s="2">
         <f>SUM(D21:I21)</f>
-        <v>111</v>
+        <v>114</v>
       </c>
     </row>
     <row r="32" spans="1:12" ht="33">
@@ -10075,11 +12004,11 @@
       </c>
       <c r="D62" s="6">
         <f t="shared" ref="D62:L63" si="25">D12</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E62" s="6">
         <f t="shared" si="25"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F62" s="6">
         <f t="shared" si="25"/>
@@ -10099,15 +12028,15 @@
       </c>
       <c r="J62" s="6">
         <f t="shared" si="25"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K62" s="6">
         <f t="shared" si="25"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L62" s="6">
         <f t="shared" si="25"/>
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="63" spans="1:12" ht="23">
@@ -10165,18 +12094,18 @@
       </c>
       <c r="D64" s="6">
         <f>SUM(D60:D63)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E64" s="6">
         <f>SUM(E60:E63)</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F64" s="6">
         <f>SUM(F60:F63)</f>
         <v>0</v>
       </c>
       <c r="G64" s="6">
-        <f t="shared" ref="E64:L64" si="26">SUM(G60:G63)</f>
+        <f t="shared" ref="G64:L64" si="26">SUM(G60:G63)</f>
         <v>0</v>
       </c>
       <c r="H64" s="6">
@@ -10189,15 +12118,15 @@
       </c>
       <c r="J64" s="6">
         <f t="shared" si="26"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K64" s="6">
         <f t="shared" si="26"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L64" s="6">
         <f t="shared" si="26"/>
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/实验7：配置管理/20F_Commit总表.xlsx
+++ b/实验7：配置管理/20F_Commit总表.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10413"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10510"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mz/Desktop/软工实验/20_F/实验7：配置管理/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D17F80D2-3BA0-B74A-93AD-417C15591121}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22870253-9743-5B4B-9AFC-9125D1D00038}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="780" yWindow="460" windowWidth="27760" windowHeight="17040" xr2:uid="{9388D582-CDE4-9A46-9540-D7DCCDE5460A}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="53">
   <si>
     <t>周次</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -240,6 +240,10 @@
     <t>添加各实验占比</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>添加实验四统计</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -409,7 +413,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -434,10 +438,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -449,23 +465,23 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -816,10 +832,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>26</c:v>
+                  <c:v>28</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>47</c:v>
+                  <c:v>73</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>4</c:v>
@@ -831,7 +847,7 @@
                   <c:v>21</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>13</c:v>
+                  <c:v>19</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -950,6 +966,457 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:view3D>
+      <c:rotX val="30"/>
+      <c:rotY val="0"/>
+      <c:depthPercent val="100"/>
+      <c:rAngAx val="0"/>
+    </c:view3D>
+    <c:floor>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:floor>
+    <c:sideWall>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:sideWall>
+    <c:backWall>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:backWall>
+    <c:plotArea>
+      <c:layout/>
+      <c:pie3DChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>实验三</c:v>
+          </c:tx>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="25400">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+              <a:sp3d contourW="25400">
+                <a:contourClr>
+                  <a:schemeClr val="lt1"/>
+                </a:contourClr>
+              </a:sp3d>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-1D1B-014D-9D2D-BFC98AD164DE}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="25400">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+              <a:sp3d contourW="25400">
+                <a:contourClr>
+                  <a:schemeClr val="lt1"/>
+                </a:contourClr>
+              </a:sp3d>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-1D1B-014D-9D2D-BFC98AD164DE}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="25400">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+              <a:sp3d contourW="25400">
+                <a:contourClr>
+                  <a:schemeClr val="lt1"/>
+                </a:contourClr>
+              </a:sp3d>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-1D1B-014D-9D2D-BFC98AD164DE}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="25400">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+              <a:sp3d contourW="25400">
+                <a:contourClr>
+                  <a:schemeClr val="lt1"/>
+                </a:contourClr>
+              </a:sp3d>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000007-1D1B-014D-9D2D-BFC98AD164DE}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="4"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="25400">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+              <a:sp3d contourW="25400">
+                <a:contourClr>
+                  <a:schemeClr val="lt1"/>
+                </a:contourClr>
+              </a:sp3d>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000009-1D1B-014D-9D2D-BFC98AD164DE}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="5"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="25400">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+              <a:sp3d contourW="25400">
+                <a:contourClr>
+                  <a:schemeClr val="lt1"/>
+                </a:contourClr>
+              </a:sp3d>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000B-1D1B-014D-9D2D-BFC98AD164DE}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="zh-CN"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="1"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="1"/>
+            <c:leaderLines>
+              <c:spPr>
+                <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="35000"/>
+                      <a:lumOff val="65000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:round/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:leaderLines>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$D$33:$I$34</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>麦梓健</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>孙维华</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>郑锋</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>洪治凑</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>王子璇</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>王伟民</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$D$63:$I$63</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000C-1D1B-014D-9D2D-BFC98AD164DE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="1"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
+      </c:pie3DChart>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
       <c:tx>
         <c:rich>
           <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
@@ -970,7 +1437,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="zh-CN" altLang="en-US"/>
-              <a:t>各实验提交次数</a:t>
+              <a:t>实验四</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -1005,75 +1472,316 @@
       </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
+    <c:view3D>
+      <c:rotX val="30"/>
+      <c:rotY val="0"/>
+      <c:depthPercent val="100"/>
+      <c:rAngAx val="0"/>
+    </c:view3D>
+    <c:floor>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:floor>
+    <c:sideWall>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:sideWall>
+    <c:backWall>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:backWall>
     <c:plotArea>
       <c:layout/>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
+      <c:pie3DChart>
+        <c:varyColors val="1"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:ln>
+          <c:tx>
+            <c:v>实验三</c:v>
+          </c:tx>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="25400">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+              <a:sp3d contourW="25400">
+                <a:contourClr>
+                  <a:schemeClr val="lt1"/>
+                </a:contourClr>
+              </a:sp3d>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-21C1-054F-85CC-C35F4EB2E7F9}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="25400">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+              <a:sp3d contourW="25400">
+                <a:contourClr>
+                  <a:schemeClr val="lt1"/>
+                </a:contourClr>
+              </a:sp3d>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-21C1-054F-85CC-C35F4EB2E7F9}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="25400">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+              <a:sp3d contourW="25400">
+                <a:contourClr>
+                  <a:schemeClr val="lt1"/>
+                </a:contourClr>
+              </a:sp3d>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-21C1-054F-85CC-C35F4EB2E7F9}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="25400">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+              <a:sp3d contourW="25400">
+                <a:contourClr>
+                  <a:schemeClr val="lt1"/>
+                </a:contourClr>
+              </a:sp3d>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000007-21C1-054F-85CC-C35F4EB2E7F9}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="4"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="25400">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+              <a:sp3d contourW="25400">
+                <a:contourClr>
+                  <a:schemeClr val="lt1"/>
+                </a:contourClr>
+              </a:sp3d>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000009-21C1-054F-85CC-C35F4EB2E7F9}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="5"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="25400">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+              <a:sp3d contourW="25400">
+                <a:contourClr>
+                  <a:schemeClr val="lt1"/>
+                </a:contourClr>
+              </a:sp3d>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000B-21C1-054F-85CC-C35F4EB2E7F9}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dLbls>
+            <c:spPr>
               <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="zh-CN"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="1"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="1"/>
+            <c:leaderLines>
+              <c:spPr>
+                <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="35000"/>
+                      <a:lumOff val="65000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:round/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:leaderLines>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+            </c:extLst>
+          </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>(Sheet1!$B$4,Sheet1!$B$6,Sheet1!$B$8,Sheet1!$B$10,Sheet1!$B$11)</c:f>
+              <c:f>Sheet1!$D$33:$I$34</c:f>
               <c:strCache>
-                <c:ptCount val="5"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>实验零</c:v>
+                  <c:v>麦梓健</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>实验一</c:v>
+                  <c:v>孙维华</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>实验二</c:v>
+                  <c:v>郑锋</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>实验六-八(1)</c:v>
+                  <c:v>洪治凑</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>实验三</c:v>
+                  <c:v>王子璇</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>王伟民</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>(Sheet1!$M$5,Sheet1!$M$7,Sheet1!$M$9,Sheet1!$M$10,Sheet1!$K$21)</c:f>
+              <c:f>Sheet1!$D$75:$I$75</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>23</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>21</c:v>
+                  <c:v>26</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>9</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>49</c:v>
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-4CCF-B74A-B1D4-17C2B99C6255}"/>
+              <c16:uniqueId val="{0000000C-21C1-054F-85CC-C35F4EB2E7F9}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1082,44 +1790,116 @@
           <c:showVal val="0"/>
           <c:showCatName val="0"/>
           <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
+          <c:showPercent val="1"/>
           <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
         </c:dLbls>
-        <c:gapWidth val="219"/>
-        <c:overlap val="-27"/>
-        <c:axId val="859339583"/>
-        <c:axId val="859341215"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="859339583"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
+      </c:pie3DChart>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
           <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -1131,72 +1911,243 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="zh-CN"/>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US"/>
+              <a:t>实验四</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" altLang="zh-CN"/>
           </a:p>
-        </c:txPr>
-        <c:crossAx val="859341215"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="859341215"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
                 </a:schemeClr>
               </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:view3D>
+      <c:rotX val="30"/>
+      <c:rotY val="0"/>
+      <c:depthPercent val="100"/>
+      <c:rAngAx val="0"/>
+    </c:view3D>
+    <c:floor>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
           <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:floor>
+    <c:sideWall>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:sideWall>
+    <c:backWall>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:backWall>
+    <c:plotArea>
+      <c:layout/>
+      <c:pie3DChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>实验二与实验六-八(1)</c:v>
+          </c:tx>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="25400">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:schemeClr val="lt1"/>
                 </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="zh-CN"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="859339583"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
+              </a:ln>
+              <a:effectLst/>
+              <a:sp3d contourW="25400">
+                <a:contourClr>
+                  <a:schemeClr val="lt1"/>
+                </a:contourClr>
+              </a:sp3d>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-34B2-1F4A-87A1-896C083401AB}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="25400">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+              <a:sp3d contourW="25400">
+                <a:contourClr>
+                  <a:schemeClr val="lt1"/>
+                </a:contourClr>
+              </a:sp3d>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-34B2-1F4A-87A1-896C083401AB}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="zh-CN"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="1"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="1"/>
+            <c:leaderLines>
+              <c:spPr>
+                <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="35000"/>
+                      <a:lumOff val="65000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:round/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:leaderLines>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$J$3:$K$3</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>文档类</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>代码类</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$J$75:$K$75</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>32</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-34B2-1F4A-87A1-896C083401AB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="1"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
+      </c:pie3DChart>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -1205,6 +2156,37 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:extLst>
@@ -1469,10 +2451,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>65</c:v>
+                  <c:v>67</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>49</c:v>
+                  <c:v>81</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3273,483 +4255,6 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000001-8DF2-6542-BA52-14A5B86C3BBF}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="1"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:ln w="25400">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-              <a:sp3d contourW="25400">
-                <a:contourClr>
-                  <a:schemeClr val="lt1"/>
-                </a:contourClr>
-              </a:sp3d>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000003-8DF2-6542-BA52-14A5B86C3BBF}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="2"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:ln w="25400">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-              <a:sp3d contourW="25400">
-                <a:contourClr>
-                  <a:schemeClr val="lt1"/>
-                </a:contourClr>
-              </a:sp3d>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000005-8DF2-6542-BA52-14A5B86C3BBF}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="3"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent4"/>
-              </a:solidFill>
-              <a:ln w="25400">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-              <a:sp3d contourW="25400">
-                <a:contourClr>
-                  <a:schemeClr val="lt1"/>
-                </a:contourClr>
-              </a:sp3d>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000007-8DF2-6542-BA52-14A5B86C3BBF}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="4"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent5"/>
-              </a:solidFill>
-              <a:ln w="25400">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-              <a:sp3d contourW="25400">
-                <a:contourClr>
-                  <a:schemeClr val="lt1"/>
-                </a:contourClr>
-              </a:sp3d>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000009-8DF2-6542-BA52-14A5B86C3BBF}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="5"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent6"/>
-              </a:solidFill>
-              <a:ln w="25400">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-              <a:sp3d contourW="25400">
-                <a:contourClr>
-                  <a:schemeClr val="lt1"/>
-                </a:contourClr>
-              </a:sp3d>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{0000000B-8DF2-6542-BA52-14A5B86C3BBF}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dLbls>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="75000"/>
-                        <a:lumOff val="25000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="zh-CN"/>
-              </a:p>
-            </c:txPr>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="1"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="1"/>
-            <c:leaderLines>
-              <c:spPr>
-                <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="35000"/>
-                      <a:lumOff val="65000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:round/>
-                </a:ln>
-                <a:effectLst/>
-              </c:spPr>
-            </c:leaderLines>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-            </c:extLst>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>Sheet1!$D$33:$I$34</c:f>
-              <c:strCache>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>麦梓健</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>孙维华</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>郑锋</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>洪治凑</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>王子璇</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>王伟民</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$D$64:$I$64</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{0000000C-8DF2-6542-BA52-14A5B86C3BBF}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="1"/>
-          <c:showBubbleSize val="0"/>
-          <c:showLeaderLines val="1"/>
-        </c:dLbls>
-      </c:pie3DChart>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="zh-CN"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="zh-CN"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="zh-CN"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="zh-CN" altLang="en-US"/>
-              <a:t>实验三</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-US" altLang="zh-CN"/>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="zh-CN"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:view3D>
-      <c:rotX val="30"/>
-      <c:rotY val="0"/>
-      <c:depthPercent val="100"/>
-      <c:rAngAx val="0"/>
-    </c:view3D>
-    <c:floor>
-      <c:thickness val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-        <a:sp3d/>
-      </c:spPr>
-    </c:floor>
-    <c:sideWall>
-      <c:thickness val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-        <a:sp3d/>
-      </c:spPr>
-    </c:sideWall>
-    <c:backWall>
-      <c:thickness val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-        <a:sp3d/>
-      </c:spPr>
-    </c:backWall>
-    <c:plotArea>
-      <c:layout/>
-      <c:pie3DChart>
-        <c:varyColors val="1"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:v>实验二与实验六-八(1)</c:v>
-          </c:tx>
-          <c:dPt>
-            <c:idx val="0"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="25400">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-              <a:sp3d contourW="25400">
-                <a:contourClr>
-                  <a:schemeClr val="lt1"/>
-                </a:contourClr>
-              </a:sp3d>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000001-9E66-9946-A8E7-3FD3B154E0B7}"/>
               </c:ext>
             </c:extLst>
@@ -3850,7 +4355,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$J$64:$K$64</c:f>
+              <c:f>Sheet1!$J$63:$K$63</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
@@ -3962,7 +4467,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="zh-CN"/>
@@ -4300,7 +4805,7 @@
                   <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>49</c:v>
+                  <c:v>81</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4321,6 +4826,320 @@
           <c:showLeaderLines val="1"/>
         </c:dLbls>
       </c:pie3DChart>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US"/>
+              <a:t>各实验提交次数</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>(Sheet1!$B$4,Sheet1!$B$6,Sheet1!$B$8,Sheet1!$B$10,Sheet1!$B$11)</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>实验零</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>实验一</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>实验二</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>实验六-八(1)</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>实验三</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>(Sheet1!$M$5,Sheet1!$M$7,Sheet1!$M$9,Sheet1!$M$10,Sheet1!$K$21)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>81</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-4CCF-B74A-B1D4-17C2B99C6255}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="859339583"/>
+        <c:axId val="859341215"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="859339583"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="859341215"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="859341215"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="859339583"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -4414,6 +5233,86 @@
 </file>
 
 <file path=xl/charts/colors10.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors11.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors12.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -5293,7 +6192,7 @@
 </file>
 
 <file path=xl/charts/style10.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="262">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -5350,7 +6249,7 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
+    <cs:defRPr sz="900" kern="1200"/>
   </cs:chartArea>
   <cs:dataLabel>
     <cs:lnRef idx="0"/>
@@ -5401,6 +6300,13 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
@@ -5411,12 +6317,19 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="25400">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1"/>
+    <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
@@ -5454,7 +6367,7 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1"/>
+    <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
@@ -5497,22 +6410,23 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
         </a:schemeClr>
       </a:solidFill>
-      <a:ln w="9525">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="65000"/>
             <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:downBar>
@@ -5617,8 +6531,8 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -5750,19 +6664,20 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="lt1"/>
       </a:solidFill>
-      <a:ln w="9525">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:upBar>
@@ -5795,7 +6710,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style11.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="262">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -6314,7 +7229,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style12.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="262">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -6833,7 +7748,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="262">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -7352,7 +8267,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="262">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -7871,7 +8786,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="262">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -8390,7 +9305,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="262">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -8909,7 +9824,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="262">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -9428,7 +10343,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="262">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -9915,6 +10830,1028 @@
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="262">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="25400">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style9.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
       </a:ln>
     </cs:spPr>
   </cs:upBar>
@@ -10178,44 +12115,6 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>57</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>64</xdr:row>
-      <xdr:rowOff>101600</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="13" name="图表 12">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A1507C2E-3991-AA4B-9D92-DBF013A4CD39}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks/>
-        </xdr:cNvGraphicFramePr>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId7"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>18</xdr:col>
       <xdr:colOff>368300</xdr:colOff>
       <xdr:row>57</xdr:row>
@@ -10224,7 +12123,7 @@
     <xdr:to>
       <xdr:col>23</xdr:col>
       <xdr:colOff>279400</xdr:colOff>
-      <xdr:row>64</xdr:row>
+      <xdr:row>63</xdr:row>
       <xdr:rowOff>63500</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -10246,7 +12145,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId8"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId7"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -10282,7 +12181,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId9"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId8"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -10318,7 +12217,121 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId9"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="15" name="图表 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1F252851-72C5-5E45-8719-DCE6DE981954}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId10"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="16" name="图表 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EA8879F1-970C-3342-9F5C-28EDE9CAD929}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId11"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>368300</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>279400</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="17" name="图表 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{980B750C-ED92-0C44-8088-C25AE96476D3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId12"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -10624,10 +12637,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B8501E1-355C-AC4B-88C0-0ED3552E3EDC}">
-  <dimension ref="A1:W64"/>
+  <dimension ref="A1:W75"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="W6" sqref="W6"/>
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="U67" sqref="U67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -10639,73 +12652,73 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="33">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
-      <c r="G1" s="11"/>
-      <c r="H1" s="11"/>
-      <c r="I1" s="11"/>
-      <c r="J1" s="11"/>
-      <c r="K1" s="11"/>
-      <c r="L1" s="12"/>
-      <c r="U1" s="8" t="s">
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
+      <c r="H1" s="15"/>
+      <c r="I1" s="15"/>
+      <c r="J1" s="15"/>
+      <c r="K1" s="15"/>
+      <c r="L1" s="16"/>
+      <c r="U1" s="21" t="s">
         <v>44</v>
       </c>
-      <c r="V1" s="8"/>
-      <c r="W1" s="8"/>
+      <c r="V1" s="21"/>
+      <c r="W1" s="21"/>
     </row>
     <row r="2" spans="1:23" ht="23">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="13" t="s">
+      <c r="B2" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="D2" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="E2" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="9" t="s">
+      <c r="F2" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="9" t="s">
+      <c r="G2" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="H2" s="9" t="s">
+      <c r="H2" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="I2" s="9" t="s">
+      <c r="I2" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="J2" s="9" t="s">
+      <c r="J2" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="K2" s="9"/>
-      <c r="L2" s="9"/>
-      <c r="U2" s="8"/>
-      <c r="V2" s="8"/>
-      <c r="W2" s="8"/>
+      <c r="K2" s="17"/>
+      <c r="L2" s="17"/>
+      <c r="U2" s="21"/>
+      <c r="V2" s="21"/>
+      <c r="W2" s="21"/>
     </row>
     <row r="3" spans="1:23" ht="29" customHeight="1">
-      <c r="A3" s="9"/>
-      <c r="B3" s="14"/>
-      <c r="C3" s="9"/>
-      <c r="D3" s="9"/>
-      <c r="E3" s="9"/>
-      <c r="F3" s="9"/>
-      <c r="G3" s="9"/>
-      <c r="H3" s="9"/>
-      <c r="I3" s="9"/>
+      <c r="A3" s="17"/>
+      <c r="B3" s="19"/>
+      <c r="C3" s="17"/>
+      <c r="D3" s="17"/>
+      <c r="E3" s="17"/>
+      <c r="F3" s="17"/>
+      <c r="G3" s="17"/>
+      <c r="H3" s="17"/>
+      <c r="I3" s="17"/>
       <c r="J3" s="1" t="s">
         <v>18</v>
       </c>
@@ -10729,7 +12742,7 @@
       <c r="A4" s="2">
         <v>2</v>
       </c>
-      <c r="B4" s="15" t="s">
+      <c r="B4" s="11" t="s">
         <v>34</v>
       </c>
       <c r="C4" s="2" t="s">
@@ -10765,7 +12778,7 @@
       <c r="A5" s="2">
         <v>3</v>
       </c>
-      <c r="B5" s="16"/>
+      <c r="B5" s="13"/>
       <c r="C5" s="2" t="s">
         <v>10</v>
       </c>
@@ -10808,7 +12821,7 @@
       <c r="A6" s="2">
         <v>4</v>
       </c>
-      <c r="B6" s="17" t="s">
+      <c r="B6" s="20" t="s">
         <v>33</v>
       </c>
       <c r="C6" s="2" t="s">
@@ -10853,7 +12866,7 @@
       <c r="A7" s="2">
         <v>5</v>
       </c>
-      <c r="B7" s="17"/>
+      <c r="B7" s="20"/>
       <c r="C7" s="2" t="s">
         <v>12</v>
       </c>
@@ -10888,15 +12901,21 @@
         <f>J6+J7</f>
         <v>21</v>
       </c>
-      <c r="U7" s="7"/>
-      <c r="V7" s="7"/>
-      <c r="W7" s="7"/>
+      <c r="U7" s="7">
+        <v>5.15</v>
+      </c>
+      <c r="V7" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="W7" s="7" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="8" spans="1:23" ht="23">
       <c r="A8" s="2">
         <v>6</v>
       </c>
-      <c r="B8" s="17" t="s">
+      <c r="B8" s="20" t="s">
         <v>32</v>
       </c>
       <c r="C8" s="2" t="s">
@@ -10933,7 +12952,7 @@
       <c r="A9" s="2">
         <v>7</v>
       </c>
-      <c r="B9" s="17"/>
+      <c r="B9" s="20"/>
       <c r="C9" s="2" t="s">
         <v>14</v>
       </c>
@@ -11017,7 +13036,7 @@
       <c r="A11" s="2">
         <v>9</v>
       </c>
-      <c r="B11" s="15" t="s">
+      <c r="B11" s="20" t="s">
         <v>36</v>
       </c>
       <c r="C11" s="2" t="s">
@@ -11049,7 +13068,7 @@
       <c r="A12" s="2">
         <v>10</v>
       </c>
-      <c r="B12" s="18"/>
+      <c r="B12" s="20"/>
       <c r="C12" s="2" t="s">
         <v>23</v>
       </c>
@@ -11079,34 +13098,42 @@
       <c r="A13" s="2">
         <v>11</v>
       </c>
-      <c r="B13" s="16"/>
+      <c r="B13" s="9" t="s">
+        <v>37</v>
+      </c>
       <c r="C13" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
+      <c r="D13" s="2">
+        <v>2</v>
+      </c>
+      <c r="E13" s="2">
+        <v>26</v>
+      </c>
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
-      <c r="I13" s="2"/>
+      <c r="I13" s="2">
+        <v>6</v>
+      </c>
       <c r="J13" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K13" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="L13" s="2">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>34</v>
       </c>
     </row>
     <row r="14" spans="1:23" ht="23">
       <c r="A14" s="2">
         <v>12</v>
       </c>
-      <c r="B14" s="2" t="s">
-        <v>37</v>
+      <c r="B14" s="11" t="s">
+        <v>38</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>25</v>
@@ -11133,9 +13160,7 @@
       <c r="A15" s="2">
         <v>13</v>
       </c>
-      <c r="B15" s="15" t="s">
-        <v>38</v>
-      </c>
+      <c r="B15" s="12"/>
       <c r="C15" s="2" t="s">
         <v>26</v>
       </c>
@@ -11161,7 +13186,7 @@
       <c r="A16" s="2">
         <v>14</v>
       </c>
-      <c r="B16" s="18"/>
+      <c r="B16" s="12"/>
       <c r="C16" s="2" t="s">
         <v>27</v>
       </c>
@@ -11187,7 +13212,7 @@
       <c r="A17" s="2">
         <v>15</v>
       </c>
-      <c r="B17" s="16"/>
+      <c r="B17" s="13"/>
       <c r="C17" s="2" t="s">
         <v>28</v>
       </c>
@@ -11299,11 +13324,11 @@
       <c r="C21" s="3"/>
       <c r="D21" s="2">
         <f>SUM(D4:D20)</f>
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E21" s="2">
         <f t="shared" ref="E21:I21" si="3">SUM(E4:E20)</f>
-        <v>47</v>
+        <v>73</v>
       </c>
       <c r="F21" s="2">
         <f t="shared" si="3"/>
@@ -11319,81 +13344,81 @@
       </c>
       <c r="I21" s="2">
         <f t="shared" si="3"/>
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="J21" s="2">
         <f t="shared" ref="J21" si="4">SUM(J4:J20)</f>
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="K21" s="2">
         <f t="shared" si="0"/>
-        <v>49</v>
+        <v>81</v>
       </c>
       <c r="L21" s="2">
         <f>SUM(D21:I21)</f>
-        <v>114</v>
+        <v>148</v>
       </c>
     </row>
     <row r="32" spans="1:12" ht="33">
-      <c r="A32" s="10" t="s">
+      <c r="A32" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="B32" s="11"/>
-      <c r="C32" s="11"/>
-      <c r="D32" s="11"/>
-      <c r="E32" s="11"/>
-      <c r="F32" s="11"/>
-      <c r="G32" s="11"/>
-      <c r="H32" s="11"/>
-      <c r="I32" s="11"/>
-      <c r="J32" s="11"/>
-      <c r="K32" s="11"/>
-      <c r="L32" s="12"/>
+      <c r="B32" s="15"/>
+      <c r="C32" s="15"/>
+      <c r="D32" s="15"/>
+      <c r="E32" s="15"/>
+      <c r="F32" s="15"/>
+      <c r="G32" s="15"/>
+      <c r="H32" s="15"/>
+      <c r="I32" s="15"/>
+      <c r="J32" s="15"/>
+      <c r="K32" s="15"/>
+      <c r="L32" s="16"/>
     </row>
     <row r="33" spans="1:12" ht="23">
-      <c r="A33" s="9" t="s">
+      <c r="A33" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B33" s="13" t="s">
+      <c r="B33" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="C33" s="9" t="s">
+      <c r="C33" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="D33" s="9" t="s">
+      <c r="D33" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="E33" s="9" t="s">
+      <c r="E33" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="F33" s="9" t="s">
+      <c r="F33" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="G33" s="9" t="s">
+      <c r="G33" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="H33" s="9" t="s">
+      <c r="H33" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="I33" s="9" t="s">
+      <c r="I33" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="J33" s="9" t="s">
+      <c r="J33" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="K33" s="9"/>
-      <c r="L33" s="9"/>
+      <c r="K33" s="17"/>
+      <c r="L33" s="17"/>
     </row>
     <row r="34" spans="1:12" ht="23">
-      <c r="A34" s="9"/>
-      <c r="B34" s="14"/>
-      <c r="C34" s="9"/>
-      <c r="D34" s="9"/>
-      <c r="E34" s="9"/>
-      <c r="F34" s="9"/>
-      <c r="G34" s="9"/>
-      <c r="H34" s="9"/>
-      <c r="I34" s="9"/>
+      <c r="A34" s="17"/>
+      <c r="B34" s="19"/>
+      <c r="C34" s="17"/>
+      <c r="D34" s="17"/>
+      <c r="E34" s="17"/>
+      <c r="F34" s="17"/>
+      <c r="G34" s="17"/>
+      <c r="H34" s="17"/>
+      <c r="I34" s="17"/>
       <c r="J34" s="1" t="s">
         <v>18</v>
       </c>
@@ -11408,7 +13433,7 @@
       <c r="A35" s="2">
         <v>2</v>
       </c>
-      <c r="B35" s="15" t="s">
+      <c r="B35" s="11" t="s">
         <v>34</v>
       </c>
       <c r="C35" s="2" t="s">
@@ -11451,7 +13476,7 @@
       <c r="A36" s="2">
         <v>3</v>
       </c>
-      <c r="B36" s="16"/>
+      <c r="B36" s="13"/>
       <c r="C36" s="2" t="s">
         <v>10</v>
       </c>
@@ -11495,7 +13520,7 @@
       <c r="A37" s="2">
         <v>4</v>
       </c>
-      <c r="B37" s="17" t="s">
+      <c r="B37" s="20" t="s">
         <v>33</v>
       </c>
       <c r="C37" s="2" t="s">
@@ -11541,7 +13566,7 @@
       <c r="A38" s="2">
         <v>5</v>
       </c>
-      <c r="B38" s="17"/>
+      <c r="B38" s="20"/>
       <c r="C38" s="2" t="s">
         <v>12</v>
       </c>
@@ -11627,65 +13652,65 @@
       </c>
     </row>
     <row r="46" spans="1:12" ht="33">
-      <c r="A46" s="10" t="s">
+      <c r="A46" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="B46" s="11"/>
-      <c r="C46" s="11"/>
-      <c r="D46" s="11"/>
-      <c r="E46" s="11"/>
-      <c r="F46" s="11"/>
-      <c r="G46" s="11"/>
-      <c r="H46" s="11"/>
-      <c r="I46" s="11"/>
-      <c r="J46" s="11"/>
-      <c r="K46" s="11"/>
-      <c r="L46" s="12"/>
+      <c r="B46" s="15"/>
+      <c r="C46" s="15"/>
+      <c r="D46" s="15"/>
+      <c r="E46" s="15"/>
+      <c r="F46" s="15"/>
+      <c r="G46" s="15"/>
+      <c r="H46" s="15"/>
+      <c r="I46" s="15"/>
+      <c r="J46" s="15"/>
+      <c r="K46" s="15"/>
+      <c r="L46" s="16"/>
     </row>
     <row r="47" spans="1:12" ht="23">
-      <c r="A47" s="9" t="s">
+      <c r="A47" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B47" s="13" t="s">
+      <c r="B47" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="C47" s="9" t="s">
+      <c r="C47" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="D47" s="9" t="s">
+      <c r="D47" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="E47" s="9" t="s">
+      <c r="E47" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="F47" s="9" t="s">
+      <c r="F47" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="G47" s="9" t="s">
+      <c r="G47" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="H47" s="9" t="s">
+      <c r="H47" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="I47" s="9" t="s">
+      <c r="I47" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="J47" s="9" t="s">
+      <c r="J47" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="K47" s="9"/>
-      <c r="L47" s="9"/>
+      <c r="K47" s="17"/>
+      <c r="L47" s="17"/>
     </row>
     <row r="48" spans="1:12" ht="23">
-      <c r="A48" s="9"/>
-      <c r="B48" s="14"/>
-      <c r="C48" s="9"/>
-      <c r="D48" s="9"/>
-      <c r="E48" s="9"/>
-      <c r="F48" s="9"/>
-      <c r="G48" s="9"/>
-      <c r="H48" s="9"/>
-      <c r="I48" s="9"/>
+      <c r="A48" s="17"/>
+      <c r="B48" s="19"/>
+      <c r="C48" s="17"/>
+      <c r="D48" s="17"/>
+      <c r="E48" s="17"/>
+      <c r="F48" s="17"/>
+      <c r="G48" s="17"/>
+      <c r="H48" s="17"/>
+      <c r="I48" s="17"/>
       <c r="J48" s="1" t="s">
         <v>18</v>
       </c>
@@ -11700,7 +13725,7 @@
       <c r="A49" s="2">
         <v>6</v>
       </c>
-      <c r="B49" s="17" t="s">
+      <c r="B49" s="20" t="s">
         <v>32</v>
       </c>
       <c r="C49" s="2" t="s">
@@ -11746,7 +13771,7 @@
       <c r="A50" s="2">
         <v>7</v>
       </c>
-      <c r="B50" s="17"/>
+      <c r="B50" s="20"/>
       <c r="C50" s="2" t="s">
         <v>14</v>
       </c>
@@ -11878,65 +13903,65 @@
       </c>
     </row>
     <row r="58" spans="1:12" ht="33">
-      <c r="A58" s="10" t="s">
+      <c r="A58" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="B58" s="11"/>
-      <c r="C58" s="11"/>
-      <c r="D58" s="11"/>
-      <c r="E58" s="11"/>
-      <c r="F58" s="11"/>
-      <c r="G58" s="11"/>
-      <c r="H58" s="11"/>
-      <c r="I58" s="11"/>
-      <c r="J58" s="11"/>
-      <c r="K58" s="11"/>
-      <c r="L58" s="12"/>
+      <c r="B58" s="15"/>
+      <c r="C58" s="15"/>
+      <c r="D58" s="15"/>
+      <c r="E58" s="15"/>
+      <c r="F58" s="15"/>
+      <c r="G58" s="15"/>
+      <c r="H58" s="15"/>
+      <c r="I58" s="15"/>
+      <c r="J58" s="15"/>
+      <c r="K58" s="15"/>
+      <c r="L58" s="16"/>
     </row>
     <row r="59" spans="1:12" ht="23">
-      <c r="A59" s="9" t="s">
+      <c r="A59" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B59" s="13" t="s">
+      <c r="B59" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="C59" s="9" t="s">
+      <c r="C59" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="D59" s="9" t="s">
+      <c r="D59" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="E59" s="9" t="s">
+      <c r="E59" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="F59" s="9" t="s">
+      <c r="F59" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="G59" s="9" t="s">
+      <c r="G59" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="H59" s="9" t="s">
+      <c r="H59" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="I59" s="9" t="s">
+      <c r="I59" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="J59" s="9" t="s">
+      <c r="J59" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="K59" s="9"/>
-      <c r="L59" s="9"/>
+      <c r="K59" s="17"/>
+      <c r="L59" s="17"/>
     </row>
     <row r="60" spans="1:12" ht="23">
-      <c r="A60" s="9"/>
-      <c r="B60" s="14"/>
-      <c r="C60" s="9"/>
-      <c r="D60" s="9"/>
-      <c r="E60" s="9"/>
-      <c r="F60" s="9"/>
-      <c r="G60" s="9"/>
-      <c r="H60" s="9"/>
-      <c r="I60" s="9"/>
+      <c r="A60" s="17"/>
+      <c r="B60" s="19"/>
+      <c r="C60" s="17"/>
+      <c r="D60" s="17"/>
+      <c r="E60" s="17"/>
+      <c r="F60" s="17"/>
+      <c r="G60" s="17"/>
+      <c r="H60" s="17"/>
+      <c r="I60" s="17"/>
       <c r="J60" s="5" t="s">
         <v>18</v>
       </c>
@@ -11951,7 +13976,7 @@
       <c r="A61" s="6">
         <v>9</v>
       </c>
-      <c r="B61" s="15" t="s">
+      <c r="B61" s="11" t="s">
         <v>36</v>
       </c>
       <c r="C61" s="6" t="s">
@@ -11998,7 +14023,7 @@
       <c r="A62" s="6">
         <v>10</v>
       </c>
-      <c r="B62" s="18"/>
+      <c r="B62" s="13"/>
       <c r="C62" s="6" t="s">
         <v>23</v>
       </c>
@@ -12040,109 +14065,250 @@
       </c>
     </row>
     <row r="63" spans="1:12" ht="23">
-      <c r="A63" s="6">
-        <v>11</v>
-      </c>
-      <c r="B63" s="16"/>
+      <c r="A63" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B63" s="6"/>
       <c r="C63" s="6" t="s">
-        <v>24</v>
+        <v>49</v>
       </c>
       <c r="D63" s="6">
-        <f t="shared" si="25"/>
-        <v>0</v>
-      </c>
-      <c r="E63" s="6">
-        <f t="shared" si="25"/>
-        <v>0</v>
-      </c>
-      <c r="F63" s="6">
-        <f t="shared" si="25"/>
-        <v>0</v>
-      </c>
-      <c r="G63" s="6">
-        <f t="shared" si="25"/>
-        <v>0</v>
-      </c>
-      <c r="H63" s="6">
-        <f t="shared" si="25"/>
-        <v>0</v>
-      </c>
-      <c r="I63" s="6">
-        <f t="shared" si="25"/>
-        <v>0</v>
-      </c>
-      <c r="J63" s="6">
-        <f t="shared" si="25"/>
-        <v>0</v>
-      </c>
-      <c r="K63" s="6">
-        <f t="shared" si="25"/>
-        <v>0</v>
-      </c>
-      <c r="L63" s="6">
-        <f t="shared" si="25"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64" spans="1:12" ht="23">
-      <c r="A64" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="B64" s="6"/>
-      <c r="C64" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="D64" s="6">
-        <f>SUM(D60:D63)</f>
+        <f>SUM(D61:D62)</f>
         <v>4</v>
       </c>
-      <c r="E64" s="6">
-        <f>SUM(E60:E63)</f>
+      <c r="E63" s="10">
+        <f t="shared" ref="E63:L63" si="26">SUM(E61:E62)</f>
         <v>3</v>
       </c>
-      <c r="F64" s="6">
-        <f>SUM(F60:F63)</f>
-        <v>0</v>
-      </c>
-      <c r="G64" s="6">
-        <f t="shared" ref="G64:L64" si="26">SUM(G60:G63)</f>
-        <v>0</v>
-      </c>
-      <c r="H64" s="6">
+      <c r="F63" s="10">
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
-      <c r="I64" s="6">
+      <c r="G63" s="10">
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
-      <c r="J64" s="6">
+      <c r="H63" s="10">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="I63" s="10">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="J63" s="10">
         <f t="shared" si="26"/>
         <v>4</v>
       </c>
-      <c r="K64" s="6">
+      <c r="K63" s="10">
         <f t="shared" si="26"/>
         <v>3</v>
       </c>
-      <c r="L64" s="6">
+      <c r="L63" s="10">
         <f t="shared" si="26"/>
         <v>7</v>
       </c>
     </row>
+    <row r="71" spans="1:12" ht="33">
+      <c r="A71" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="B71" s="15"/>
+      <c r="C71" s="15"/>
+      <c r="D71" s="15"/>
+      <c r="E71" s="15"/>
+      <c r="F71" s="15"/>
+      <c r="G71" s="15"/>
+      <c r="H71" s="15"/>
+      <c r="I71" s="15"/>
+      <c r="J71" s="15"/>
+      <c r="K71" s="15"/>
+      <c r="L71" s="16"/>
+    </row>
+    <row r="72" spans="1:12" ht="23">
+      <c r="A72" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="B72" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="C72" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="D72" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="E72" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="F72" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="G72" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="H72" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="I72" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="J72" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="K72" s="17"/>
+      <c r="L72" s="17"/>
+    </row>
+    <row r="73" spans="1:12" ht="23">
+      <c r="A73" s="17"/>
+      <c r="B73" s="19"/>
+      <c r="C73" s="17"/>
+      <c r="D73" s="17"/>
+      <c r="E73" s="17"/>
+      <c r="F73" s="17"/>
+      <c r="G73" s="17"/>
+      <c r="H73" s="17"/>
+      <c r="I73" s="17"/>
+      <c r="J73" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="K73" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="L73" s="8" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="74" spans="1:12" ht="23">
+      <c r="A74" s="6">
+        <v>11</v>
+      </c>
+      <c r="B74" s="22"/>
+      <c r="C74" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D74" s="6">
+        <f>D13</f>
+        <v>2</v>
+      </c>
+      <c r="E74" s="6">
+        <f>E13</f>
+        <v>26</v>
+      </c>
+      <c r="F74" s="6">
+        <f>F13</f>
+        <v>0</v>
+      </c>
+      <c r="G74" s="6">
+        <f>G13</f>
+        <v>0</v>
+      </c>
+      <c r="H74" s="6">
+        <f>H13</f>
+        <v>0</v>
+      </c>
+      <c r="I74" s="6">
+        <f>I13</f>
+        <v>6</v>
+      </c>
+      <c r="J74" s="6">
+        <f>J13</f>
+        <v>2</v>
+      </c>
+      <c r="K74" s="6">
+        <f>K13</f>
+        <v>32</v>
+      </c>
+      <c r="L74" s="6">
+        <f>L13</f>
+        <v>34</v>
+      </c>
+    </row>
+    <row r="75" spans="1:12" ht="23">
+      <c r="A75" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B75" s="10"/>
+      <c r="C75" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="D75" s="10">
+        <f>SUM(D73:D74)</f>
+        <v>2</v>
+      </c>
+      <c r="E75" s="10">
+        <f t="shared" ref="E75" si="27">SUM(E73:E74)</f>
+        <v>26</v>
+      </c>
+      <c r="F75" s="10">
+        <f t="shared" ref="F75" si="28">SUM(F73:F74)</f>
+        <v>0</v>
+      </c>
+      <c r="G75" s="10">
+        <f t="shared" ref="G75" si="29">SUM(G73:G74)</f>
+        <v>0</v>
+      </c>
+      <c r="H75" s="10">
+        <f t="shared" ref="H75" si="30">SUM(H73:H74)</f>
+        <v>0</v>
+      </c>
+      <c r="I75" s="10">
+        <f t="shared" ref="I75" si="31">SUM(I73:I74)</f>
+        <v>6</v>
+      </c>
+      <c r="J75" s="10">
+        <f t="shared" ref="J75" si="32">SUM(J73:J74)</f>
+        <v>2</v>
+      </c>
+      <c r="K75" s="10">
+        <f t="shared" ref="K75" si="33">SUM(K73:K74)</f>
+        <v>32</v>
+      </c>
+      <c r="L75" s="10">
+        <f t="shared" ref="L75" si="34">SUM(L73:L74)</f>
+        <v>34</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="54">
-    <mergeCell ref="B61:B63"/>
-    <mergeCell ref="A58:L58"/>
-    <mergeCell ref="A59:A60"/>
-    <mergeCell ref="B59:B60"/>
-    <mergeCell ref="C59:C60"/>
-    <mergeCell ref="D59:D60"/>
-    <mergeCell ref="E59:E60"/>
-    <mergeCell ref="F59:F60"/>
-    <mergeCell ref="G59:G60"/>
-    <mergeCell ref="H59:H60"/>
-    <mergeCell ref="I59:I60"/>
-    <mergeCell ref="J59:L59"/>
+  <mergeCells count="65">
+    <mergeCell ref="B14:B17"/>
+    <mergeCell ref="A71:L71"/>
+    <mergeCell ref="A72:A73"/>
+    <mergeCell ref="B72:B73"/>
+    <mergeCell ref="C72:C73"/>
+    <mergeCell ref="D72:D73"/>
+    <mergeCell ref="E72:E73"/>
+    <mergeCell ref="F72:F73"/>
+    <mergeCell ref="G72:G73"/>
+    <mergeCell ref="H72:H73"/>
+    <mergeCell ref="I72:I73"/>
+    <mergeCell ref="J72:L72"/>
+    <mergeCell ref="B61:B62"/>
+    <mergeCell ref="U1:W2"/>
+    <mergeCell ref="I2:I3"/>
+    <mergeCell ref="J2:L2"/>
+    <mergeCell ref="A1:L1"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="G2:G3"/>
+    <mergeCell ref="H2:H3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="A32:L32"/>
+    <mergeCell ref="A33:A34"/>
+    <mergeCell ref="B33:B34"/>
+    <mergeCell ref="C33:C34"/>
+    <mergeCell ref="D33:D34"/>
+    <mergeCell ref="E33:E34"/>
+    <mergeCell ref="F33:F34"/>
+    <mergeCell ref="G33:G34"/>
+    <mergeCell ref="H33:H34"/>
     <mergeCell ref="B49:B50"/>
     <mergeCell ref="I33:I34"/>
     <mergeCell ref="J33:L33"/>
@@ -12159,32 +14325,17 @@
     <mergeCell ref="H47:H48"/>
     <mergeCell ref="I47:I48"/>
     <mergeCell ref="J47:L47"/>
-    <mergeCell ref="A32:L32"/>
-    <mergeCell ref="A33:A34"/>
-    <mergeCell ref="B33:B34"/>
-    <mergeCell ref="C33:C34"/>
-    <mergeCell ref="D33:D34"/>
-    <mergeCell ref="E33:E34"/>
-    <mergeCell ref="F33:F34"/>
-    <mergeCell ref="G33:G34"/>
-    <mergeCell ref="H33:H34"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="B11:B13"/>
-    <mergeCell ref="B15:B17"/>
-    <mergeCell ref="U1:W2"/>
-    <mergeCell ref="I2:I3"/>
-    <mergeCell ref="J2:L2"/>
-    <mergeCell ref="A1:L1"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="F2:F3"/>
-    <mergeCell ref="G2:G3"/>
-    <mergeCell ref="H2:H3"/>
-    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="A58:L58"/>
+    <mergeCell ref="A59:A60"/>
+    <mergeCell ref="B59:B60"/>
+    <mergeCell ref="C59:C60"/>
+    <mergeCell ref="D59:D60"/>
+    <mergeCell ref="E59:E60"/>
+    <mergeCell ref="F59:F60"/>
+    <mergeCell ref="G59:G60"/>
+    <mergeCell ref="H59:H60"/>
+    <mergeCell ref="I59:I60"/>
+    <mergeCell ref="J59:L59"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/实验7：配置管理/20F_Commit总表.xlsx
+++ b/实验7：配置管理/20F_Commit总表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mz/Desktop/软工实验/20_F/实验7：配置管理/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22870253-9743-5B4B-9AFC-9125D1D00038}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33B6DD4D-E13E-DC43-A70A-2000AC039934}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="780" yWindow="460" windowWidth="27760" windowHeight="17040" xr2:uid="{9388D582-CDE4-9A46-9540-D7DCCDE5460A}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="55">
   <si>
     <t>周次</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -244,6 +244,14 @@
     <t>添加实验四统计</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>5.16-6.12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>添加实验五初评审期间统计</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -413,7 +421,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -447,6 +455,15 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -474,14 +491,11 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -832,10 +846,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>28</c:v>
+                  <c:v>33</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>73</c:v>
+                  <c:v>86</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>4</c:v>
@@ -2231,6 +2245,835 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US"/>
+              <a:t>实验五</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:view3D>
+      <c:rotX val="30"/>
+      <c:rotY val="0"/>
+      <c:depthPercent val="100"/>
+      <c:rAngAx val="0"/>
+    </c:view3D>
+    <c:floor>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:floor>
+    <c:sideWall>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:sideWall>
+    <c:backWall>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:backWall>
+    <c:plotArea>
+      <c:layout/>
+      <c:pie3DChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>实验三</c:v>
+          </c:tx>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="25400">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+              <a:sp3d contourW="25400">
+                <a:contourClr>
+                  <a:schemeClr val="lt1"/>
+                </a:contourClr>
+              </a:sp3d>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-8485-8847-9CF8-E4C49CA0E201}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="25400">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+              <a:sp3d contourW="25400">
+                <a:contourClr>
+                  <a:schemeClr val="lt1"/>
+                </a:contourClr>
+              </a:sp3d>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-8485-8847-9CF8-E4C49CA0E201}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="25400">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+              <a:sp3d contourW="25400">
+                <a:contourClr>
+                  <a:schemeClr val="lt1"/>
+                </a:contourClr>
+              </a:sp3d>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-8485-8847-9CF8-E4C49CA0E201}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="25400">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+              <a:sp3d contourW="25400">
+                <a:contourClr>
+                  <a:schemeClr val="lt1"/>
+                </a:contourClr>
+              </a:sp3d>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000007-8485-8847-9CF8-E4C49CA0E201}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="4"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="25400">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+              <a:sp3d contourW="25400">
+                <a:contourClr>
+                  <a:schemeClr val="lt1"/>
+                </a:contourClr>
+              </a:sp3d>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000009-8485-8847-9CF8-E4C49CA0E201}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="5"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="25400">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+              <a:sp3d contourW="25400">
+                <a:contourClr>
+                  <a:schemeClr val="lt1"/>
+                </a:contourClr>
+              </a:sp3d>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000B-8485-8847-9CF8-E4C49CA0E201}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="zh-CN"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="1"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="1"/>
+            <c:leaderLines>
+              <c:spPr>
+                <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="35000"/>
+                      <a:lumOff val="65000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:round/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:leaderLines>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$D$33:$I$34</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>麦梓健</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>孙维华</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>郑锋</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>洪治凑</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>王子璇</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>王伟民</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$D$88:$I$88</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000C-8485-8847-9CF8-E4C49CA0E201}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="1"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
+      </c:pie3DChart>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart14.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US"/>
+              <a:t>实验四</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" altLang="zh-CN"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:view3D>
+      <c:rotX val="30"/>
+      <c:rotY val="0"/>
+      <c:depthPercent val="100"/>
+      <c:rAngAx val="0"/>
+    </c:view3D>
+    <c:floor>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:floor>
+    <c:sideWall>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:sideWall>
+    <c:backWall>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:backWall>
+    <c:plotArea>
+      <c:layout/>
+      <c:pie3DChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>实验二与实验六-八(1)</c:v>
+          </c:tx>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="25400">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+              <a:sp3d contourW="25400">
+                <a:contourClr>
+                  <a:schemeClr val="lt1"/>
+                </a:contourClr>
+              </a:sp3d>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-7C58-EC4D-B066-AB245DC8197F}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="25400">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+              <a:sp3d contourW="25400">
+                <a:contourClr>
+                  <a:schemeClr val="lt1"/>
+                </a:contourClr>
+              </a:sp3d>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-7C58-EC4D-B066-AB245DC8197F}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="zh-CN"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="1"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="1"/>
+            <c:leaderLines>
+              <c:spPr>
+                <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="35000"/>
+                      <a:lumOff val="65000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:round/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:leaderLines>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$J$3:$K$3</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>文档类</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>代码类</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$J$88:$K$88</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>13</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-7C58-EC4D-B066-AB245DC8197F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="1"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
+      </c:pie3DChart>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
@@ -2451,10 +3294,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>67</c:v>
+                  <c:v>72</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>81</c:v>
+                  <c:v>94</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4805,7 +5648,7 @@
                   <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>81</c:v>
+                  <c:v>94</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5009,7 +5852,7 @@
                   <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>81</c:v>
+                  <c:v>94</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5313,6 +6156,86 @@
 </file>
 
 <file path=xl/charts/colors12.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors13.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors14.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -7230,6 +8153,1044 @@
 </file>
 
 <file path=xl/charts/style12.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="262">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="25400">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style13.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="262">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="25400">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style14.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="262">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -12337,6 +14298,82 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>80</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>87</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="18" name="图表 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{35C32319-AD54-3D4B-B2DB-0574FC965070}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId13"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>80</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>292100</xdr:colOff>
+      <xdr:row>86</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="19" name="图表 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CAFB7FB7-4527-664D-8897-BFA2D2639D0A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId14"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -12637,10 +14674,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B8501E1-355C-AC4B-88C0-0ED3552E3EDC}">
-  <dimension ref="A1:W75"/>
+  <dimension ref="A1:W88"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="U67" sqref="U67"/>
+    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
+      <selection activeCell="Y9" sqref="Y9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -12652,73 +14689,73 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="33">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
-      <c r="G1" s="15"/>
-      <c r="H1" s="15"/>
-      <c r="I1" s="15"/>
-      <c r="J1" s="15"/>
-      <c r="K1" s="15"/>
-      <c r="L1" s="16"/>
-      <c r="U1" s="21" t="s">
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="18"/>
+      <c r="I1" s="18"/>
+      <c r="J1" s="18"/>
+      <c r="K1" s="18"/>
+      <c r="L1" s="19"/>
+      <c r="U1" s="23" t="s">
         <v>44</v>
       </c>
-      <c r="V1" s="21"/>
-      <c r="W1" s="21"/>
+      <c r="V1" s="23"/>
+      <c r="W1" s="23"/>
     </row>
     <row r="2" spans="1:23" ht="23">
-      <c r="A2" s="17" t="s">
+      <c r="A2" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="18" t="s">
+      <c r="B2" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="17" t="s">
+      <c r="C2" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="17" t="s">
+      <c r="D2" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="17" t="s">
+      <c r="E2" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="17" t="s">
+      <c r="F2" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="17" t="s">
+      <c r="G2" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="H2" s="17" t="s">
+      <c r="H2" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="I2" s="17" t="s">
+      <c r="I2" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="J2" s="17" t="s">
+      <c r="J2" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="K2" s="17"/>
-      <c r="L2" s="17"/>
-      <c r="U2" s="21"/>
-      <c r="V2" s="21"/>
-      <c r="W2" s="21"/>
+      <c r="K2" s="20"/>
+      <c r="L2" s="20"/>
+      <c r="U2" s="23"/>
+      <c r="V2" s="23"/>
+      <c r="W2" s="23"/>
     </row>
     <row r="3" spans="1:23" ht="29" customHeight="1">
-      <c r="A3" s="17"/>
-      <c r="B3" s="19"/>
-      <c r="C3" s="17"/>
-      <c r="D3" s="17"/>
-      <c r="E3" s="17"/>
-      <c r="F3" s="17"/>
-      <c r="G3" s="17"/>
-      <c r="H3" s="17"/>
-      <c r="I3" s="17"/>
+      <c r="A3" s="20"/>
+      <c r="B3" s="22"/>
+      <c r="C3" s="20"/>
+      <c r="D3" s="20"/>
+      <c r="E3" s="20"/>
+      <c r="F3" s="20"/>
+      <c r="G3" s="20"/>
+      <c r="H3" s="20"/>
+      <c r="I3" s="20"/>
       <c r="J3" s="1" t="s">
         <v>18</v>
       </c>
@@ -12742,7 +14779,7 @@
       <c r="A4" s="2">
         <v>2</v>
       </c>
-      <c r="B4" s="11" t="s">
+      <c r="B4" s="14" t="s">
         <v>34</v>
       </c>
       <c r="C4" s="2" t="s">
@@ -12778,7 +14815,7 @@
       <c r="A5" s="2">
         <v>3</v>
       </c>
-      <c r="B5" s="13"/>
+      <c r="B5" s="16"/>
       <c r="C5" s="2" t="s">
         <v>10</v>
       </c>
@@ -12821,7 +14858,7 @@
       <c r="A6" s="2">
         <v>4</v>
       </c>
-      <c r="B6" s="20" t="s">
+      <c r="B6" s="24" t="s">
         <v>33</v>
       </c>
       <c r="C6" s="2" t="s">
@@ -12866,7 +14903,7 @@
       <c r="A7" s="2">
         <v>5</v>
       </c>
-      <c r="B7" s="20"/>
+      <c r="B7" s="24"/>
       <c r="C7" s="2" t="s">
         <v>12</v>
       </c>
@@ -12915,7 +14952,7 @@
       <c r="A8" s="2">
         <v>6</v>
       </c>
-      <c r="B8" s="20" t="s">
+      <c r="B8" s="24" t="s">
         <v>32</v>
       </c>
       <c r="C8" s="2" t="s">
@@ -12944,15 +14981,21 @@
         <f t="shared" ref="L8:L20" si="2">SUM(D8:I8)</f>
         <v>9</v>
       </c>
-      <c r="U8" s="7"/>
-      <c r="V8" s="7"/>
-      <c r="W8" s="7"/>
+      <c r="U8" s="7">
+        <v>5.23</v>
+      </c>
+      <c r="V8" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="W8" s="7" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="9" spans="1:23" ht="23">
       <c r="A9" s="2">
         <v>7</v>
       </c>
-      <c r="B9" s="20"/>
+      <c r="B9" s="24"/>
       <c r="C9" s="2" t="s">
         <v>14</v>
       </c>
@@ -13036,7 +15079,7 @@
       <c r="A11" s="2">
         <v>9</v>
       </c>
-      <c r="B11" s="20" t="s">
+      <c r="B11" s="24" t="s">
         <v>36</v>
       </c>
       <c r="C11" s="2" t="s">
@@ -13068,7 +15111,7 @@
       <c r="A12" s="2">
         <v>10</v>
       </c>
-      <c r="B12" s="20"/>
+      <c r="B12" s="24"/>
       <c r="C12" s="2" t="s">
         <v>23</v>
       </c>
@@ -13132,35 +15175,39 @@
       <c r="A14" s="2">
         <v>12</v>
       </c>
-      <c r="B14" s="11" t="s">
+      <c r="B14" s="14" t="s">
         <v>38</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
+      <c r="D14" s="2">
+        <v>5</v>
+      </c>
+      <c r="E14" s="2">
+        <v>13</v>
+      </c>
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
       <c r="H14" s="2"/>
       <c r="I14" s="2"/>
       <c r="J14" s="2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="K14" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="L14" s="2">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>18</v>
       </c>
     </row>
     <row r="15" spans="1:23" ht="23">
       <c r="A15" s="2">
         <v>13</v>
       </c>
-      <c r="B15" s="12"/>
+      <c r="B15" s="15"/>
       <c r="C15" s="2" t="s">
         <v>26</v>
       </c>
@@ -13186,7 +15233,7 @@
       <c r="A16" s="2">
         <v>14</v>
       </c>
-      <c r="B16" s="12"/>
+      <c r="B16" s="15"/>
       <c r="C16" s="2" t="s">
         <v>27</v>
       </c>
@@ -13212,7 +15259,7 @@
       <c r="A17" s="2">
         <v>15</v>
       </c>
-      <c r="B17" s="13"/>
+      <c r="B17" s="16"/>
       <c r="C17" s="2" t="s">
         <v>28</v>
       </c>
@@ -13324,11 +15371,11 @@
       <c r="C21" s="3"/>
       <c r="D21" s="2">
         <f>SUM(D4:D20)</f>
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="E21" s="2">
         <f t="shared" ref="E21:I21" si="3">SUM(E4:E20)</f>
-        <v>73</v>
+        <v>86</v>
       </c>
       <c r="F21" s="2">
         <f t="shared" si="3"/>
@@ -13348,77 +15395,77 @@
       </c>
       <c r="J21" s="2">
         <f t="shared" ref="J21" si="4">SUM(J4:J20)</f>
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="K21" s="2">
         <f t="shared" si="0"/>
-        <v>81</v>
+        <v>94</v>
       </c>
       <c r="L21" s="2">
         <f>SUM(D21:I21)</f>
-        <v>148</v>
+        <v>166</v>
       </c>
     </row>
     <row r="32" spans="1:12" ht="33">
-      <c r="A32" s="14" t="s">
+      <c r="A32" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="B32" s="15"/>
-      <c r="C32" s="15"/>
-      <c r="D32" s="15"/>
-      <c r="E32" s="15"/>
-      <c r="F32" s="15"/>
-      <c r="G32" s="15"/>
-      <c r="H32" s="15"/>
-      <c r="I32" s="15"/>
-      <c r="J32" s="15"/>
-      <c r="K32" s="15"/>
-      <c r="L32" s="16"/>
+      <c r="B32" s="18"/>
+      <c r="C32" s="18"/>
+      <c r="D32" s="18"/>
+      <c r="E32" s="18"/>
+      <c r="F32" s="18"/>
+      <c r="G32" s="18"/>
+      <c r="H32" s="18"/>
+      <c r="I32" s="18"/>
+      <c r="J32" s="18"/>
+      <c r="K32" s="18"/>
+      <c r="L32" s="19"/>
     </row>
     <row r="33" spans="1:12" ht="23">
-      <c r="A33" s="17" t="s">
+      <c r="A33" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="B33" s="18" t="s">
+      <c r="B33" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="C33" s="17" t="s">
+      <c r="C33" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="D33" s="17" t="s">
+      <c r="D33" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="E33" s="17" t="s">
+      <c r="E33" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="F33" s="17" t="s">
+      <c r="F33" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="G33" s="17" t="s">
+      <c r="G33" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="H33" s="17" t="s">
+      <c r="H33" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="I33" s="17" t="s">
+      <c r="I33" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="J33" s="17" t="s">
+      <c r="J33" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="K33" s="17"/>
-      <c r="L33" s="17"/>
+      <c r="K33" s="20"/>
+      <c r="L33" s="20"/>
     </row>
     <row r="34" spans="1:12" ht="23">
-      <c r="A34" s="17"/>
-      <c r="B34" s="19"/>
-      <c r="C34" s="17"/>
-      <c r="D34" s="17"/>
-      <c r="E34" s="17"/>
-      <c r="F34" s="17"/>
-      <c r="G34" s="17"/>
-      <c r="H34" s="17"/>
-      <c r="I34" s="17"/>
+      <c r="A34" s="20"/>
+      <c r="B34" s="22"/>
+      <c r="C34" s="20"/>
+      <c r="D34" s="20"/>
+      <c r="E34" s="20"/>
+      <c r="F34" s="20"/>
+      <c r="G34" s="20"/>
+      <c r="H34" s="20"/>
+      <c r="I34" s="20"/>
       <c r="J34" s="1" t="s">
         <v>18</v>
       </c>
@@ -13433,7 +15480,7 @@
       <c r="A35" s="2">
         <v>2</v>
       </c>
-      <c r="B35" s="11" t="s">
+      <c r="B35" s="14" t="s">
         <v>34</v>
       </c>
       <c r="C35" s="2" t="s">
@@ -13476,7 +15523,7 @@
       <c r="A36" s="2">
         <v>3</v>
       </c>
-      <c r="B36" s="13"/>
+      <c r="B36" s="16"/>
       <c r="C36" s="2" t="s">
         <v>10</v>
       </c>
@@ -13520,7 +15567,7 @@
       <c r="A37" s="2">
         <v>4</v>
       </c>
-      <c r="B37" s="20" t="s">
+      <c r="B37" s="24" t="s">
         <v>33</v>
       </c>
       <c r="C37" s="2" t="s">
@@ -13566,7 +15613,7 @@
       <c r="A38" s="2">
         <v>5</v>
       </c>
-      <c r="B38" s="20"/>
+      <c r="B38" s="24"/>
       <c r="C38" s="2" t="s">
         <v>12</v>
       </c>
@@ -13652,65 +15699,65 @@
       </c>
     </row>
     <row r="46" spans="1:12" ht="33">
-      <c r="A46" s="14" t="s">
+      <c r="A46" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="B46" s="15"/>
-      <c r="C46" s="15"/>
-      <c r="D46" s="15"/>
-      <c r="E46" s="15"/>
-      <c r="F46" s="15"/>
-      <c r="G46" s="15"/>
-      <c r="H46" s="15"/>
-      <c r="I46" s="15"/>
-      <c r="J46" s="15"/>
-      <c r="K46" s="15"/>
-      <c r="L46" s="16"/>
+      <c r="B46" s="18"/>
+      <c r="C46" s="18"/>
+      <c r="D46" s="18"/>
+      <c r="E46" s="18"/>
+      <c r="F46" s="18"/>
+      <c r="G46" s="18"/>
+      <c r="H46" s="18"/>
+      <c r="I46" s="18"/>
+      <c r="J46" s="18"/>
+      <c r="K46" s="18"/>
+      <c r="L46" s="19"/>
     </row>
     <row r="47" spans="1:12" ht="23">
-      <c r="A47" s="17" t="s">
+      <c r="A47" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="B47" s="18" t="s">
+      <c r="B47" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="C47" s="17" t="s">
+      <c r="C47" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="D47" s="17" t="s">
+      <c r="D47" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="E47" s="17" t="s">
+      <c r="E47" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="F47" s="17" t="s">
+      <c r="F47" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="G47" s="17" t="s">
+      <c r="G47" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="H47" s="17" t="s">
+      <c r="H47" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="I47" s="17" t="s">
+      <c r="I47" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="J47" s="17" t="s">
+      <c r="J47" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="K47" s="17"/>
-      <c r="L47" s="17"/>
+      <c r="K47" s="20"/>
+      <c r="L47" s="20"/>
     </row>
     <row r="48" spans="1:12" ht="23">
-      <c r="A48" s="17"/>
-      <c r="B48" s="19"/>
-      <c r="C48" s="17"/>
-      <c r="D48" s="17"/>
-      <c r="E48" s="17"/>
-      <c r="F48" s="17"/>
-      <c r="G48" s="17"/>
-      <c r="H48" s="17"/>
-      <c r="I48" s="17"/>
+      <c r="A48" s="20"/>
+      <c r="B48" s="22"/>
+      <c r="C48" s="20"/>
+      <c r="D48" s="20"/>
+      <c r="E48" s="20"/>
+      <c r="F48" s="20"/>
+      <c r="G48" s="20"/>
+      <c r="H48" s="20"/>
+      <c r="I48" s="20"/>
       <c r="J48" s="1" t="s">
         <v>18</v>
       </c>
@@ -13725,7 +15772,7 @@
       <c r="A49" s="2">
         <v>6</v>
       </c>
-      <c r="B49" s="20" t="s">
+      <c r="B49" s="24" t="s">
         <v>32</v>
       </c>
       <c r="C49" s="2" t="s">
@@ -13771,7 +15818,7 @@
       <c r="A50" s="2">
         <v>7</v>
       </c>
-      <c r="B50" s="20"/>
+      <c r="B50" s="24"/>
       <c r="C50" s="2" t="s">
         <v>14</v>
       </c>
@@ -13903,65 +15950,65 @@
       </c>
     </row>
     <row r="58" spans="1:12" ht="33">
-      <c r="A58" s="14" t="s">
+      <c r="A58" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="B58" s="15"/>
-      <c r="C58" s="15"/>
-      <c r="D58" s="15"/>
-      <c r="E58" s="15"/>
-      <c r="F58" s="15"/>
-      <c r="G58" s="15"/>
-      <c r="H58" s="15"/>
-      <c r="I58" s="15"/>
-      <c r="J58" s="15"/>
-      <c r="K58" s="15"/>
-      <c r="L58" s="16"/>
+      <c r="B58" s="18"/>
+      <c r="C58" s="18"/>
+      <c r="D58" s="18"/>
+      <c r="E58" s="18"/>
+      <c r="F58" s="18"/>
+      <c r="G58" s="18"/>
+      <c r="H58" s="18"/>
+      <c r="I58" s="18"/>
+      <c r="J58" s="18"/>
+      <c r="K58" s="18"/>
+      <c r="L58" s="19"/>
     </row>
     <row r="59" spans="1:12" ht="23">
-      <c r="A59" s="17" t="s">
+      <c r="A59" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="B59" s="18" t="s">
+      <c r="B59" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="C59" s="17" t="s">
+      <c r="C59" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="D59" s="17" t="s">
+      <c r="D59" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="E59" s="17" t="s">
+      <c r="E59" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="F59" s="17" t="s">
+      <c r="F59" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="G59" s="17" t="s">
+      <c r="G59" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="H59" s="17" t="s">
+      <c r="H59" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="I59" s="17" t="s">
+      <c r="I59" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="J59" s="17" t="s">
+      <c r="J59" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="K59" s="17"/>
-      <c r="L59" s="17"/>
+      <c r="K59" s="20"/>
+      <c r="L59" s="20"/>
     </row>
     <row r="60" spans="1:12" ht="23">
-      <c r="A60" s="17"/>
-      <c r="B60" s="19"/>
-      <c r="C60" s="17"/>
-      <c r="D60" s="17"/>
-      <c r="E60" s="17"/>
-      <c r="F60" s="17"/>
-      <c r="G60" s="17"/>
-      <c r="H60" s="17"/>
-      <c r="I60" s="17"/>
+      <c r="A60" s="20"/>
+      <c r="B60" s="22"/>
+      <c r="C60" s="20"/>
+      <c r="D60" s="20"/>
+      <c r="E60" s="20"/>
+      <c r="F60" s="20"/>
+      <c r="G60" s="20"/>
+      <c r="H60" s="20"/>
+      <c r="I60" s="20"/>
       <c r="J60" s="5" t="s">
         <v>18</v>
       </c>
@@ -13976,7 +16023,7 @@
       <c r="A61" s="6">
         <v>9</v>
       </c>
-      <c r="B61" s="11" t="s">
+      <c r="B61" s="14" t="s">
         <v>36</v>
       </c>
       <c r="C61" s="6" t="s">
@@ -14023,12 +16070,12 @@
       <c r="A62" s="6">
         <v>10</v>
       </c>
-      <c r="B62" s="13"/>
+      <c r="B62" s="16"/>
       <c r="C62" s="6" t="s">
         <v>23</v>
       </c>
       <c r="D62" s="6">
-        <f t="shared" ref="D62:L63" si="25">D12</f>
+        <f t="shared" ref="D62:L62" si="25">D12</f>
         <v>1</v>
       </c>
       <c r="E62" s="6">
@@ -14110,65 +16157,65 @@
       </c>
     </row>
     <row r="71" spans="1:12" ht="33">
-      <c r="A71" s="14" t="s">
+      <c r="A71" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="B71" s="15"/>
-      <c r="C71" s="15"/>
-      <c r="D71" s="15"/>
-      <c r="E71" s="15"/>
-      <c r="F71" s="15"/>
-      <c r="G71" s="15"/>
-      <c r="H71" s="15"/>
-      <c r="I71" s="15"/>
-      <c r="J71" s="15"/>
-      <c r="K71" s="15"/>
-      <c r="L71" s="16"/>
+      <c r="B71" s="18"/>
+      <c r="C71" s="18"/>
+      <c r="D71" s="18"/>
+      <c r="E71" s="18"/>
+      <c r="F71" s="18"/>
+      <c r="G71" s="18"/>
+      <c r="H71" s="18"/>
+      <c r="I71" s="18"/>
+      <c r="J71" s="18"/>
+      <c r="K71" s="18"/>
+      <c r="L71" s="19"/>
     </row>
     <row r="72" spans="1:12" ht="23">
-      <c r="A72" s="17" t="s">
+      <c r="A72" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="B72" s="18" t="s">
+      <c r="B72" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="C72" s="17" t="s">
+      <c r="C72" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="D72" s="17" t="s">
+      <c r="D72" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="E72" s="17" t="s">
+      <c r="E72" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="F72" s="17" t="s">
+      <c r="F72" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="G72" s="17" t="s">
+      <c r="G72" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="H72" s="17" t="s">
+      <c r="H72" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="I72" s="17" t="s">
+      <c r="I72" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="J72" s="17" t="s">
+      <c r="J72" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="K72" s="17"/>
-      <c r="L72" s="17"/>
+      <c r="K72" s="20"/>
+      <c r="L72" s="20"/>
     </row>
     <row r="73" spans="1:12" ht="23">
-      <c r="A73" s="17"/>
-      <c r="B73" s="19"/>
-      <c r="C73" s="17"/>
-      <c r="D73" s="17"/>
-      <c r="E73" s="17"/>
-      <c r="F73" s="17"/>
-      <c r="G73" s="17"/>
-      <c r="H73" s="17"/>
-      <c r="I73" s="17"/>
+      <c r="A73" s="20"/>
+      <c r="B73" s="22"/>
+      <c r="C73" s="20"/>
+      <c r="D73" s="20"/>
+      <c r="E73" s="20"/>
+      <c r="F73" s="20"/>
+      <c r="G73" s="20"/>
+      <c r="H73" s="20"/>
+      <c r="I73" s="20"/>
       <c r="J73" s="8" t="s">
         <v>18</v>
       </c>
@@ -14183,44 +16230,44 @@
       <c r="A74" s="6">
         <v>11</v>
       </c>
-      <c r="B74" s="22"/>
+      <c r="B74" s="13"/>
       <c r="C74" s="6" t="s">
         <v>24</v>
       </c>
       <c r="D74" s="6">
-        <f>D13</f>
+        <f t="shared" ref="D74:L74" si="27">D13</f>
         <v>2</v>
       </c>
       <c r="E74" s="6">
-        <f>E13</f>
+        <f t="shared" si="27"/>
         <v>26</v>
       </c>
       <c r="F74" s="6">
-        <f>F13</f>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="G74" s="6">
-        <f>G13</f>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="H74" s="6">
-        <f>H13</f>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="I74" s="6">
-        <f>I13</f>
+        <f t="shared" si="27"/>
         <v>6</v>
       </c>
       <c r="J74" s="6">
-        <f>J13</f>
+        <f t="shared" si="27"/>
         <v>2</v>
       </c>
       <c r="K74" s="6">
-        <f>K13</f>
+        <f t="shared" si="27"/>
         <v>32</v>
       </c>
       <c r="L74" s="6">
-        <f>L13</f>
+        <f t="shared" si="27"/>
         <v>34</v>
       </c>
     </row>
@@ -14237,78 +16284,360 @@
         <v>2</v>
       </c>
       <c r="E75" s="10">
-        <f t="shared" ref="E75" si="27">SUM(E73:E74)</f>
+        <f t="shared" ref="E75" si="28">SUM(E73:E74)</f>
         <v>26</v>
       </c>
       <c r="F75" s="10">
-        <f t="shared" ref="F75" si="28">SUM(F73:F74)</f>
+        <f t="shared" ref="F75" si="29">SUM(F73:F74)</f>
         <v>0</v>
       </c>
       <c r="G75" s="10">
-        <f t="shared" ref="G75" si="29">SUM(G73:G74)</f>
+        <f t="shared" ref="G75" si="30">SUM(G73:G74)</f>
         <v>0</v>
       </c>
       <c r="H75" s="10">
-        <f t="shared" ref="H75" si="30">SUM(H73:H74)</f>
+        <f t="shared" ref="H75" si="31">SUM(H73:H74)</f>
         <v>0</v>
       </c>
       <c r="I75" s="10">
-        <f t="shared" ref="I75" si="31">SUM(I73:I74)</f>
+        <f t="shared" ref="I75" si="32">SUM(I73:I74)</f>
         <v>6</v>
       </c>
       <c r="J75" s="10">
-        <f t="shared" ref="J75" si="32">SUM(J73:J74)</f>
+        <f t="shared" ref="J75" si="33">SUM(J73:J74)</f>
         <v>2</v>
       </c>
       <c r="K75" s="10">
-        <f t="shared" ref="K75" si="33">SUM(K73:K74)</f>
+        <f t="shared" ref="K75" si="34">SUM(K73:K74)</f>
         <v>32</v>
       </c>
       <c r="L75" s="10">
-        <f t="shared" ref="L75" si="34">SUM(L73:L74)</f>
+        <f t="shared" ref="L75" si="35">SUM(L73:L74)</f>
         <v>34</v>
+      </c>
+    </row>
+    <row r="81" spans="1:12" ht="33">
+      <c r="A81" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="B81" s="18"/>
+      <c r="C81" s="18"/>
+      <c r="D81" s="18"/>
+      <c r="E81" s="18"/>
+      <c r="F81" s="18"/>
+      <c r="G81" s="18"/>
+      <c r="H81" s="18"/>
+      <c r="I81" s="18"/>
+      <c r="J81" s="18"/>
+      <c r="K81" s="18"/>
+      <c r="L81" s="19"/>
+    </row>
+    <row r="82" spans="1:12" ht="23">
+      <c r="A82" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="B82" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="C82" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="D82" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="E82" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="F82" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="G82" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="H82" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="I82" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="J82" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="K82" s="20"/>
+      <c r="L82" s="20"/>
+    </row>
+    <row r="83" spans="1:12" ht="23">
+      <c r="A83" s="20"/>
+      <c r="B83" s="22"/>
+      <c r="C83" s="20"/>
+      <c r="D83" s="20"/>
+      <c r="E83" s="20"/>
+      <c r="F83" s="20"/>
+      <c r="G83" s="20"/>
+      <c r="H83" s="20"/>
+      <c r="I83" s="20"/>
+      <c r="J83" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K83" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="L83" s="11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="84" spans="1:12" ht="23">
+      <c r="A84" s="12">
+        <v>12</v>
+      </c>
+      <c r="B84" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="C84" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D84" s="12">
+        <f>D14</f>
+        <v>5</v>
+      </c>
+      <c r="E84" s="12">
+        <f t="shared" ref="E84:L84" si="36">E14</f>
+        <v>13</v>
+      </c>
+      <c r="F84" s="12">
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+      <c r="G84" s="12">
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+      <c r="H84" s="12">
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+      <c r="I84" s="12">
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+      <c r="J84" s="12">
+        <f t="shared" si="36"/>
+        <v>5</v>
+      </c>
+      <c r="K84" s="12">
+        <f t="shared" si="36"/>
+        <v>13</v>
+      </c>
+      <c r="L84" s="12">
+        <f t="shared" si="36"/>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="85" spans="1:12" ht="23">
+      <c r="A85" s="12">
+        <v>13</v>
+      </c>
+      <c r="B85" s="15"/>
+      <c r="C85" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D85" s="12">
+        <f t="shared" ref="D85:L87" si="37">D15</f>
+        <v>0</v>
+      </c>
+      <c r="E85" s="12">
+        <f t="shared" si="37"/>
+        <v>0</v>
+      </c>
+      <c r="F85" s="12">
+        <f t="shared" si="37"/>
+        <v>0</v>
+      </c>
+      <c r="G85" s="12">
+        <f t="shared" si="37"/>
+        <v>0</v>
+      </c>
+      <c r="H85" s="12">
+        <f t="shared" si="37"/>
+        <v>0</v>
+      </c>
+      <c r="I85" s="12">
+        <f t="shared" si="37"/>
+        <v>0</v>
+      </c>
+      <c r="J85" s="12">
+        <f t="shared" si="37"/>
+        <v>0</v>
+      </c>
+      <c r="K85" s="12">
+        <f t="shared" si="37"/>
+        <v>0</v>
+      </c>
+      <c r="L85" s="12">
+        <f t="shared" si="37"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:12" ht="23">
+      <c r="A86" s="12">
+        <v>14</v>
+      </c>
+      <c r="B86" s="15"/>
+      <c r="C86" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="D86" s="12">
+        <f t="shared" si="37"/>
+        <v>0</v>
+      </c>
+      <c r="E86" s="12">
+        <f t="shared" si="37"/>
+        <v>0</v>
+      </c>
+      <c r="F86" s="12">
+        <f t="shared" si="37"/>
+        <v>0</v>
+      </c>
+      <c r="G86" s="12">
+        <f t="shared" si="37"/>
+        <v>0</v>
+      </c>
+      <c r="H86" s="12">
+        <f t="shared" si="37"/>
+        <v>0</v>
+      </c>
+      <c r="I86" s="12">
+        <f t="shared" si="37"/>
+        <v>0</v>
+      </c>
+      <c r="J86" s="12">
+        <f t="shared" si="37"/>
+        <v>0</v>
+      </c>
+      <c r="K86" s="12">
+        <f t="shared" si="37"/>
+        <v>0</v>
+      </c>
+      <c r="L86" s="12">
+        <f t="shared" si="37"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:12" ht="23">
+      <c r="A87" s="12">
+        <v>15</v>
+      </c>
+      <c r="B87" s="16"/>
+      <c r="C87" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="D87" s="12">
+        <f t="shared" si="37"/>
+        <v>0</v>
+      </c>
+      <c r="E87" s="12">
+        <f t="shared" si="37"/>
+        <v>0</v>
+      </c>
+      <c r="F87" s="12">
+        <f t="shared" si="37"/>
+        <v>0</v>
+      </c>
+      <c r="G87" s="12">
+        <f t="shared" si="37"/>
+        <v>0</v>
+      </c>
+      <c r="H87" s="12">
+        <f t="shared" si="37"/>
+        <v>0</v>
+      </c>
+      <c r="I87" s="12">
+        <f t="shared" si="37"/>
+        <v>0</v>
+      </c>
+      <c r="J87" s="12">
+        <f t="shared" si="37"/>
+        <v>0</v>
+      </c>
+      <c r="K87" s="12">
+        <f t="shared" si="37"/>
+        <v>0</v>
+      </c>
+      <c r="L87" s="12">
+        <f t="shared" si="37"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:12" ht="23">
+      <c r="A88" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="B88" s="12"/>
+      <c r="C88" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="D88" s="12">
+        <f>SUM(D84:D87)</f>
+        <v>5</v>
+      </c>
+      <c r="E88" s="12">
+        <f t="shared" ref="E88:L88" si="38">SUM(E84:E87)</f>
+        <v>13</v>
+      </c>
+      <c r="F88" s="12">
+        <f t="shared" si="38"/>
+        <v>0</v>
+      </c>
+      <c r="G88" s="12">
+        <f t="shared" si="38"/>
+        <v>0</v>
+      </c>
+      <c r="H88" s="12">
+        <f t="shared" si="38"/>
+        <v>0</v>
+      </c>
+      <c r="I88" s="12">
+        <f t="shared" si="38"/>
+        <v>0</v>
+      </c>
+      <c r="J88" s="12">
+        <f t="shared" si="38"/>
+        <v>5</v>
+      </c>
+      <c r="K88" s="12">
+        <f t="shared" si="38"/>
+        <v>13</v>
+      </c>
+      <c r="L88" s="12">
+        <f t="shared" si="38"/>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="65">
-    <mergeCell ref="B14:B17"/>
-    <mergeCell ref="A71:L71"/>
-    <mergeCell ref="A72:A73"/>
-    <mergeCell ref="B72:B73"/>
-    <mergeCell ref="C72:C73"/>
-    <mergeCell ref="D72:D73"/>
-    <mergeCell ref="E72:E73"/>
-    <mergeCell ref="F72:F73"/>
-    <mergeCell ref="G72:G73"/>
-    <mergeCell ref="H72:H73"/>
-    <mergeCell ref="I72:I73"/>
-    <mergeCell ref="J72:L72"/>
-    <mergeCell ref="B61:B62"/>
-    <mergeCell ref="U1:W2"/>
-    <mergeCell ref="I2:I3"/>
-    <mergeCell ref="J2:L2"/>
-    <mergeCell ref="A1:L1"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="F2:F3"/>
-    <mergeCell ref="G2:G3"/>
-    <mergeCell ref="H2:H3"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="A32:L32"/>
-    <mergeCell ref="A33:A34"/>
-    <mergeCell ref="B33:B34"/>
-    <mergeCell ref="C33:C34"/>
-    <mergeCell ref="D33:D34"/>
-    <mergeCell ref="E33:E34"/>
-    <mergeCell ref="F33:F34"/>
-    <mergeCell ref="G33:G34"/>
-    <mergeCell ref="H33:H34"/>
+  <mergeCells count="77">
+    <mergeCell ref="B84:B87"/>
+    <mergeCell ref="A81:L81"/>
+    <mergeCell ref="A82:A83"/>
+    <mergeCell ref="B82:B83"/>
+    <mergeCell ref="C82:C83"/>
+    <mergeCell ref="D82:D83"/>
+    <mergeCell ref="E82:E83"/>
+    <mergeCell ref="F82:F83"/>
+    <mergeCell ref="G82:G83"/>
+    <mergeCell ref="H82:H83"/>
+    <mergeCell ref="I82:I83"/>
+    <mergeCell ref="J82:L82"/>
+    <mergeCell ref="A58:L58"/>
+    <mergeCell ref="A59:A60"/>
+    <mergeCell ref="B59:B60"/>
+    <mergeCell ref="C59:C60"/>
+    <mergeCell ref="D59:D60"/>
+    <mergeCell ref="E59:E60"/>
+    <mergeCell ref="F59:F60"/>
+    <mergeCell ref="G59:G60"/>
+    <mergeCell ref="H59:H60"/>
+    <mergeCell ref="I59:I60"/>
+    <mergeCell ref="J59:L59"/>
     <mergeCell ref="B49:B50"/>
     <mergeCell ref="I33:I34"/>
     <mergeCell ref="J33:L33"/>
@@ -14325,17 +16654,44 @@
     <mergeCell ref="H47:H48"/>
     <mergeCell ref="I47:I48"/>
     <mergeCell ref="J47:L47"/>
-    <mergeCell ref="A58:L58"/>
-    <mergeCell ref="A59:A60"/>
-    <mergeCell ref="B59:B60"/>
-    <mergeCell ref="C59:C60"/>
-    <mergeCell ref="D59:D60"/>
-    <mergeCell ref="E59:E60"/>
-    <mergeCell ref="F59:F60"/>
-    <mergeCell ref="G59:G60"/>
-    <mergeCell ref="H59:H60"/>
-    <mergeCell ref="I59:I60"/>
-    <mergeCell ref="J59:L59"/>
+    <mergeCell ref="D33:D34"/>
+    <mergeCell ref="E33:E34"/>
+    <mergeCell ref="F33:F34"/>
+    <mergeCell ref="G33:G34"/>
+    <mergeCell ref="H33:H34"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="A32:L32"/>
+    <mergeCell ref="U1:W2"/>
+    <mergeCell ref="I2:I3"/>
+    <mergeCell ref="J2:L2"/>
+    <mergeCell ref="A1:L1"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="G2:G3"/>
+    <mergeCell ref="H2:H3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="B14:B17"/>
+    <mergeCell ref="A71:L71"/>
+    <mergeCell ref="A72:A73"/>
+    <mergeCell ref="B72:B73"/>
+    <mergeCell ref="C72:C73"/>
+    <mergeCell ref="D72:D73"/>
+    <mergeCell ref="E72:E73"/>
+    <mergeCell ref="F72:F73"/>
+    <mergeCell ref="G72:G73"/>
+    <mergeCell ref="H72:H73"/>
+    <mergeCell ref="I72:I73"/>
+    <mergeCell ref="J72:L72"/>
+    <mergeCell ref="B61:B62"/>
+    <mergeCell ref="A33:A34"/>
+    <mergeCell ref="B33:B34"/>
+    <mergeCell ref="C33:C34"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/实验7：配置管理/20F_Commit总表.xlsx
+++ b/实验7：配置管理/20F_Commit总表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mz/Desktop/软工实验/20_F/实验7：配置管理/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33B6DD4D-E13E-DC43-A70A-2000AC039934}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0768E6D2-A73B-A242-9ED2-772F2E43F42E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="460" windowWidth="27760" windowHeight="17040" xr2:uid="{9388D582-CDE4-9A46-9540-D7DCCDE5460A}"/>
+    <workbookView xWindow="6680" yWindow="480" windowWidth="27760" windowHeight="17040" xr2:uid="{9388D582-CDE4-9A46-9540-D7DCCDE5460A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="55">
   <si>
     <t>周次</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -153,14 +153,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>6.20-6.26</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>6.27-7.3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>实验二</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -190,10 +182,6 @@
   </si>
   <si>
     <t>实验六-八(2)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>项目总结</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -250,6 +238,18 @@
   </si>
   <si>
     <t>添加实验五初评审期间统计</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>综合实验分析</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>软件展示</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>添加实验五复评审期间统计</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -421,7 +421,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -464,13 +464,25 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -482,19 +494,10 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -841,21 +844,21 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$D$21:$I$21</c:f>
+              <c:f>Sheet1!$D$19:$I$19</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>33</c:v>
+                  <c:v>38</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>86</c:v>
+                  <c:v>91</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>21</c:v>
@@ -1266,7 +1269,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$D$33:$I$34</c:f>
+              <c:f>Sheet1!$D$31:$I$32</c:f>
               <c:strCache>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
@@ -1292,12 +1295,12 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$D$63:$I$63</c:f>
+              <c:f>Sheet1!$D$61:$I$61</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>4</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>3</c:v>
@@ -1742,7 +1745,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$D$33:$I$34</c:f>
+              <c:f>Sheet1!$D$31:$I$32</c:f>
               <c:strCache>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
@@ -1768,7 +1771,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$D$75:$I$75</c:f>
+              <c:f>Sheet1!$D$73:$I$73</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -2133,7 +2136,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$J$75:$K$75</c:f>
+              <c:f>Sheet1!$J$73:$K$73</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
@@ -2571,7 +2574,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$D$33:$I$34</c:f>
+              <c:f>Sheet1!$D$31:$I$32</c:f>
               <c:strCache>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
@@ -2597,15 +2600,15 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$D$88:$I$88</c:f>
+              <c:f>Sheet1!$D$84:$I$84</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>5</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>13</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0</c:v>
@@ -2756,7 +2759,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="zh-CN" altLang="en-US"/>
-              <a:t>实验四</a:t>
+              <a:t>实验五</a:t>
             </a:r>
             <a:endParaRPr lang="en-US" altLang="zh-CN"/>
           </a:p>
@@ -2962,15 +2965,15 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$J$88:$K$88</c:f>
+              <c:f>Sheet1!$J$84:$K$84</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>5</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>13</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3289,15 +3292,15 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$J$21:$K$21</c:f>
+              <c:f>Sheet1!$J$19:$K$19</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>72</c:v>
+                  <c:v>73</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>94</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3702,7 +3705,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$D$33:$I$34</c:f>
+              <c:f>Sheet1!$D$31:$I$32</c:f>
               <c:strCache>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
@@ -3728,18 +3731,18 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$D$39:$I$39</c:f>
+              <c:f>Sheet1!$D$37:$I$37</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>15</c:v>
+                  <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>23</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>2</c:v>
@@ -4153,7 +4156,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$D$33:$I$34</c:f>
+              <c:f>Sheet1!$D$31:$I$32</c:f>
               <c:strCache>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
@@ -4179,21 +4182,21 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$D$52:$I$52</c:f>
+              <c:f>Sheet1!$D$50:$I$50</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>7</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>21</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>1</c:v>
@@ -4518,7 +4521,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$J$39:$K$39</c:f>
+              <c:f>Sheet1!$J$37:$K$37</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
@@ -4526,7 +4529,7 @@
                   <c:v>44</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>24</c:v>
+                  <c:v>25</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4845,7 +4848,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$J$52:$K$52</c:f>
+              <c:f>Sheet1!$J$50:$K$50</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
@@ -4853,7 +4856,7 @@
                   <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>22</c:v>
+                  <c:v>21</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5198,15 +5201,15 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$J$63:$K$63</c:f>
+              <c:f>Sheet1!$J$61:$K$61</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>4</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5631,7 +5634,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>(Sheet1!$M$5,Sheet1!$M$7,Sheet1!$M$9,Sheet1!$M$10,Sheet1!$K$21)</c:f>
+              <c:f>(Sheet1!$M$5,Sheet1!$M$7,Sheet1!$M$9,Sheet1!$M$10,Sheet1!$K$19)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -5648,7 +5651,7 @@
                   <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>94</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5756,7 +5759,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="zh-CN" altLang="en-US"/>
-              <a:t>各实验提交次数</a:t>
+              <a:t>各实验时间段提交次数</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -5812,9 +5815,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>(Sheet1!$B$4,Sheet1!$B$6,Sheet1!$B$8,Sheet1!$B$10,Sheet1!$B$11)</c:f>
+              <c:f>(Sheet1!$B$4,Sheet1!$B$6,Sheet1!$B$8,Sheet1!$B$10,Sheet1!$B$11,Sheet1!$B$13,Sheet1!$B$14,Sheet1!$B$16,Sheet1!$B$17,Sheet1!$B$18)</c:f>
               <c:strCache>
-                <c:ptCount val="5"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>实验零</c:v>
                 </c:pt>
@@ -5830,15 +5833,30 @@
                 <c:pt idx="4">
                   <c:v>实验三</c:v>
                 </c:pt>
+                <c:pt idx="5">
+                  <c:v>实验四</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>实验五</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>实验六-八(2)</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>综合实验分析</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>软件展示</c:v>
+                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>(Sheet1!$M$5,Sheet1!$M$7,Sheet1!$M$9,Sheet1!$M$10,Sheet1!$K$21)</c:f>
+              <c:f>(Sheet1!$M$5,Sheet1!$M$7,Sheet1!$M$9,Sheet1!$M$10,Sheet1!$M$12,Sheet1!$M$13,Sheet1!$M$15,Sheet1!$L$16,Sheet1!$L$17,Sheet1!$L$187,Sheet1!$M$18)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
                   <c:v>23</c:v>
                 </c:pt>
@@ -5852,7 +5870,19 @@
                   <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>94</c:v>
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -13857,7 +13887,7 @@
     <xdr:to>
       <xdr:col>19</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>21</xdr:row>
+      <xdr:row>19</xdr:row>
       <xdr:rowOff>12700</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
@@ -13874,7 +13904,7 @@
       <xdr:grpSpPr>
         <a:xfrm>
           <a:off x="13246100" y="101600"/>
-          <a:ext cx="4953000" cy="6248400"/>
+          <a:ext cx="4953000" cy="5664200"/>
           <a:chOff x="11582400" y="101600"/>
           <a:chExt cx="4953000" cy="6248400"/>
         </a:xfrm>
@@ -13928,13 +13958,13 @@
     <xdr:from>
       <xdr:col>12</xdr:col>
       <xdr:colOff>685800</xdr:colOff>
-      <xdr:row>30</xdr:row>
+      <xdr:row>28</xdr:row>
       <xdr:rowOff>177800</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
       <xdr:colOff>12700</xdr:colOff>
-      <xdr:row>38</xdr:row>
+      <xdr:row>36</xdr:row>
       <xdr:rowOff>254000</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -13964,13 +13994,13 @@
     <xdr:from>
       <xdr:col>13</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>44</xdr:row>
+      <xdr:row>42</xdr:row>
       <xdr:rowOff>177800</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>51</xdr:row>
+      <xdr:row>49</xdr:row>
       <xdr:rowOff>279400</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -14002,13 +14032,13 @@
     <xdr:from>
       <xdr:col>18</xdr:col>
       <xdr:colOff>215900</xdr:colOff>
-      <xdr:row>31</xdr:row>
+      <xdr:row>29</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>127000</xdr:colOff>
-      <xdr:row>39</xdr:row>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>1689100</xdr:colOff>
+      <xdr:row>37</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -14040,13 +14070,13 @@
     <xdr:from>
       <xdr:col>18</xdr:col>
       <xdr:colOff>279400</xdr:colOff>
-      <xdr:row>44</xdr:row>
+      <xdr:row>42</xdr:row>
       <xdr:rowOff>190500</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>52</xdr:row>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>50</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -14078,13 +14108,13 @@
     <xdr:from>
       <xdr:col>18</xdr:col>
       <xdr:colOff>368300</xdr:colOff>
-      <xdr:row>57</xdr:row>
+      <xdr:row>55</xdr:row>
       <xdr:rowOff>12700</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>279400</xdr:colOff>
-      <xdr:row>63</xdr:row>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>61</xdr:row>
       <xdr:rowOff>63500</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -14122,7 +14152,7 @@
     <xdr:to>
       <xdr:col>22</xdr:col>
       <xdr:colOff>1676400</xdr:colOff>
-      <xdr:row>20</xdr:row>
+      <xdr:row>18</xdr:row>
       <xdr:rowOff>279400</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -14156,9 +14186,9 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>28</xdr:col>
-      <xdr:colOff>647700</xdr:colOff>
-      <xdr:row>21</xdr:row>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>546100</xdr:colOff>
+      <xdr:row>19</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -14188,13 +14218,13 @@
     <xdr:from>
       <xdr:col>13</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>57</xdr:row>
+      <xdr:row>55</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>64</xdr:row>
+      <xdr:row>62</xdr:row>
       <xdr:rowOff>101600</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -14226,13 +14256,13 @@
     <xdr:from>
       <xdr:col>13</xdr:col>
       <xdr:colOff>12700</xdr:colOff>
-      <xdr:row>69</xdr:row>
+      <xdr:row>67</xdr:row>
       <xdr:rowOff>190500</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
       <xdr:colOff>12700</xdr:colOff>
-      <xdr:row>77</xdr:row>
+      <xdr:row>75</xdr:row>
       <xdr:rowOff>177800</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -14264,13 +14294,13 @@
     <xdr:from>
       <xdr:col>18</xdr:col>
       <xdr:colOff>368300</xdr:colOff>
-      <xdr:row>70</xdr:row>
+      <xdr:row>68</xdr:row>
       <xdr:rowOff>12700</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>279400</xdr:colOff>
-      <xdr:row>76</xdr:row>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>74</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -14300,15 +14330,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>80</xdr:row>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>812800</xdr:colOff>
+      <xdr:row>78</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>87</xdr:row>
+      <xdr:row>84</xdr:row>
       <xdr:rowOff>50800</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -14340,14 +14370,14 @@
     <xdr:from>
       <xdr:col>18</xdr:col>
       <xdr:colOff>381000</xdr:colOff>
-      <xdr:row>80</xdr:row>
+      <xdr:row>78</xdr:row>
       <xdr:rowOff>25400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>292100</xdr:colOff>
-      <xdr:row>86</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>1676400</xdr:colOff>
+      <xdr:row>84</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -14674,10 +14704,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B8501E1-355C-AC4B-88C0-0ED3552E3EDC}">
-  <dimension ref="A1:W88"/>
+  <dimension ref="A1:W84"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
-      <selection activeCell="Y9" sqref="Y9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -14689,73 +14719,73 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="33">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="18"/>
-      <c r="H1" s="18"/>
-      <c r="I1" s="18"/>
-      <c r="J1" s="18"/>
-      <c r="K1" s="18"/>
-      <c r="L1" s="19"/>
-      <c r="U1" s="23" t="s">
-        <v>44</v>
-      </c>
-      <c r="V1" s="23"/>
-      <c r="W1" s="23"/>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="22"/>
+      <c r="H1" s="22"/>
+      <c r="I1" s="22"/>
+      <c r="J1" s="22"/>
+      <c r="K1" s="22"/>
+      <c r="L1" s="23"/>
+      <c r="U1" s="24" t="s">
+        <v>41</v>
+      </c>
+      <c r="V1" s="24"/>
+      <c r="W1" s="24"/>
     </row>
     <row r="2" spans="1:23" ht="23">
-      <c r="A2" s="20" t="s">
+      <c r="A2" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="21" t="s">
+      <c r="B2" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="20" t="s">
+      <c r="C2" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="20" t="s">
+      <c r="D2" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="20" t="s">
+      <c r="E2" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="20" t="s">
+      <c r="F2" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="20" t="s">
+      <c r="G2" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="H2" s="20" t="s">
+      <c r="H2" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="I2" s="20" t="s">
+      <c r="I2" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="J2" s="20" t="s">
+      <c r="J2" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="K2" s="20"/>
-      <c r="L2" s="20"/>
-      <c r="U2" s="23"/>
-      <c r="V2" s="23"/>
-      <c r="W2" s="23"/>
+      <c r="K2" s="17"/>
+      <c r="L2" s="17"/>
+      <c r="U2" s="24"/>
+      <c r="V2" s="24"/>
+      <c r="W2" s="24"/>
     </row>
     <row r="3" spans="1:23" ht="29" customHeight="1">
-      <c r="A3" s="20"/>
-      <c r="B3" s="22"/>
-      <c r="C3" s="20"/>
-      <c r="D3" s="20"/>
-      <c r="E3" s="20"/>
-      <c r="F3" s="20"/>
-      <c r="G3" s="20"/>
-      <c r="H3" s="20"/>
-      <c r="I3" s="20"/>
+      <c r="A3" s="17"/>
+      <c r="B3" s="19"/>
+      <c r="C3" s="17"/>
+      <c r="D3" s="17"/>
+      <c r="E3" s="17"/>
+      <c r="F3" s="17"/>
+      <c r="G3" s="17"/>
+      <c r="H3" s="17"/>
+      <c r="I3" s="17"/>
       <c r="J3" s="1" t="s">
         <v>18</v>
       </c>
@@ -14766,21 +14796,21 @@
         <v>17</v>
       </c>
       <c r="U3" s="7" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="V3" s="7" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="W3" s="7" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="4" spans="1:23" ht="23">
       <c r="A4" s="2">
         <v>2</v>
       </c>
-      <c r="B4" s="14" t="s">
-        <v>34</v>
+      <c r="B4" s="15" t="s">
+        <v>32</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>9</v>
@@ -14808,7 +14838,7 @@
         <v>1</v>
       </c>
       <c r="W4" s="7" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="5" spans="1:23" ht="23">
@@ -14833,7 +14863,7 @@
         <v>23</v>
       </c>
       <c r="K5" s="2">
-        <f t="shared" ref="K5:K21" si="0">L5-J5</f>
+        <f t="shared" ref="K5:K19" si="0">L5-J5</f>
         <v>0</v>
       </c>
       <c r="L5" s="2">
@@ -14851,21 +14881,21 @@
         <v>1</v>
       </c>
       <c r="W5" s="7" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="6" spans="1:23" ht="23">
       <c r="A6" s="2">
         <v>4</v>
       </c>
-      <c r="B6" s="24" t="s">
-        <v>33</v>
+      <c r="B6" s="20" t="s">
+        <v>31</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D6" s="2">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E6" s="2">
         <v>12</v>
@@ -14883,11 +14913,11 @@
       </c>
       <c r="K6" s="2">
         <f t="shared" si="0"/>
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="L6" s="2">
         <f t="shared" ref="L6" si="1">SUM(D6:H6)</f>
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="U6" s="7">
         <v>5.8</v>
@@ -14896,14 +14926,14 @@
         <v>1</v>
       </c>
       <c r="W6" s="7" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="7" spans="1:23" ht="23">
       <c r="A7" s="2">
         <v>5</v>
       </c>
-      <c r="B7" s="24"/>
+      <c r="B7" s="20"/>
       <c r="C7" s="2" t="s">
         <v>12</v>
       </c>
@@ -14913,9 +14943,7 @@
       <c r="E7" s="2">
         <v>6</v>
       </c>
-      <c r="F7" s="2">
-        <v>1</v>
-      </c>
+      <c r="F7" s="2"/>
       <c r="G7" s="2">
         <v>2</v>
       </c>
@@ -14928,11 +14956,11 @@
       </c>
       <c r="K7" s="2">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="L7" s="2">
         <f>SUM(D7:I7)</f>
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="M7">
         <f>J6+J7</f>
@@ -14945,21 +14973,21 @@
         <v>1</v>
       </c>
       <c r="W7" s="7" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="8" spans="1:23" ht="23">
       <c r="A8" s="2">
         <v>6</v>
       </c>
-      <c r="B8" s="24" t="s">
-        <v>32</v>
+      <c r="B8" s="20" t="s">
+        <v>30</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D8" s="2">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E8" s="2">
         <v>1</v>
@@ -14975,11 +15003,11 @@
       </c>
       <c r="K8" s="2">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L8" s="2">
-        <f t="shared" ref="L8:L20" si="2">SUM(D8:I8)</f>
-        <v>9</v>
+        <f t="shared" ref="L8:L18" si="2">SUM(D8:I8)</f>
+        <v>10</v>
       </c>
       <c r="U8" s="7">
         <v>5.23</v>
@@ -14988,14 +15016,14 @@
         <v>1</v>
       </c>
       <c r="W8" s="7" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="9" spans="1:23" ht="23">
       <c r="A9" s="2">
         <v>7</v>
       </c>
-      <c r="B9" s="24"/>
+      <c r="B9" s="20"/>
       <c r="C9" s="2" t="s">
         <v>14</v>
       </c>
@@ -15028,16 +15056,22 @@
         <f>J8+J9</f>
         <v>9</v>
       </c>
-      <c r="U9" s="7"/>
-      <c r="V9" s="7"/>
-      <c r="W9" s="7"/>
+      <c r="U9" s="7">
+        <v>5.29</v>
+      </c>
+      <c r="V9" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="W9" s="7" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="10" spans="1:23" ht="23">
       <c r="A10" s="2">
         <v>8</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>15</v>
@@ -15046,12 +15080,8 @@
       <c r="E10" s="2">
         <v>13</v>
       </c>
-      <c r="F10" s="2">
-        <v>1</v>
-      </c>
-      <c r="G10" s="2">
-        <v>1</v>
-      </c>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
       <c r="H10" s="2"/>
       <c r="I10" s="2">
         <v>3</v>
@@ -15061,11 +15091,11 @@
       </c>
       <c r="K10" s="2">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="L10" s="2">
         <f t="shared" si="2"/>
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="M10">
         <f>J10</f>
@@ -15079,14 +15109,14 @@
       <c r="A11" s="2">
         <v>9</v>
       </c>
-      <c r="B11" s="24" t="s">
-        <v>36</v>
+      <c r="B11" s="20" t="s">
+        <v>34</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D11" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E11" s="2">
         <v>1</v>
@@ -15096,27 +15126,27 @@
       <c r="H11" s="2"/>
       <c r="I11" s="2"/>
       <c r="J11" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K11" s="2">
         <f>L11-J11</f>
         <v>1</v>
       </c>
       <c r="L11" s="2">
-        <f t="shared" si="2"/>
-        <v>4</v>
+        <f>SUM(D11:I11)</f>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:23" ht="23">
       <c r="A12" s="2">
         <v>10</v>
       </c>
-      <c r="B12" s="24"/>
+      <c r="B12" s="20"/>
       <c r="C12" s="2" t="s">
         <v>23</v>
       </c>
       <c r="D12" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E12" s="2">
         <v>2</v>
@@ -15130,11 +15160,14 @@
       </c>
       <c r="K12" s="2">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L12" s="2">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>4</v>
+      </c>
+      <c r="M12">
+        <v>7</v>
       </c>
     </row>
     <row r="13" spans="1:23" ht="23">
@@ -15142,7 +15175,7 @@
         <v>11</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>24</v>
@@ -15170,13 +15203,16 @@
         <f t="shared" si="2"/>
         <v>34</v>
       </c>
+      <c r="M13">
+        <v>34</v>
+      </c>
     </row>
     <row r="14" spans="1:23" ht="23">
       <c r="A14" s="2">
         <v>12</v>
       </c>
-      <c r="B14" s="14" t="s">
-        <v>38</v>
+      <c r="B14" s="20" t="s">
+        <v>36</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>25</v>
@@ -15207,33 +15243,42 @@
       <c r="A15" s="2">
         <v>13</v>
       </c>
-      <c r="B15" s="15"/>
+      <c r="B15" s="20"/>
       <c r="C15" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
+      <c r="D15" s="2">
+        <v>3</v>
+      </c>
+      <c r="E15" s="2">
+        <v>5</v>
+      </c>
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
       <c r="H15" s="2"/>
       <c r="I15" s="2"/>
       <c r="J15" s="2">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K15" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="L15" s="2">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>8</v>
+      </c>
+      <c r="M15">
+        <v>26</v>
       </c>
     </row>
     <row r="16" spans="1:23" ht="23">
       <c r="A16" s="2">
         <v>14</v>
       </c>
-      <c r="B16" s="15"/>
+      <c r="B16" s="14" t="s">
+        <v>37</v>
+      </c>
       <c r="C16" s="2" t="s">
         <v>27</v>
       </c>
@@ -15259,7 +15304,9 @@
       <c r="A17" s="2">
         <v>15</v>
       </c>
-      <c r="B17" s="16"/>
+      <c r="B17" s="14" t="s">
+        <v>52</v>
+      </c>
       <c r="C17" s="2" t="s">
         <v>28</v>
       </c>
@@ -15285,8 +15332,8 @@
       <c r="A18" s="2">
         <v>16</v>
       </c>
-      <c r="B18" s="2" t="s">
-        <v>39</v>
+      <c r="B18" s="14" t="s">
+        <v>53</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>29</v>
@@ -15310,1360 +15357,1212 @@
       </c>
     </row>
     <row r="19" spans="1:12" ht="23">
-      <c r="A19" s="2">
-        <v>17</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
-      <c r="F19" s="2"/>
-      <c r="G19" s="2"/>
-      <c r="H19" s="2"/>
-      <c r="I19" s="2"/>
+      <c r="A19" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="2">
+        <f t="shared" ref="D19:J19" si="3">SUM(D4:D18)</f>
+        <v>38</v>
+      </c>
+      <c r="E19" s="2">
+        <f t="shared" si="3"/>
+        <v>91</v>
+      </c>
+      <c r="F19" s="2">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="G19" s="2">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="H19" s="2">
+        <f t="shared" si="3"/>
+        <v>21</v>
+      </c>
+      <c r="I19" s="2">
+        <f t="shared" si="3"/>
+        <v>19</v>
+      </c>
       <c r="J19" s="2">
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>73</v>
       </c>
       <c r="K19" s="2">
         <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+      <c r="L19" s="2">
+        <f>SUM(D19:I19)</f>
+        <v>173</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" ht="33">
+      <c r="A30" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="B30" s="22"/>
+      <c r="C30" s="22"/>
+      <c r="D30" s="22"/>
+      <c r="E30" s="22"/>
+      <c r="F30" s="22"/>
+      <c r="G30" s="22"/>
+      <c r="H30" s="22"/>
+      <c r="I30" s="22"/>
+      <c r="J30" s="22"/>
+      <c r="K30" s="22"/>
+      <c r="L30" s="23"/>
+    </row>
+    <row r="31" spans="1:12" ht="23">
+      <c r="A31" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="L19" s="2">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
+      <c r="B31" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="C31" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="D31" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="E31" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="F31" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="G31" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="H31" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="I31" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="J31" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="K31" s="17"/>
+      <c r="L31" s="17"/>
     </row>
-    <row r="20" spans="1:12" ht="23">
-      <c r="A20" s="2">
+    <row r="32" spans="1:12" ht="23">
+      <c r="A32" s="17"/>
+      <c r="B32" s="19"/>
+      <c r="C32" s="17"/>
+      <c r="D32" s="17"/>
+      <c r="E32" s="17"/>
+      <c r="F32" s="17"/>
+      <c r="G32" s="17"/>
+      <c r="H32" s="17"/>
+      <c r="I32" s="17"/>
+      <c r="J32" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B20" s="2"/>
-      <c r="C20" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="D20" s="2"/>
-      <c r="E20" s="2"/>
-      <c r="F20" s="2"/>
-      <c r="G20" s="2"/>
-      <c r="H20" s="2"/>
-      <c r="I20" s="2"/>
-      <c r="J20" s="2">
-        <v>0</v>
-      </c>
-      <c r="K20" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L20" s="2">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" ht="23">
-      <c r="A21" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B21" s="3"/>
-      <c r="C21" s="3"/>
-      <c r="D21" s="2">
-        <f>SUM(D4:D20)</f>
-        <v>33</v>
-      </c>
-      <c r="E21" s="2">
-        <f t="shared" ref="E21:I21" si="3">SUM(E4:E20)</f>
-        <v>86</v>
-      </c>
-      <c r="F21" s="2">
-        <f t="shared" si="3"/>
-        <v>4</v>
-      </c>
-      <c r="G21" s="2">
-        <f t="shared" si="3"/>
-        <v>3</v>
-      </c>
-      <c r="H21" s="2">
-        <f t="shared" si="3"/>
-        <v>21</v>
-      </c>
-      <c r="I21" s="2">
-        <f t="shared" si="3"/>
+      <c r="K32" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="J21" s="2">
-        <f t="shared" ref="J21" si="4">SUM(J4:J20)</f>
-        <v>72</v>
-      </c>
-      <c r="K21" s="2">
-        <f t="shared" si="0"/>
-        <v>94</v>
-      </c>
-      <c r="L21" s="2">
-        <f>SUM(D21:I21)</f>
-        <v>166</v>
-      </c>
-    </row>
-    <row r="32" spans="1:12" ht="33">
-      <c r="A32" s="17" t="s">
-        <v>41</v>
-      </c>
-      <c r="B32" s="18"/>
-      <c r="C32" s="18"/>
-      <c r="D32" s="18"/>
-      <c r="E32" s="18"/>
-      <c r="F32" s="18"/>
-      <c r="G32" s="18"/>
-      <c r="H32" s="18"/>
-      <c r="I32" s="18"/>
-      <c r="J32" s="18"/>
-      <c r="K32" s="18"/>
-      <c r="L32" s="19"/>
+      <c r="L32" s="1" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="33" spans="1:12" ht="23">
-      <c r="A33" s="20" t="s">
+      <c r="A33" s="2">
+        <v>2</v>
+      </c>
+      <c r="B33" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D33" s="2">
+        <f t="shared" ref="D33:I36" si="4">D4</f>
         <v>0</v>
       </c>
-      <c r="B33" s="21" t="s">
-        <v>22</v>
-      </c>
-      <c r="C33" s="20" t="s">
-        <v>8</v>
-      </c>
-      <c r="D33" s="20" t="s">
-        <v>1</v>
-      </c>
-      <c r="E33" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="F33" s="20" t="s">
-        <v>3</v>
-      </c>
-      <c r="G33" s="20" t="s">
-        <v>4</v>
-      </c>
-      <c r="H33" s="20" t="s">
-        <v>5</v>
-      </c>
-      <c r="I33" s="20" t="s">
-        <v>6</v>
-      </c>
-      <c r="J33" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="K33" s="20"/>
-      <c r="L33" s="20"/>
+      <c r="E33" s="2">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="F33" s="2">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G33" s="2">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="H33" s="2">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="I33" s="2">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="J33" s="2"/>
+      <c r="K33" s="2">
+        <f>L33-J33</f>
+        <v>0</v>
+      </c>
+      <c r="L33" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="34" spans="1:12" ht="23">
-      <c r="A34" s="20"/>
-      <c r="B34" s="22"/>
-      <c r="C34" s="20"/>
-      <c r="D34" s="20"/>
-      <c r="E34" s="20"/>
-      <c r="F34" s="20"/>
-      <c r="G34" s="20"/>
-      <c r="H34" s="20"/>
-      <c r="I34" s="20"/>
-      <c r="J34" s="1" t="s">
+      <c r="A34" s="2">
+        <v>3</v>
+      </c>
+      <c r="B34" s="16"/>
+      <c r="C34" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D34" s="2">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="E34" s="2">
+        <f t="shared" si="4"/>
+        <v>5</v>
+      </c>
+      <c r="F34" s="2">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G34" s="2">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="H34" s="2">
+        <f t="shared" si="4"/>
         <v>18</v>
       </c>
-      <c r="K34" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="L34" s="1" t="s">
-        <v>17</v>
+      <c r="I34" s="2">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="J34" s="2">
+        <v>23</v>
+      </c>
+      <c r="K34" s="2">
+        <f t="shared" ref="K34:K36" si="5">L34-J34</f>
+        <v>0</v>
+      </c>
+      <c r="L34" s="2">
+        <f>SUM(D34:H34)</f>
+        <v>23</v>
       </c>
     </row>
     <row r="35" spans="1:12" ht="23">
       <c r="A35" s="2">
+        <v>4</v>
+      </c>
+      <c r="B35" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D35" s="2">
+        <f t="shared" si="4"/>
+        <v>6</v>
+      </c>
+      <c r="E35" s="2">
+        <f t="shared" si="4"/>
+        <v>12</v>
+      </c>
+      <c r="F35" s="2">
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
-      <c r="B35" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="C35" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D35" s="2">
-        <f>D4</f>
+      <c r="G35" s="2">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="E35" s="2">
-        <f>E4</f>
+      <c r="H35" s="2">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="I35" s="2">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="F35" s="2">
-        <f t="shared" ref="F35:I35" si="5">F4</f>
-        <v>0</v>
-      </c>
-      <c r="G35" s="2">
+      <c r="J35" s="2">
+        <v>6</v>
+      </c>
+      <c r="K35" s="2">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="H35" s="2">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="I35" s="2">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="J35" s="2"/>
-      <c r="K35" s="2">
-        <f>L35-J35</f>
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="L35" s="2">
-        <v>0</v>
+        <f t="shared" ref="L35" si="6">SUM(D35:H35)</f>
+        <v>22</v>
       </c>
     </row>
     <row r="36" spans="1:12" ht="23">
       <c r="A36" s="2">
-        <v>3</v>
-      </c>
-      <c r="B36" s="16"/>
+        <v>5</v>
+      </c>
+      <c r="B36" s="20"/>
       <c r="C36" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D36" s="2">
-        <f>D5</f>
+        <f t="shared" si="4"/>
+        <v>11</v>
+      </c>
+      <c r="E36" s="2">
+        <f t="shared" si="4"/>
+        <v>6</v>
+      </c>
+      <c r="F36" s="2">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="E36" s="2">
-        <f t="shared" ref="E36:I36" si="6">E5</f>
+      <c r="G36" s="2">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="H36" s="2">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="I36" s="2">
+        <f t="shared" si="4"/>
         <v>5</v>
       </c>
-      <c r="F36" s="2">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="G36" s="2">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="H36" s="2">
-        <f t="shared" si="6"/>
-        <v>18</v>
-      </c>
-      <c r="I36" s="2">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
       <c r="J36" s="2">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="K36" s="2">
-        <f t="shared" ref="K36:K38" si="7">L36-J36</f>
-        <v>0</v>
+        <f t="shared" si="5"/>
+        <v>9</v>
       </c>
       <c r="L36" s="2">
-        <f>SUM(D36:H36)</f>
-        <v>23</v>
+        <f>SUM(D36:I36)</f>
+        <v>24</v>
       </c>
     </row>
     <row r="37" spans="1:12" ht="23">
-      <c r="A37" s="2">
+      <c r="A37" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B37" s="2"/>
+      <c r="C37" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D37" s="2">
+        <f>SUM(D33:D36)</f>
+        <v>17</v>
+      </c>
+      <c r="E37" s="2">
+        <f t="shared" ref="E37:L37" si="7">SUM(E33:E36)</f>
+        <v>23</v>
+      </c>
+      <c r="F37" s="2">
+        <f t="shared" si="7"/>
+        <v>2</v>
+      </c>
+      <c r="G37" s="2">
+        <f t="shared" si="7"/>
+        <v>2</v>
+      </c>
+      <c r="H37" s="2">
+        <f t="shared" si="7"/>
+        <v>20</v>
+      </c>
+      <c r="I37" s="2">
+        <f t="shared" si="7"/>
+        <v>5</v>
+      </c>
+      <c r="J37" s="2">
+        <f t="shared" si="7"/>
+        <v>44</v>
+      </c>
+      <c r="K37" s="2">
+        <f t="shared" si="7"/>
+        <v>25</v>
+      </c>
+      <c r="L37" s="2">
+        <f t="shared" si="7"/>
+        <v>69</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" ht="33">
+      <c r="A44" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="B44" s="22"/>
+      <c r="C44" s="22"/>
+      <c r="D44" s="22"/>
+      <c r="E44" s="22"/>
+      <c r="F44" s="22"/>
+      <c r="G44" s="22"/>
+      <c r="H44" s="22"/>
+      <c r="I44" s="22"/>
+      <c r="J44" s="22"/>
+      <c r="K44" s="22"/>
+      <c r="L44" s="23"/>
+    </row>
+    <row r="45" spans="1:12" ht="23">
+      <c r="A45" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="B45" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="C45" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="D45" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="E45" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="F45" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="G45" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="B37" s="24" t="s">
-        <v>33</v>
-      </c>
-      <c r="C37" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D37" s="2">
-        <f>D6</f>
-        <v>4</v>
-      </c>
-      <c r="E37" s="2">
-        <f t="shared" ref="E37:I37" si="8">E6</f>
-        <v>12</v>
-      </c>
-      <c r="F37" s="2">
+      <c r="H45" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="I45" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="J45" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="K45" s="17"/>
+      <c r="L45" s="17"/>
+    </row>
+    <row r="46" spans="1:12" ht="23">
+      <c r="A46" s="17"/>
+      <c r="B46" s="19"/>
+      <c r="C46" s="17"/>
+      <c r="D46" s="17"/>
+      <c r="E46" s="17"/>
+      <c r="F46" s="17"/>
+      <c r="G46" s="17"/>
+      <c r="H46" s="17"/>
+      <c r="I46" s="17"/>
+      <c r="J46" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="K46" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="L46" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" ht="23">
+      <c r="A47" s="2">
+        <v>6</v>
+      </c>
+      <c r="B47" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D47" s="2">
+        <f t="shared" ref="D47:I49" si="8">D8</f>
+        <v>7</v>
+      </c>
+      <c r="E47" s="2">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="F47" s="2">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="G47" s="2">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="H47" s="2">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="I47" s="2">
         <f t="shared" si="8"/>
         <v>2</v>
       </c>
-      <c r="G37" s="2">
+      <c r="J47" s="2">
+        <v>6</v>
+      </c>
+      <c r="K47" s="2">
+        <f t="shared" ref="K47:K49" si="9">L47-J47</f>
+        <v>4</v>
+      </c>
+      <c r="L47" s="2">
+        <f t="shared" ref="L47:L49" si="10">SUM(D47:I47)</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" ht="23">
+      <c r="A48" s="2">
+        <v>7</v>
+      </c>
+      <c r="B48" s="20"/>
+      <c r="C48" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D48" s="2">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="E48" s="2">
+        <f t="shared" si="8"/>
+        <v>7</v>
+      </c>
+      <c r="F48" s="2">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="H37" s="2">
-        <f t="shared" si="8"/>
-        <v>2</v>
-      </c>
-      <c r="I37" s="2">
+      <c r="G48" s="2">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="J37" s="2">
-        <v>6</v>
-      </c>
-      <c r="K37" s="2">
-        <f t="shared" si="7"/>
-        <v>14</v>
-      </c>
-      <c r="L37" s="2">
-        <f t="shared" ref="L37" si="9">SUM(D37:H37)</f>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="38" spans="1:12" ht="23">
-      <c r="A38" s="2">
-        <v>5</v>
-      </c>
-      <c r="B38" s="24"/>
-      <c r="C38" s="2" t="s">
+      <c r="H48" s="2">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="I48" s="2">
+        <f t="shared" si="8"/>
+        <v>3</v>
+      </c>
+      <c r="J48" s="2">
+        <v>3</v>
+      </c>
+      <c r="K48" s="2">
+        <f t="shared" si="9"/>
+        <v>9</v>
+      </c>
+      <c r="L48" s="2">
+        <f t="shared" si="10"/>
         <v>12</v>
-      </c>
-      <c r="D38" s="2">
-        <f>D7</f>
-        <v>11</v>
-      </c>
-      <c r="E38" s="2">
-        <f t="shared" ref="E38:I38" si="10">E7</f>
-        <v>6</v>
-      </c>
-      <c r="F38" s="2">
-        <f t="shared" si="10"/>
-        <v>1</v>
-      </c>
-      <c r="G38" s="2">
-        <f t="shared" si="10"/>
-        <v>2</v>
-      </c>
-      <c r="H38" s="2">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="I38" s="2">
-        <f t="shared" si="10"/>
-        <v>5</v>
-      </c>
-      <c r="J38" s="2">
-        <v>15</v>
-      </c>
-      <c r="K38" s="2">
-        <f t="shared" si="7"/>
-        <v>10</v>
-      </c>
-      <c r="L38" s="2">
-        <f>SUM(D38:I38)</f>
-        <v>25</v>
-      </c>
-    </row>
-    <row r="39" spans="1:12" ht="23">
-      <c r="A39" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B39" s="2"/>
-      <c r="C39" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="D39" s="2">
-        <f>SUM(D35:D38)</f>
-        <v>15</v>
-      </c>
-      <c r="E39" s="2">
-        <f t="shared" ref="E39:L39" si="11">SUM(E35:E38)</f>
-        <v>23</v>
-      </c>
-      <c r="F39" s="2">
-        <f t="shared" si="11"/>
-        <v>3</v>
-      </c>
-      <c r="G39" s="2">
-        <f t="shared" si="11"/>
-        <v>2</v>
-      </c>
-      <c r="H39" s="2">
-        <f t="shared" si="11"/>
-        <v>20</v>
-      </c>
-      <c r="I39" s="2">
-        <f t="shared" si="11"/>
-        <v>5</v>
-      </c>
-      <c r="J39" s="2">
-        <f t="shared" si="11"/>
-        <v>44</v>
-      </c>
-      <c r="K39" s="2">
-        <f t="shared" si="11"/>
-        <v>24</v>
-      </c>
-      <c r="L39" s="2">
-        <f t="shared" si="11"/>
-        <v>68</v>
-      </c>
-    </row>
-    <row r="46" spans="1:12" ht="33">
-      <c r="A46" s="17" t="s">
-        <v>43</v>
-      </c>
-      <c r="B46" s="18"/>
-      <c r="C46" s="18"/>
-      <c r="D46" s="18"/>
-      <c r="E46" s="18"/>
-      <c r="F46" s="18"/>
-      <c r="G46" s="18"/>
-      <c r="H46" s="18"/>
-      <c r="I46" s="18"/>
-      <c r="J46" s="18"/>
-      <c r="K46" s="18"/>
-      <c r="L46" s="19"/>
-    </row>
-    <row r="47" spans="1:12" ht="23">
-      <c r="A47" s="20" t="s">
-        <v>0</v>
-      </c>
-      <c r="B47" s="21" t="s">
-        <v>22</v>
-      </c>
-      <c r="C47" s="20" t="s">
-        <v>8</v>
-      </c>
-      <c r="D47" s="20" t="s">
-        <v>1</v>
-      </c>
-      <c r="E47" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="F47" s="20" t="s">
-        <v>3</v>
-      </c>
-      <c r="G47" s="20" t="s">
-        <v>4</v>
-      </c>
-      <c r="H47" s="20" t="s">
-        <v>5</v>
-      </c>
-      <c r="I47" s="20" t="s">
-        <v>6</v>
-      </c>
-      <c r="J47" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="K47" s="20"/>
-      <c r="L47" s="20"/>
-    </row>
-    <row r="48" spans="1:12" ht="23">
-      <c r="A48" s="20"/>
-      <c r="B48" s="22"/>
-      <c r="C48" s="20"/>
-      <c r="D48" s="20"/>
-      <c r="E48" s="20"/>
-      <c r="F48" s="20"/>
-      <c r="G48" s="20"/>
-      <c r="H48" s="20"/>
-      <c r="I48" s="20"/>
-      <c r="J48" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="K48" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="L48" s="1" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="49" spans="1:12" ht="23">
       <c r="A49" s="2">
-        <v>6</v>
-      </c>
-      <c r="B49" s="24" t="s">
-        <v>32</v>
+        <v>8</v>
+      </c>
+      <c r="B49" s="4" t="s">
+        <v>33</v>
       </c>
       <c r="C49" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D49" s="2">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="E49" s="2">
+        <f t="shared" si="8"/>
         <v>13</v>
       </c>
-      <c r="D49" s="2">
-        <f>D8</f>
-        <v>6</v>
-      </c>
-      <c r="E49" s="2">
-        <f t="shared" ref="E49:I49" si="12">E8</f>
-        <v>1</v>
-      </c>
       <c r="F49" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="G49" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="H49" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="I49" s="2">
-        <f t="shared" si="12"/>
-        <v>2</v>
+        <f t="shared" si="8"/>
+        <v>3</v>
       </c>
       <c r="J49" s="2">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="K49" s="2">
-        <f t="shared" ref="K49:K51" si="13">L49-J49</f>
-        <v>3</v>
+        <f t="shared" si="9"/>
+        <v>8</v>
       </c>
       <c r="L49" s="2">
-        <f t="shared" ref="L49:L51" si="14">SUM(D49:I49)</f>
-        <v>9</v>
+        <f t="shared" si="10"/>
+        <v>16</v>
       </c>
     </row>
     <row r="50" spans="1:12" ht="23">
-      <c r="A50" s="2">
-        <v>7</v>
-      </c>
-      <c r="B50" s="24"/>
+      <c r="A50" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B50" s="2"/>
       <c r="C50" s="2" t="s">
-        <v>14</v>
+        <v>39</v>
       </c>
       <c r="D50" s="2">
-        <f t="shared" ref="D50:I51" si="15">D9</f>
+        <f>SUM(D46:D49)</f>
+        <v>8</v>
+      </c>
+      <c r="E50" s="2">
+        <f t="shared" ref="E50" si="11">SUM(E46:E49)</f>
+        <v>21</v>
+      </c>
+      <c r="F50" s="2">
+        <f t="shared" ref="F50" si="12">SUM(F46:F49)</f>
+        <v>0</v>
+      </c>
+      <c r="G50" s="2">
+        <f t="shared" ref="G50" si="13">SUM(G46:G49)</f>
+        <v>0</v>
+      </c>
+      <c r="H50" s="2">
+        <f t="shared" ref="H50" si="14">SUM(H46:H49)</f>
         <v>1</v>
       </c>
-      <c r="E50" s="2">
-        <f t="shared" si="15"/>
-        <v>7</v>
-      </c>
-      <c r="F50" s="2">
-        <f t="shared" si="15"/>
+      <c r="I50" s="2">
+        <f t="shared" ref="I50" si="15">SUM(I46:I49)</f>
+        <v>8</v>
+      </c>
+      <c r="J50" s="2">
+        <f t="shared" ref="J50" si="16">SUM(J46:J49)</f>
+        <v>17</v>
+      </c>
+      <c r="K50" s="2">
+        <f t="shared" ref="K50" si="17">SUM(K46:K49)</f>
+        <v>21</v>
+      </c>
+      <c r="L50" s="2">
+        <f t="shared" ref="L50" si="18">SUM(L46:L49)</f>
+        <v>38</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12" ht="33">
+      <c r="A56" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="B56" s="22"/>
+      <c r="C56" s="22"/>
+      <c r="D56" s="22"/>
+      <c r="E56" s="22"/>
+      <c r="F56" s="22"/>
+      <c r="G56" s="22"/>
+      <c r="H56" s="22"/>
+      <c r="I56" s="22"/>
+      <c r="J56" s="22"/>
+      <c r="K56" s="22"/>
+      <c r="L56" s="23"/>
+    </row>
+    <row r="57" spans="1:12" ht="23">
+      <c r="A57" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="G50" s="2">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="H50" s="2">
-        <f t="shared" si="15"/>
+      <c r="B57" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="C57" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="D57" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="I50" s="2">
-        <f t="shared" si="15"/>
+      <c r="E57" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="F57" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="J50" s="2">
-        <v>3</v>
-      </c>
-      <c r="K50" s="2">
-        <f t="shared" si="13"/>
-        <v>9</v>
-      </c>
-      <c r="L50" s="2">
-        <f t="shared" si="14"/>
-        <v>12</v>
-      </c>
+      <c r="G57" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="H57" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="I57" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="J57" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="K57" s="17"/>
+      <c r="L57" s="17"/>
     </row>
-    <row r="51" spans="1:12" ht="23">
-      <c r="A51" s="2">
-        <v>8</v>
-      </c>
-      <c r="B51" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="C51" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D51" s="2">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="E51" s="2">
-        <f t="shared" si="15"/>
-        <v>13</v>
-      </c>
-      <c r="F51" s="2">
-        <f t="shared" si="15"/>
-        <v>1</v>
-      </c>
-      <c r="G51" s="2">
-        <f t="shared" si="15"/>
-        <v>1</v>
-      </c>
-      <c r="H51" s="2">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="I51" s="2">
-        <f t="shared" si="15"/>
-        <v>3</v>
-      </c>
-      <c r="J51" s="2">
-        <v>8</v>
-      </c>
-      <c r="K51" s="2">
-        <f t="shared" si="13"/>
-        <v>10</v>
-      </c>
-      <c r="L51" s="2">
-        <f t="shared" si="14"/>
+    <row r="58" spans="1:12" ht="23">
+      <c r="A58" s="17"/>
+      <c r="B58" s="19"/>
+      <c r="C58" s="17"/>
+      <c r="D58" s="17"/>
+      <c r="E58" s="17"/>
+      <c r="F58" s="17"/>
+      <c r="G58" s="17"/>
+      <c r="H58" s="17"/>
+      <c r="I58" s="17"/>
+      <c r="J58" s="5" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="52" spans="1:12" ht="23">
-      <c r="A52" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B52" s="2"/>
-      <c r="C52" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="D52" s="2">
-        <f>SUM(D48:D51)</f>
-        <v>7</v>
-      </c>
-      <c r="E52" s="2">
-        <f t="shared" ref="E52" si="16">SUM(E48:E51)</f>
-        <v>21</v>
-      </c>
-      <c r="F52" s="2">
-        <f t="shared" ref="F52" si="17">SUM(F48:F51)</f>
-        <v>1</v>
-      </c>
-      <c r="G52" s="2">
-        <f t="shared" ref="G52" si="18">SUM(G48:G51)</f>
-        <v>1</v>
-      </c>
-      <c r="H52" s="2">
-        <f t="shared" ref="H52" si="19">SUM(H48:H51)</f>
-        <v>1</v>
-      </c>
-      <c r="I52" s="2">
-        <f t="shared" ref="I52" si="20">SUM(I48:I51)</f>
-        <v>8</v>
-      </c>
-      <c r="J52" s="2">
-        <f t="shared" ref="J52" si="21">SUM(J48:J51)</f>
+      <c r="K58" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="L58" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="K52" s="2">
-        <f t="shared" ref="K52" si="22">SUM(K48:K51)</f>
-        <v>22</v>
-      </c>
-      <c r="L52" s="2">
-        <f t="shared" ref="L52" si="23">SUM(L48:L51)</f>
-        <v>39</v>
-      </c>
-    </row>
-    <row r="58" spans="1:12" ht="33">
-      <c r="A58" s="17" t="s">
-        <v>36</v>
-      </c>
-      <c r="B58" s="18"/>
-      <c r="C58" s="18"/>
-      <c r="D58" s="18"/>
-      <c r="E58" s="18"/>
-      <c r="F58" s="18"/>
-      <c r="G58" s="18"/>
-      <c r="H58" s="18"/>
-      <c r="I58" s="18"/>
-      <c r="J58" s="18"/>
-      <c r="K58" s="18"/>
-      <c r="L58" s="19"/>
     </row>
     <row r="59" spans="1:12" ht="23">
-      <c r="A59" s="20" t="s">
+      <c r="A59" s="6">
+        <v>9</v>
+      </c>
+      <c r="B59" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="C59" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D59" s="6">
+        <f t="shared" ref="D59:L59" si="19">D11</f>
+        <v>1</v>
+      </c>
+      <c r="E59" s="6">
+        <f t="shared" si="19"/>
+        <v>1</v>
+      </c>
+      <c r="F59" s="6">
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="B59" s="21" t="s">
-        <v>22</v>
-      </c>
-      <c r="C59" s="20" t="s">
-        <v>8</v>
-      </c>
-      <c r="D59" s="20" t="s">
+      <c r="G59" s="6">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="H59" s="6">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="I59" s="6">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="J59" s="6">
+        <f t="shared" si="19"/>
         <v>1</v>
       </c>
-      <c r="E59" s="20" t="s">
+      <c r="K59" s="6">
+        <f t="shared" si="19"/>
+        <v>1</v>
+      </c>
+      <c r="L59" s="6">
+        <f t="shared" si="19"/>
         <v>2</v>
       </c>
-      <c r="F59" s="20" t="s">
-        <v>3</v>
-      </c>
-      <c r="G59" s="20" t="s">
-        <v>4</v>
-      </c>
-      <c r="H59" s="20" t="s">
-        <v>5</v>
-      </c>
-      <c r="I59" s="20" t="s">
-        <v>6</v>
-      </c>
-      <c r="J59" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="K59" s="20"/>
-      <c r="L59" s="20"/>
     </row>
     <row r="60" spans="1:12" ht="23">
-      <c r="A60" s="20"/>
-      <c r="B60" s="22"/>
-      <c r="C60" s="20"/>
-      <c r="D60" s="20"/>
-      <c r="E60" s="20"/>
-      <c r="F60" s="20"/>
-      <c r="G60" s="20"/>
-      <c r="H60" s="20"/>
-      <c r="I60" s="20"/>
-      <c r="J60" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="K60" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="L60" s="5" t="s">
-        <v>17</v>
+      <c r="A60" s="6">
+        <v>10</v>
+      </c>
+      <c r="B60" s="16"/>
+      <c r="C60" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D60" s="6">
+        <f t="shared" ref="D60:L60" si="20">D12</f>
+        <v>2</v>
+      </c>
+      <c r="E60" s="6">
+        <f t="shared" si="20"/>
+        <v>2</v>
+      </c>
+      <c r="F60" s="6">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="G60" s="6">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="H60" s="6">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="I60" s="6">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="J60" s="6">
+        <f t="shared" si="20"/>
+        <v>1</v>
+      </c>
+      <c r="K60" s="6">
+        <f t="shared" si="20"/>
+        <v>3</v>
+      </c>
+      <c r="L60" s="6">
+        <f t="shared" si="20"/>
+        <v>4</v>
       </c>
     </row>
     <row r="61" spans="1:12" ht="23">
-      <c r="A61" s="6">
-        <v>9</v>
-      </c>
-      <c r="B61" s="14" t="s">
-        <v>36</v>
-      </c>
+      <c r="A61" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B61" s="6"/>
       <c r="C61" s="6" t="s">
-        <v>16</v>
+        <v>46</v>
       </c>
       <c r="D61" s="6">
-        <f>D11</f>
+        <f>SUM(D59:D60)</f>
         <v>3</v>
       </c>
-      <c r="E61" s="6">
-        <f t="shared" ref="E61:L61" si="24">E11</f>
+      <c r="E61" s="10">
+        <f t="shared" ref="E61:L61" si="21">SUM(E59:E60)</f>
+        <v>3</v>
+      </c>
+      <c r="F61" s="10">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="G61" s="10">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="H61" s="10">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="I61" s="10">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="J61" s="10">
+        <f t="shared" si="21"/>
+        <v>2</v>
+      </c>
+      <c r="K61" s="10">
+        <f t="shared" si="21"/>
+        <v>4</v>
+      </c>
+      <c r="L61" s="10">
+        <f t="shared" si="21"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="69" spans="1:12" ht="33">
+      <c r="A69" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="B69" s="22"/>
+      <c r="C69" s="22"/>
+      <c r="D69" s="22"/>
+      <c r="E69" s="22"/>
+      <c r="F69" s="22"/>
+      <c r="G69" s="22"/>
+      <c r="H69" s="22"/>
+      <c r="I69" s="22"/>
+      <c r="J69" s="22"/>
+      <c r="K69" s="22"/>
+      <c r="L69" s="23"/>
+    </row>
+    <row r="70" spans="1:12" ht="23">
+      <c r="A70" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="B70" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="C70" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="D70" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="F61" s="6">
-        <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-      <c r="G61" s="6">
-        <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-      <c r="H61" s="6">
-        <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-      <c r="I61" s="6">
-        <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-      <c r="J61" s="6">
-        <f t="shared" si="24"/>
+      <c r="E70" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="F70" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="K61" s="6">
-        <f t="shared" si="24"/>
-        <v>1</v>
-      </c>
-      <c r="L61" s="6">
-        <f t="shared" si="24"/>
+      <c r="G70" s="17" t="s">
         <v>4</v>
       </c>
+      <c r="H70" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="I70" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="J70" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="K70" s="17"/>
+      <c r="L70" s="17"/>
     </row>
-    <row r="62" spans="1:12" ht="23">
-      <c r="A62" s="6">
-        <v>10</v>
-      </c>
-      <c r="B62" s="16"/>
-      <c r="C62" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="D62" s="6">
-        <f t="shared" ref="D62:L62" si="25">D12</f>
-        <v>1</v>
-      </c>
-      <c r="E62" s="6">
-        <f t="shared" si="25"/>
-        <v>2</v>
-      </c>
-      <c r="F62" s="6">
-        <f t="shared" si="25"/>
-        <v>0</v>
-      </c>
-      <c r="G62" s="6">
-        <f t="shared" si="25"/>
-        <v>0</v>
-      </c>
-      <c r="H62" s="6">
-        <f t="shared" si="25"/>
-        <v>0</v>
-      </c>
-      <c r="I62" s="6">
-        <f t="shared" si="25"/>
-        <v>0</v>
-      </c>
-      <c r="J62" s="6">
-        <f t="shared" si="25"/>
-        <v>1</v>
-      </c>
-      <c r="K62" s="6">
-        <f t="shared" si="25"/>
-        <v>2</v>
-      </c>
-      <c r="L62" s="6">
-        <f t="shared" si="25"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="63" spans="1:12" ht="23">
-      <c r="A63" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="B63" s="6"/>
-      <c r="C63" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="D63" s="6">
-        <f>SUM(D61:D62)</f>
-        <v>4</v>
-      </c>
-      <c r="E63" s="10">
-        <f t="shared" ref="E63:L63" si="26">SUM(E61:E62)</f>
-        <v>3</v>
-      </c>
-      <c r="F63" s="10">
-        <f t="shared" si="26"/>
-        <v>0</v>
-      </c>
-      <c r="G63" s="10">
-        <f t="shared" si="26"/>
-        <v>0</v>
-      </c>
-      <c r="H63" s="10">
-        <f t="shared" si="26"/>
-        <v>0</v>
-      </c>
-      <c r="I63" s="10">
-        <f t="shared" si="26"/>
-        <v>0</v>
-      </c>
-      <c r="J63" s="10">
-        <f t="shared" si="26"/>
-        <v>4</v>
-      </c>
-      <c r="K63" s="10">
-        <f t="shared" si="26"/>
-        <v>3</v>
-      </c>
-      <c r="L63" s="10">
-        <f t="shared" si="26"/>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="71" spans="1:12" ht="33">
-      <c r="A71" s="17" t="s">
-        <v>37</v>
-      </c>
-      <c r="B71" s="18"/>
-      <c r="C71" s="18"/>
-      <c r="D71" s="18"/>
-      <c r="E71" s="18"/>
-      <c r="F71" s="18"/>
-      <c r="G71" s="18"/>
-      <c r="H71" s="18"/>
-      <c r="I71" s="18"/>
-      <c r="J71" s="18"/>
-      <c r="K71" s="18"/>
-      <c r="L71" s="19"/>
+    <row r="71" spans="1:12" ht="23">
+      <c r="A71" s="17"/>
+      <c r="B71" s="19"/>
+      <c r="C71" s="17"/>
+      <c r="D71" s="17"/>
+      <c r="E71" s="17"/>
+      <c r="F71" s="17"/>
+      <c r="G71" s="17"/>
+      <c r="H71" s="17"/>
+      <c r="I71" s="17"/>
+      <c r="J71" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="K71" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="L71" s="8" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="72" spans="1:12" ht="23">
-      <c r="A72" s="20" t="s">
+      <c r="A72" s="6">
+        <v>11</v>
+      </c>
+      <c r="B72" s="13"/>
+      <c r="C72" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D72" s="6">
+        <f t="shared" ref="D72:L72" si="22">D13</f>
+        <v>2</v>
+      </c>
+      <c r="E72" s="6">
+        <f t="shared" si="22"/>
+        <v>26</v>
+      </c>
+      <c r="F72" s="6">
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
-      <c r="B72" s="21" t="s">
-        <v>22</v>
-      </c>
-      <c r="C72" s="20" t="s">
-        <v>8</v>
-      </c>
-      <c r="D72" s="20" t="s">
-        <v>1</v>
-      </c>
-      <c r="E72" s="20" t="s">
+      <c r="G72" s="6">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="H72" s="6">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="I72" s="6">
+        <f t="shared" si="22"/>
+        <v>6</v>
+      </c>
+      <c r="J72" s="6">
+        <f t="shared" si="22"/>
         <v>2</v>
       </c>
-      <c r="F72" s="20" t="s">
-        <v>3</v>
-      </c>
-      <c r="G72" s="20" t="s">
-        <v>4</v>
-      </c>
-      <c r="H72" s="20" t="s">
-        <v>5</v>
-      </c>
-      <c r="I72" s="20" t="s">
-        <v>6</v>
-      </c>
-      <c r="J72" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="K72" s="20"/>
-      <c r="L72" s="20"/>
+      <c r="K72" s="6">
+        <f t="shared" si="22"/>
+        <v>32</v>
+      </c>
+      <c r="L72" s="6">
+        <f t="shared" si="22"/>
+        <v>34</v>
+      </c>
     </row>
     <row r="73" spans="1:12" ht="23">
-      <c r="A73" s="20"/>
-      <c r="B73" s="22"/>
-      <c r="C73" s="20"/>
-      <c r="D73" s="20"/>
-      <c r="E73" s="20"/>
-      <c r="F73" s="20"/>
-      <c r="G73" s="20"/>
-      <c r="H73" s="20"/>
-      <c r="I73" s="20"/>
-      <c r="J73" s="8" t="s">
+      <c r="A73" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B73" s="10"/>
+      <c r="C73" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="D73" s="10">
+        <f>SUM(D71:D72)</f>
+        <v>2</v>
+      </c>
+      <c r="E73" s="10">
+        <f t="shared" ref="E73" si="23">SUM(E71:E72)</f>
+        <v>26</v>
+      </c>
+      <c r="F73" s="10">
+        <f t="shared" ref="F73" si="24">SUM(F71:F72)</f>
+        <v>0</v>
+      </c>
+      <c r="G73" s="10">
+        <f t="shared" ref="G73" si="25">SUM(G71:G72)</f>
+        <v>0</v>
+      </c>
+      <c r="H73" s="10">
+        <f t="shared" ref="H73" si="26">SUM(H71:H72)</f>
+        <v>0</v>
+      </c>
+      <c r="I73" s="10">
+        <f t="shared" ref="I73" si="27">SUM(I71:I72)</f>
+        <v>6</v>
+      </c>
+      <c r="J73" s="10">
+        <f t="shared" ref="J73" si="28">SUM(J71:J72)</f>
+        <v>2</v>
+      </c>
+      <c r="K73" s="10">
+        <f t="shared" ref="K73" si="29">SUM(K71:K72)</f>
+        <v>32</v>
+      </c>
+      <c r="L73" s="10">
+        <f t="shared" ref="L73" si="30">SUM(L71:L72)</f>
+        <v>34</v>
+      </c>
+    </row>
+    <row r="79" spans="1:12" ht="33">
+      <c r="A79" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="B79" s="22"/>
+      <c r="C79" s="22"/>
+      <c r="D79" s="22"/>
+      <c r="E79" s="22"/>
+      <c r="F79" s="22"/>
+      <c r="G79" s="22"/>
+      <c r="H79" s="22"/>
+      <c r="I79" s="22"/>
+      <c r="J79" s="22"/>
+      <c r="K79" s="22"/>
+      <c r="L79" s="23"/>
+    </row>
+    <row r="80" spans="1:12" ht="23">
+      <c r="A80" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="B80" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="C80" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="D80" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="E80" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="F80" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="G80" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="H80" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="I80" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="J80" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="K80" s="17"/>
+      <c r="L80" s="17"/>
+    </row>
+    <row r="81" spans="1:12" ht="23">
+      <c r="A81" s="17"/>
+      <c r="B81" s="19"/>
+      <c r="C81" s="17"/>
+      <c r="D81" s="17"/>
+      <c r="E81" s="17"/>
+      <c r="F81" s="17"/>
+      <c r="G81" s="17"/>
+      <c r="H81" s="17"/>
+      <c r="I81" s="17"/>
+      <c r="J81" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="K73" s="8" t="s">
+      <c r="K81" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="L73" s="8" t="s">
+      <c r="L81" s="11" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="74" spans="1:12" ht="23">
-      <c r="A74" s="6">
-        <v>11</v>
-      </c>
-      <c r="B74" s="13"/>
-      <c r="C74" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="D74" s="6">
-        <f t="shared" ref="D74:L74" si="27">D13</f>
-        <v>2</v>
-      </c>
-      <c r="E74" s="6">
-        <f t="shared" si="27"/>
-        <v>26</v>
-      </c>
-      <c r="F74" s="6">
-        <f t="shared" si="27"/>
-        <v>0</v>
-      </c>
-      <c r="G74" s="6">
-        <f t="shared" si="27"/>
-        <v>0</v>
-      </c>
-      <c r="H74" s="6">
-        <f t="shared" si="27"/>
-        <v>0</v>
-      </c>
-      <c r="I74" s="6">
-        <f t="shared" si="27"/>
-        <v>6</v>
-      </c>
-      <c r="J74" s="6">
-        <f t="shared" si="27"/>
-        <v>2</v>
-      </c>
-      <c r="K74" s="6">
-        <f t="shared" si="27"/>
-        <v>32</v>
-      </c>
-      <c r="L74" s="6">
-        <f t="shared" si="27"/>
-        <v>34</v>
-      </c>
-    </row>
-    <row r="75" spans="1:12" ht="23">
-      <c r="A75" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="B75" s="10"/>
-      <c r="C75" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="D75" s="10">
-        <f>SUM(D73:D74)</f>
-        <v>2</v>
-      </c>
-      <c r="E75" s="10">
-        <f t="shared" ref="E75" si="28">SUM(E73:E74)</f>
-        <v>26</v>
-      </c>
-      <c r="F75" s="10">
-        <f t="shared" ref="F75" si="29">SUM(F73:F74)</f>
-        <v>0</v>
-      </c>
-      <c r="G75" s="10">
-        <f t="shared" ref="G75" si="30">SUM(G73:G74)</f>
-        <v>0</v>
-      </c>
-      <c r="H75" s="10">
-        <f t="shared" ref="H75" si="31">SUM(H73:H74)</f>
-        <v>0</v>
-      </c>
-      <c r="I75" s="10">
-        <f t="shared" ref="I75" si="32">SUM(I73:I74)</f>
-        <v>6</v>
-      </c>
-      <c r="J75" s="10">
-        <f t="shared" ref="J75" si="33">SUM(J73:J74)</f>
-        <v>2</v>
-      </c>
-      <c r="K75" s="10">
-        <f t="shared" ref="K75" si="34">SUM(K73:K74)</f>
-        <v>32</v>
-      </c>
-      <c r="L75" s="10">
-        <f t="shared" ref="L75" si="35">SUM(L73:L74)</f>
-        <v>34</v>
-      </c>
-    </row>
-    <row r="81" spans="1:12" ht="33">
-      <c r="A81" s="17" t="s">
-        <v>38</v>
-      </c>
-      <c r="B81" s="18"/>
-      <c r="C81" s="18"/>
-      <c r="D81" s="18"/>
-      <c r="E81" s="18"/>
-      <c r="F81" s="18"/>
-      <c r="G81" s="18"/>
-      <c r="H81" s="18"/>
-      <c r="I81" s="18"/>
-      <c r="J81" s="18"/>
-      <c r="K81" s="18"/>
-      <c r="L81" s="19"/>
     </row>
     <row r="82" spans="1:12" ht="23">
-      <c r="A82" s="20" t="s">
+      <c r="A82" s="12">
+        <v>12</v>
+      </c>
+      <c r="B82" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="C82" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D82" s="12">
+        <f>D14</f>
+        <v>5</v>
+      </c>
+      <c r="E82" s="12">
+        <f t="shared" ref="E82:L82" si="31">E14</f>
+        <v>13</v>
+      </c>
+      <c r="F82" s="12">
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
-      <c r="B82" s="21" t="s">
-        <v>22</v>
-      </c>
-      <c r="C82" s="20" t="s">
-        <v>8</v>
-      </c>
-      <c r="D82" s="20" t="s">
-        <v>1</v>
-      </c>
-      <c r="E82" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="F82" s="20" t="s">
-        <v>3</v>
-      </c>
-      <c r="G82" s="20" t="s">
-        <v>4</v>
-      </c>
-      <c r="H82" s="20" t="s">
+      <c r="G82" s="12">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="H82" s="12">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="I82" s="12">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="J82" s="12">
+        <f t="shared" si="31"/>
         <v>5</v>
       </c>
-      <c r="I82" s="20" t="s">
-        <v>6</v>
-      </c>
-      <c r="J82" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="K82" s="20"/>
-      <c r="L82" s="20"/>
+      <c r="K82" s="12">
+        <f t="shared" si="31"/>
+        <v>13</v>
+      </c>
+      <c r="L82" s="12">
+        <f t="shared" si="31"/>
+        <v>18</v>
+      </c>
     </row>
     <row r="83" spans="1:12" ht="23">
-      <c r="A83" s="20"/>
-      <c r="B83" s="22"/>
-      <c r="C83" s="20"/>
-      <c r="D83" s="20"/>
-      <c r="E83" s="20"/>
-      <c r="F83" s="20"/>
-      <c r="G83" s="20"/>
-      <c r="H83" s="20"/>
-      <c r="I83" s="20"/>
-      <c r="J83" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="K83" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="L83" s="11" t="s">
-        <v>17</v>
+      <c r="A83" s="12">
+        <v>13</v>
+      </c>
+      <c r="B83" s="25"/>
+      <c r="C83" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D83" s="12">
+        <f>D15</f>
+        <v>3</v>
+      </c>
+      <c r="E83" s="12">
+        <f t="shared" ref="E83:L83" si="32">E15</f>
+        <v>5</v>
+      </c>
+      <c r="F83" s="12">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+      <c r="G83" s="12">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+      <c r="H83" s="12">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+      <c r="I83" s="12">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+      <c r="J83" s="12">
+        <f t="shared" si="32"/>
+        <v>3</v>
+      </c>
+      <c r="K83" s="12">
+        <f t="shared" si="32"/>
+        <v>5</v>
+      </c>
+      <c r="L83" s="12">
+        <f t="shared" si="32"/>
+        <v>8</v>
       </c>
     </row>
     <row r="84" spans="1:12" ht="23">
-      <c r="A84" s="12">
-        <v>12</v>
-      </c>
-      <c r="B84" s="14" t="s">
-        <v>38</v>
-      </c>
+      <c r="A84" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="B84" s="12"/>
       <c r="C84" s="12" t="s">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="D84" s="12">
-        <f>D14</f>
-        <v>5</v>
+        <f t="shared" ref="D84:L84" si="33">SUM(D82:D83)</f>
+        <v>8</v>
       </c>
       <c r="E84" s="12">
-        <f t="shared" ref="E84:L84" si="36">E14</f>
-        <v>13</v>
+        <f t="shared" si="33"/>
+        <v>18</v>
       </c>
       <c r="F84" s="12">
-        <f t="shared" si="36"/>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="G84" s="12">
-        <f t="shared" si="36"/>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="H84" s="12">
-        <f t="shared" si="36"/>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="I84" s="12">
-        <f t="shared" si="36"/>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="J84" s="12">
-        <f t="shared" si="36"/>
-        <v>5</v>
+        <f t="shared" si="33"/>
+        <v>8</v>
       </c>
       <c r="K84" s="12">
-        <f t="shared" si="36"/>
-        <v>13</v>
+        <f t="shared" si="33"/>
+        <v>18</v>
       </c>
       <c r="L84" s="12">
-        <f t="shared" si="36"/>
-        <v>18</v>
-      </c>
-    </row>
-    <row r="85" spans="1:12" ht="23">
-      <c r="A85" s="12">
-        <v>13</v>
-      </c>
-      <c r="B85" s="15"/>
-      <c r="C85" s="12" t="s">
+        <f t="shared" si="33"/>
         <v>26</v>
-      </c>
-      <c r="D85" s="12">
-        <f t="shared" ref="D85:L87" si="37">D15</f>
-        <v>0</v>
-      </c>
-      <c r="E85" s="12">
-        <f t="shared" si="37"/>
-        <v>0</v>
-      </c>
-      <c r="F85" s="12">
-        <f t="shared" si="37"/>
-        <v>0</v>
-      </c>
-      <c r="G85" s="12">
-        <f t="shared" si="37"/>
-        <v>0</v>
-      </c>
-      <c r="H85" s="12">
-        <f t="shared" si="37"/>
-        <v>0</v>
-      </c>
-      <c r="I85" s="12">
-        <f t="shared" si="37"/>
-        <v>0</v>
-      </c>
-      <c r="J85" s="12">
-        <f t="shared" si="37"/>
-        <v>0</v>
-      </c>
-      <c r="K85" s="12">
-        <f t="shared" si="37"/>
-        <v>0</v>
-      </c>
-      <c r="L85" s="12">
-        <f t="shared" si="37"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="86" spans="1:12" ht="23">
-      <c r="A86" s="12">
-        <v>14</v>
-      </c>
-      <c r="B86" s="15"/>
-      <c r="C86" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="D86" s="12">
-        <f t="shared" si="37"/>
-        <v>0</v>
-      </c>
-      <c r="E86" s="12">
-        <f t="shared" si="37"/>
-        <v>0</v>
-      </c>
-      <c r="F86" s="12">
-        <f t="shared" si="37"/>
-        <v>0</v>
-      </c>
-      <c r="G86" s="12">
-        <f t="shared" si="37"/>
-        <v>0</v>
-      </c>
-      <c r="H86" s="12">
-        <f t="shared" si="37"/>
-        <v>0</v>
-      </c>
-      <c r="I86" s="12">
-        <f t="shared" si="37"/>
-        <v>0</v>
-      </c>
-      <c r="J86" s="12">
-        <f t="shared" si="37"/>
-        <v>0</v>
-      </c>
-      <c r="K86" s="12">
-        <f t="shared" si="37"/>
-        <v>0</v>
-      </c>
-      <c r="L86" s="12">
-        <f t="shared" si="37"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="87" spans="1:12" ht="23">
-      <c r="A87" s="12">
-        <v>15</v>
-      </c>
-      <c r="B87" s="16"/>
-      <c r="C87" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="D87" s="12">
-        <f t="shared" si="37"/>
-        <v>0</v>
-      </c>
-      <c r="E87" s="12">
-        <f t="shared" si="37"/>
-        <v>0</v>
-      </c>
-      <c r="F87" s="12">
-        <f t="shared" si="37"/>
-        <v>0</v>
-      </c>
-      <c r="G87" s="12">
-        <f t="shared" si="37"/>
-        <v>0</v>
-      </c>
-      <c r="H87" s="12">
-        <f t="shared" si="37"/>
-        <v>0</v>
-      </c>
-      <c r="I87" s="12">
-        <f t="shared" si="37"/>
-        <v>0</v>
-      </c>
-      <c r="J87" s="12">
-        <f t="shared" si="37"/>
-        <v>0</v>
-      </c>
-      <c r="K87" s="12">
-        <f t="shared" si="37"/>
-        <v>0</v>
-      </c>
-      <c r="L87" s="12">
-        <f t="shared" si="37"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="88" spans="1:12" ht="23">
-      <c r="A88" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="B88" s="12"/>
-      <c r="C88" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="D88" s="12">
-        <f>SUM(D84:D87)</f>
-        <v>5</v>
-      </c>
-      <c r="E88" s="12">
-        <f t="shared" ref="E88:L88" si="38">SUM(E84:E87)</f>
-        <v>13</v>
-      </c>
-      <c r="F88" s="12">
-        <f t="shared" si="38"/>
-        <v>0</v>
-      </c>
-      <c r="G88" s="12">
-        <f t="shared" si="38"/>
-        <v>0</v>
-      </c>
-      <c r="H88" s="12">
-        <f t="shared" si="38"/>
-        <v>0</v>
-      </c>
-      <c r="I88" s="12">
-        <f t="shared" si="38"/>
-        <v>0</v>
-      </c>
-      <c r="J88" s="12">
-        <f t="shared" si="38"/>
-        <v>5</v>
-      </c>
-      <c r="K88" s="12">
-        <f t="shared" si="38"/>
-        <v>13</v>
-      </c>
-      <c r="L88" s="12">
-        <f t="shared" si="38"/>
-        <v>18</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="77">
-    <mergeCell ref="B84:B87"/>
-    <mergeCell ref="A81:L81"/>
-    <mergeCell ref="A82:A83"/>
     <mergeCell ref="B82:B83"/>
-    <mergeCell ref="C82:C83"/>
-    <mergeCell ref="D82:D83"/>
-    <mergeCell ref="E82:E83"/>
-    <mergeCell ref="F82:F83"/>
-    <mergeCell ref="G82:G83"/>
-    <mergeCell ref="H82:H83"/>
-    <mergeCell ref="I82:I83"/>
-    <mergeCell ref="J82:L82"/>
-    <mergeCell ref="A58:L58"/>
-    <mergeCell ref="A59:A60"/>
-    <mergeCell ref="B59:B60"/>
-    <mergeCell ref="C59:C60"/>
-    <mergeCell ref="D59:D60"/>
-    <mergeCell ref="E59:E60"/>
-    <mergeCell ref="F59:F60"/>
-    <mergeCell ref="G59:G60"/>
-    <mergeCell ref="H59:H60"/>
-    <mergeCell ref="I59:I60"/>
-    <mergeCell ref="J59:L59"/>
-    <mergeCell ref="B49:B50"/>
-    <mergeCell ref="I33:I34"/>
-    <mergeCell ref="J33:L33"/>
+    <mergeCell ref="A79:L79"/>
+    <mergeCell ref="A80:A81"/>
+    <mergeCell ref="B80:B81"/>
+    <mergeCell ref="C80:C81"/>
+    <mergeCell ref="D80:D81"/>
+    <mergeCell ref="E80:E81"/>
+    <mergeCell ref="F80:F81"/>
+    <mergeCell ref="G80:G81"/>
+    <mergeCell ref="H80:H81"/>
+    <mergeCell ref="I80:I81"/>
+    <mergeCell ref="J80:L80"/>
+    <mergeCell ref="I45:I46"/>
+    <mergeCell ref="J45:L45"/>
+    <mergeCell ref="A56:L56"/>
+    <mergeCell ref="A57:A58"/>
+    <mergeCell ref="B57:B58"/>
+    <mergeCell ref="C57:C58"/>
+    <mergeCell ref="D57:D58"/>
+    <mergeCell ref="E57:E58"/>
+    <mergeCell ref="F57:F58"/>
+    <mergeCell ref="G57:G58"/>
+    <mergeCell ref="H57:H58"/>
+    <mergeCell ref="I57:I58"/>
+    <mergeCell ref="J57:L57"/>
+    <mergeCell ref="D45:D46"/>
+    <mergeCell ref="E45:E46"/>
+    <mergeCell ref="F45:F46"/>
+    <mergeCell ref="G45:G46"/>
+    <mergeCell ref="H45:H46"/>
+    <mergeCell ref="I31:I32"/>
+    <mergeCell ref="J31:L31"/>
+    <mergeCell ref="B33:B34"/>
     <mergeCell ref="B35:B36"/>
-    <mergeCell ref="B37:B38"/>
-    <mergeCell ref="A46:L46"/>
-    <mergeCell ref="B47:B48"/>
-    <mergeCell ref="A47:A48"/>
-    <mergeCell ref="C47:C48"/>
-    <mergeCell ref="D47:D48"/>
-    <mergeCell ref="E47:E48"/>
-    <mergeCell ref="F47:F48"/>
-    <mergeCell ref="G47:G48"/>
-    <mergeCell ref="H47:H48"/>
-    <mergeCell ref="I47:I48"/>
-    <mergeCell ref="J47:L47"/>
-    <mergeCell ref="D33:D34"/>
-    <mergeCell ref="E33:E34"/>
-    <mergeCell ref="F33:F34"/>
-    <mergeCell ref="G33:G34"/>
-    <mergeCell ref="H33:H34"/>
+    <mergeCell ref="A44:L44"/>
+    <mergeCell ref="D31:D32"/>
+    <mergeCell ref="E31:E32"/>
+    <mergeCell ref="F31:F32"/>
+    <mergeCell ref="G31:G32"/>
+    <mergeCell ref="H31:H32"/>
     <mergeCell ref="B4:B5"/>
     <mergeCell ref="B6:B7"/>
     <mergeCell ref="B8:B9"/>
     <mergeCell ref="B11:B12"/>
-    <mergeCell ref="A32:L32"/>
+    <mergeCell ref="A30:L30"/>
     <mergeCell ref="U1:W2"/>
     <mergeCell ref="I2:I3"/>
     <mergeCell ref="J2:L2"/>
@@ -16676,22 +16575,26 @@
     <mergeCell ref="G2:G3"/>
     <mergeCell ref="H2:H3"/>
     <mergeCell ref="B2:B3"/>
-    <mergeCell ref="B14:B17"/>
-    <mergeCell ref="A71:L71"/>
-    <mergeCell ref="A72:A73"/>
-    <mergeCell ref="B72:B73"/>
-    <mergeCell ref="C72:C73"/>
-    <mergeCell ref="D72:D73"/>
-    <mergeCell ref="E72:E73"/>
-    <mergeCell ref="F72:F73"/>
-    <mergeCell ref="G72:G73"/>
-    <mergeCell ref="H72:H73"/>
-    <mergeCell ref="I72:I73"/>
-    <mergeCell ref="J72:L72"/>
-    <mergeCell ref="B61:B62"/>
-    <mergeCell ref="A33:A34"/>
-    <mergeCell ref="B33:B34"/>
-    <mergeCell ref="C33:C34"/>
+    <mergeCell ref="A69:L69"/>
+    <mergeCell ref="A70:A71"/>
+    <mergeCell ref="B70:B71"/>
+    <mergeCell ref="C70:C71"/>
+    <mergeCell ref="D70:D71"/>
+    <mergeCell ref="E70:E71"/>
+    <mergeCell ref="F70:F71"/>
+    <mergeCell ref="G70:G71"/>
+    <mergeCell ref="H70:H71"/>
+    <mergeCell ref="I70:I71"/>
+    <mergeCell ref="J70:L70"/>
+    <mergeCell ref="B59:B60"/>
+    <mergeCell ref="A31:A32"/>
+    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="C31:C32"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="B47:B48"/>
+    <mergeCell ref="B45:B46"/>
+    <mergeCell ref="A45:A46"/>
+    <mergeCell ref="C45:C46"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/实验7：配置管理/20F_Commit总表.xlsx
+++ b/实验7：配置管理/20F_Commit总表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mz/Desktop/软工实验/20_F/实验7：配置管理/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0768E6D2-A73B-A242-9ED2-772F2E43F42E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38CADA39-A9F5-CB40-A028-4383C93E88C2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6680" yWindow="480" windowWidth="27760" windowHeight="17040" xr2:uid="{9388D582-CDE4-9A46-9540-D7DCCDE5460A}"/>
+    <workbookView xWindow="1040" yWindow="480" windowWidth="27760" windowHeight="17040" xr2:uid="{9388D582-CDE4-9A46-9540-D7DCCDE5460A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -470,7 +470,16 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -482,22 +491,13 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -849,7 +849,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>38</c:v>
+                  <c:v>39</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>91</c:v>
@@ -3297,7 +3297,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>73</c:v>
+                  <c:v>74</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>100</c:v>
@@ -5554,6 +5554,70 @@
               </c:ext>
             </c:extLst>
           </c:dPt>
+          <c:dPt>
+            <c:idx val="5"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="25400">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+              <a:sp3d contourW="25400">
+                <a:contourClr>
+                  <a:schemeClr val="lt1"/>
+                </a:contourClr>
+              </a:sp3d>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="6"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="25400">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+              <a:sp3d contourW="25400">
+                <a:contourClr>
+                  <a:schemeClr val="lt1"/>
+                </a:contourClr>
+              </a:sp3d>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="7"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="25400">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+              <a:sp3d contourW="25400">
+                <a:contourClr>
+                  <a:schemeClr val="lt1"/>
+                </a:contourClr>
+              </a:sp3d>
+            </c:spPr>
+          </c:dPt>
           <c:dLbls>
             <c:spPr>
               <a:noFill/>
@@ -5611,9 +5675,9 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>(Sheet1!$B$4,Sheet1!$B$6,Sheet1!$B$8,Sheet1!$B$10,Sheet1!$B$11)</c:f>
+              <c:f>(Sheet1!$B$4,Sheet1!$B$6,Sheet1!$B$8,Sheet1!$B$10,Sheet1!$B$11,Sheet1!$B$13,Sheet1!$B$14,Sheet1!$B$16)</c:f>
               <c:strCache>
-                <c:ptCount val="5"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>实验零</c:v>
                 </c:pt>
@@ -5629,15 +5693,24 @@
                 <c:pt idx="4">
                   <c:v>实验三</c:v>
                 </c:pt>
+                <c:pt idx="5">
+                  <c:v>实验四</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>实验五</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>实验六-八(2)</c:v>
+                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>(Sheet1!$M$5,Sheet1!$M$7,Sheet1!$M$9,Sheet1!$M$10,Sheet1!$K$19)</c:f>
+              <c:f>(Sheet1!$M$5,Sheet1!$M$7,Sheet1!$M$9,Sheet1!$M$10,Sheet1!$M$12,Sheet1!$M$13,Sheet1!$M$15,Sheet1!$M$16)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>23</c:v>
                 </c:pt>
@@ -5651,7 +5724,16 @@
                   <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>100</c:v>
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5879,7 +5961,7 @@
                   <c:v>26</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>0</c:v>
@@ -14707,7 +14789,7 @@
   <dimension ref="A1:W84"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+      <selection activeCell="Y8" sqref="Y8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -14719,73 +14801,73 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="33">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="22"/>
-      <c r="G1" s="22"/>
-      <c r="H1" s="22"/>
-      <c r="I1" s="22"/>
-      <c r="J1" s="22"/>
-      <c r="K1" s="22"/>
-      <c r="L1" s="23"/>
-      <c r="U1" s="24" t="s">
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="18"/>
+      <c r="I1" s="18"/>
+      <c r="J1" s="18"/>
+      <c r="K1" s="18"/>
+      <c r="L1" s="19"/>
+      <c r="U1" s="25" t="s">
         <v>41</v>
       </c>
-      <c r="V1" s="24"/>
-      <c r="W1" s="24"/>
+      <c r="V1" s="25"/>
+      <c r="W1" s="25"/>
     </row>
     <row r="2" spans="1:23" ht="23">
-      <c r="A2" s="17" t="s">
+      <c r="A2" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="18" t="s">
+      <c r="B2" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="17" t="s">
+      <c r="C2" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="17" t="s">
+      <c r="D2" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="17" t="s">
+      <c r="E2" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="17" t="s">
+      <c r="F2" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="17" t="s">
+      <c r="G2" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="H2" s="17" t="s">
+      <c r="H2" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="I2" s="17" t="s">
+      <c r="I2" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="J2" s="17" t="s">
+      <c r="J2" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="K2" s="17"/>
-      <c r="L2" s="17"/>
-      <c r="U2" s="24"/>
-      <c r="V2" s="24"/>
-      <c r="W2" s="24"/>
+      <c r="K2" s="20"/>
+      <c r="L2" s="20"/>
+      <c r="U2" s="25"/>
+      <c r="V2" s="25"/>
+      <c r="W2" s="25"/>
     </row>
     <row r="3" spans="1:23" ht="29" customHeight="1">
-      <c r="A3" s="17"/>
-      <c r="B3" s="19"/>
-      <c r="C3" s="17"/>
-      <c r="D3" s="17"/>
-      <c r="E3" s="17"/>
-      <c r="F3" s="17"/>
-      <c r="G3" s="17"/>
-      <c r="H3" s="17"/>
-      <c r="I3" s="17"/>
+      <c r="A3" s="20"/>
+      <c r="B3" s="22"/>
+      <c r="C3" s="20"/>
+      <c r="D3" s="20"/>
+      <c r="E3" s="20"/>
+      <c r="F3" s="20"/>
+      <c r="G3" s="20"/>
+      <c r="H3" s="20"/>
+      <c r="I3" s="20"/>
       <c r="J3" s="1" t="s">
         <v>18</v>
       </c>
@@ -14845,7 +14927,7 @@
       <c r="A5" s="2">
         <v>3</v>
       </c>
-      <c r="B5" s="16"/>
+      <c r="B5" s="23"/>
       <c r="C5" s="2" t="s">
         <v>10</v>
       </c>
@@ -14888,7 +14970,7 @@
       <c r="A6" s="2">
         <v>4</v>
       </c>
-      <c r="B6" s="20" t="s">
+      <c r="B6" s="24" t="s">
         <v>31</v>
       </c>
       <c r="C6" s="2" t="s">
@@ -14933,7 +15015,7 @@
       <c r="A7" s="2">
         <v>5</v>
       </c>
-      <c r="B7" s="20"/>
+      <c r="B7" s="24"/>
       <c r="C7" s="2" t="s">
         <v>12</v>
       </c>
@@ -14980,7 +15062,7 @@
       <c r="A8" s="2">
         <v>6</v>
       </c>
-      <c r="B8" s="20" t="s">
+      <c r="B8" s="24" t="s">
         <v>30</v>
       </c>
       <c r="C8" s="2" t="s">
@@ -15023,7 +15105,7 @@
       <c r="A9" s="2">
         <v>7</v>
       </c>
-      <c r="B9" s="20"/>
+      <c r="B9" s="24"/>
       <c r="C9" s="2" t="s">
         <v>14</v>
       </c>
@@ -15109,7 +15191,7 @@
       <c r="A11" s="2">
         <v>9</v>
       </c>
-      <c r="B11" s="20" t="s">
+      <c r="B11" s="24" t="s">
         <v>34</v>
       </c>
       <c r="C11" s="2" t="s">
@@ -15141,7 +15223,7 @@
       <c r="A12" s="2">
         <v>10</v>
       </c>
-      <c r="B12" s="20"/>
+      <c r="B12" s="24"/>
       <c r="C12" s="2" t="s">
         <v>23</v>
       </c>
@@ -15211,7 +15293,7 @@
       <c r="A14" s="2">
         <v>12</v>
       </c>
-      <c r="B14" s="20" t="s">
+      <c r="B14" s="24" t="s">
         <v>36</v>
       </c>
       <c r="C14" s="2" t="s">
@@ -15243,7 +15325,7 @@
       <c r="A15" s="2">
         <v>13</v>
       </c>
-      <c r="B15" s="20"/>
+      <c r="B15" s="24"/>
       <c r="C15" s="2" t="s">
         <v>26</v>
       </c>
@@ -15282,14 +15364,16 @@
       <c r="C16" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="D16" s="2"/>
+      <c r="D16" s="2">
+        <v>1</v>
+      </c>
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
       <c r="H16" s="2"/>
       <c r="I16" s="2"/>
       <c r="J16" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K16" s="2">
         <f t="shared" si="0"/>
@@ -15297,7 +15381,10 @@
       </c>
       <c r="L16" s="2">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:12" ht="23">
@@ -15363,11 +15450,11 @@
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
       <c r="D19" s="2">
-        <f t="shared" ref="D19:J19" si="3">SUM(D4:D18)</f>
-        <v>38</v>
+        <f>SUM(D4:D18)</f>
+        <v>39</v>
       </c>
       <c r="E19" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" ref="D19:J19" si="3">SUM(E4:E18)</f>
         <v>91</v>
       </c>
       <c r="F19" s="2">
@@ -15388,7 +15475,7 @@
       </c>
       <c r="J19" s="2">
         <f t="shared" si="3"/>
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="K19" s="2">
         <f t="shared" si="0"/>
@@ -15396,69 +15483,69 @@
       </c>
       <c r="L19" s="2">
         <f>SUM(D19:I19)</f>
-        <v>173</v>
+        <v>174</v>
       </c>
     </row>
     <row r="30" spans="1:12" ht="33">
-      <c r="A30" s="21" t="s">
+      <c r="A30" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="B30" s="22"/>
-      <c r="C30" s="22"/>
-      <c r="D30" s="22"/>
-      <c r="E30" s="22"/>
-      <c r="F30" s="22"/>
-      <c r="G30" s="22"/>
-      <c r="H30" s="22"/>
-      <c r="I30" s="22"/>
-      <c r="J30" s="22"/>
-      <c r="K30" s="22"/>
-      <c r="L30" s="23"/>
+      <c r="B30" s="18"/>
+      <c r="C30" s="18"/>
+      <c r="D30" s="18"/>
+      <c r="E30" s="18"/>
+      <c r="F30" s="18"/>
+      <c r="G30" s="18"/>
+      <c r="H30" s="18"/>
+      <c r="I30" s="18"/>
+      <c r="J30" s="18"/>
+      <c r="K30" s="18"/>
+      <c r="L30" s="19"/>
     </row>
     <row r="31" spans="1:12" ht="23">
-      <c r="A31" s="17" t="s">
+      <c r="A31" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="B31" s="18" t="s">
+      <c r="B31" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="C31" s="17" t="s">
+      <c r="C31" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="D31" s="17" t="s">
+      <c r="D31" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="E31" s="17" t="s">
+      <c r="E31" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="F31" s="17" t="s">
+      <c r="F31" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="G31" s="17" t="s">
+      <c r="G31" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="H31" s="17" t="s">
+      <c r="H31" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="I31" s="17" t="s">
+      <c r="I31" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="J31" s="17" t="s">
+      <c r="J31" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="K31" s="17"/>
-      <c r="L31" s="17"/>
+      <c r="K31" s="20"/>
+      <c r="L31" s="20"/>
     </row>
     <row r="32" spans="1:12" ht="23">
-      <c r="A32" s="17"/>
-      <c r="B32" s="19"/>
-      <c r="C32" s="17"/>
-      <c r="D32" s="17"/>
-      <c r="E32" s="17"/>
-      <c r="F32" s="17"/>
-      <c r="G32" s="17"/>
-      <c r="H32" s="17"/>
-      <c r="I32" s="17"/>
+      <c r="A32" s="20"/>
+      <c r="B32" s="22"/>
+      <c r="C32" s="20"/>
+      <c r="D32" s="20"/>
+      <c r="E32" s="20"/>
+      <c r="F32" s="20"/>
+      <c r="G32" s="20"/>
+      <c r="H32" s="20"/>
+      <c r="I32" s="20"/>
       <c r="J32" s="1" t="s">
         <v>18</v>
       </c>
@@ -15516,7 +15603,7 @@
       <c r="A34" s="2">
         <v>3</v>
       </c>
-      <c r="B34" s="16"/>
+      <c r="B34" s="23"/>
       <c r="C34" s="2" t="s">
         <v>10</v>
       </c>
@@ -15560,7 +15647,7 @@
       <c r="A35" s="2">
         <v>4</v>
       </c>
-      <c r="B35" s="20" t="s">
+      <c r="B35" s="24" t="s">
         <v>31</v>
       </c>
       <c r="C35" s="2" t="s">
@@ -15606,7 +15693,7 @@
       <c r="A36" s="2">
         <v>5</v>
       </c>
-      <c r="B36" s="20"/>
+      <c r="B36" s="24"/>
       <c r="C36" s="2" t="s">
         <v>12</v>
       </c>
@@ -15692,65 +15779,65 @@
       </c>
     </row>
     <row r="44" spans="1:12" ht="33">
-      <c r="A44" s="21" t="s">
+      <c r="A44" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="B44" s="22"/>
-      <c r="C44" s="22"/>
-      <c r="D44" s="22"/>
-      <c r="E44" s="22"/>
-      <c r="F44" s="22"/>
-      <c r="G44" s="22"/>
-      <c r="H44" s="22"/>
-      <c r="I44" s="22"/>
-      <c r="J44" s="22"/>
-      <c r="K44" s="22"/>
-      <c r="L44" s="23"/>
+      <c r="B44" s="18"/>
+      <c r="C44" s="18"/>
+      <c r="D44" s="18"/>
+      <c r="E44" s="18"/>
+      <c r="F44" s="18"/>
+      <c r="G44" s="18"/>
+      <c r="H44" s="18"/>
+      <c r="I44" s="18"/>
+      <c r="J44" s="18"/>
+      <c r="K44" s="18"/>
+      <c r="L44" s="19"/>
     </row>
     <row r="45" spans="1:12" ht="23">
-      <c r="A45" s="17" t="s">
+      <c r="A45" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="B45" s="18" t="s">
+      <c r="B45" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="C45" s="17" t="s">
+      <c r="C45" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="D45" s="17" t="s">
+      <c r="D45" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="E45" s="17" t="s">
+      <c r="E45" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="F45" s="17" t="s">
+      <c r="F45" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="G45" s="17" t="s">
+      <c r="G45" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="H45" s="17" t="s">
+      <c r="H45" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="I45" s="17" t="s">
+      <c r="I45" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="J45" s="17" t="s">
+      <c r="J45" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="K45" s="17"/>
-      <c r="L45" s="17"/>
+      <c r="K45" s="20"/>
+      <c r="L45" s="20"/>
     </row>
     <row r="46" spans="1:12" ht="23">
-      <c r="A46" s="17"/>
-      <c r="B46" s="19"/>
-      <c r="C46" s="17"/>
-      <c r="D46" s="17"/>
-      <c r="E46" s="17"/>
-      <c r="F46" s="17"/>
-      <c r="G46" s="17"/>
-      <c r="H46" s="17"/>
-      <c r="I46" s="17"/>
+      <c r="A46" s="20"/>
+      <c r="B46" s="22"/>
+      <c r="C46" s="20"/>
+      <c r="D46" s="20"/>
+      <c r="E46" s="20"/>
+      <c r="F46" s="20"/>
+      <c r="G46" s="20"/>
+      <c r="H46" s="20"/>
+      <c r="I46" s="20"/>
       <c r="J46" s="1" t="s">
         <v>18</v>
       </c>
@@ -15765,7 +15852,7 @@
       <c r="A47" s="2">
         <v>6</v>
       </c>
-      <c r="B47" s="20" t="s">
+      <c r="B47" s="24" t="s">
         <v>30</v>
       </c>
       <c r="C47" s="2" t="s">
@@ -15811,7 +15898,7 @@
       <c r="A48" s="2">
         <v>7</v>
       </c>
-      <c r="B48" s="20"/>
+      <c r="B48" s="24"/>
       <c r="C48" s="2" t="s">
         <v>14</v>
       </c>
@@ -15943,65 +16030,65 @@
       </c>
     </row>
     <row r="56" spans="1:12" ht="33">
-      <c r="A56" s="21" t="s">
+      <c r="A56" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="B56" s="22"/>
-      <c r="C56" s="22"/>
-      <c r="D56" s="22"/>
-      <c r="E56" s="22"/>
-      <c r="F56" s="22"/>
-      <c r="G56" s="22"/>
-      <c r="H56" s="22"/>
-      <c r="I56" s="22"/>
-      <c r="J56" s="22"/>
-      <c r="K56" s="22"/>
-      <c r="L56" s="23"/>
+      <c r="B56" s="18"/>
+      <c r="C56" s="18"/>
+      <c r="D56" s="18"/>
+      <c r="E56" s="18"/>
+      <c r="F56" s="18"/>
+      <c r="G56" s="18"/>
+      <c r="H56" s="18"/>
+      <c r="I56" s="18"/>
+      <c r="J56" s="18"/>
+      <c r="K56" s="18"/>
+      <c r="L56" s="19"/>
     </row>
     <row r="57" spans="1:12" ht="23">
-      <c r="A57" s="17" t="s">
+      <c r="A57" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="B57" s="18" t="s">
+      <c r="B57" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="C57" s="17" t="s">
+      <c r="C57" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="D57" s="17" t="s">
+      <c r="D57" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="E57" s="17" t="s">
+      <c r="E57" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="F57" s="17" t="s">
+      <c r="F57" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="G57" s="17" t="s">
+      <c r="G57" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="H57" s="17" t="s">
+      <c r="H57" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="I57" s="17" t="s">
+      <c r="I57" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="J57" s="17" t="s">
+      <c r="J57" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="K57" s="17"/>
-      <c r="L57" s="17"/>
+      <c r="K57" s="20"/>
+      <c r="L57" s="20"/>
     </row>
     <row r="58" spans="1:12" ht="23">
-      <c r="A58" s="17"/>
-      <c r="B58" s="19"/>
-      <c r="C58" s="17"/>
-      <c r="D58" s="17"/>
-      <c r="E58" s="17"/>
-      <c r="F58" s="17"/>
-      <c r="G58" s="17"/>
-      <c r="H58" s="17"/>
-      <c r="I58" s="17"/>
+      <c r="A58" s="20"/>
+      <c r="B58" s="22"/>
+      <c r="C58" s="20"/>
+      <c r="D58" s="20"/>
+      <c r="E58" s="20"/>
+      <c r="F58" s="20"/>
+      <c r="G58" s="20"/>
+      <c r="H58" s="20"/>
+      <c r="I58" s="20"/>
       <c r="J58" s="5" t="s">
         <v>18</v>
       </c>
@@ -16063,7 +16150,7 @@
       <c r="A60" s="6">
         <v>10</v>
       </c>
-      <c r="B60" s="16"/>
+      <c r="B60" s="23"/>
       <c r="C60" s="6" t="s">
         <v>23</v>
       </c>
@@ -16150,65 +16237,65 @@
       </c>
     </row>
     <row r="69" spans="1:12" ht="33">
-      <c r="A69" s="21" t="s">
+      <c r="A69" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="B69" s="22"/>
-      <c r="C69" s="22"/>
-      <c r="D69" s="22"/>
-      <c r="E69" s="22"/>
-      <c r="F69" s="22"/>
-      <c r="G69" s="22"/>
-      <c r="H69" s="22"/>
-      <c r="I69" s="22"/>
-      <c r="J69" s="22"/>
-      <c r="K69" s="22"/>
-      <c r="L69" s="23"/>
+      <c r="B69" s="18"/>
+      <c r="C69" s="18"/>
+      <c r="D69" s="18"/>
+      <c r="E69" s="18"/>
+      <c r="F69" s="18"/>
+      <c r="G69" s="18"/>
+      <c r="H69" s="18"/>
+      <c r="I69" s="18"/>
+      <c r="J69" s="18"/>
+      <c r="K69" s="18"/>
+      <c r="L69" s="19"/>
     </row>
     <row r="70" spans="1:12" ht="23">
-      <c r="A70" s="17" t="s">
+      <c r="A70" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="B70" s="18" t="s">
+      <c r="B70" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="C70" s="17" t="s">
+      <c r="C70" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="D70" s="17" t="s">
+      <c r="D70" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="E70" s="17" t="s">
+      <c r="E70" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="F70" s="17" t="s">
+      <c r="F70" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="G70" s="17" t="s">
+      <c r="G70" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="H70" s="17" t="s">
+      <c r="H70" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="I70" s="17" t="s">
+      <c r="I70" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="J70" s="17" t="s">
+      <c r="J70" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="K70" s="17"/>
-      <c r="L70" s="17"/>
+      <c r="K70" s="20"/>
+      <c r="L70" s="20"/>
     </row>
     <row r="71" spans="1:12" ht="23">
-      <c r="A71" s="17"/>
-      <c r="B71" s="19"/>
-      <c r="C71" s="17"/>
-      <c r="D71" s="17"/>
-      <c r="E71" s="17"/>
-      <c r="F71" s="17"/>
-      <c r="G71" s="17"/>
-      <c r="H71" s="17"/>
-      <c r="I71" s="17"/>
+      <c r="A71" s="20"/>
+      <c r="B71" s="22"/>
+      <c r="C71" s="20"/>
+      <c r="D71" s="20"/>
+      <c r="E71" s="20"/>
+      <c r="F71" s="20"/>
+      <c r="G71" s="20"/>
+      <c r="H71" s="20"/>
+      <c r="I71" s="20"/>
       <c r="J71" s="8" t="s">
         <v>18</v>
       </c>
@@ -16310,65 +16397,65 @@
       </c>
     </row>
     <row r="79" spans="1:12" ht="33">
-      <c r="A79" s="21" t="s">
+      <c r="A79" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="B79" s="22"/>
-      <c r="C79" s="22"/>
-      <c r="D79" s="22"/>
-      <c r="E79" s="22"/>
-      <c r="F79" s="22"/>
-      <c r="G79" s="22"/>
-      <c r="H79" s="22"/>
-      <c r="I79" s="22"/>
-      <c r="J79" s="22"/>
-      <c r="K79" s="22"/>
-      <c r="L79" s="23"/>
+      <c r="B79" s="18"/>
+      <c r="C79" s="18"/>
+      <c r="D79" s="18"/>
+      <c r="E79" s="18"/>
+      <c r="F79" s="18"/>
+      <c r="G79" s="18"/>
+      <c r="H79" s="18"/>
+      <c r="I79" s="18"/>
+      <c r="J79" s="18"/>
+      <c r="K79" s="18"/>
+      <c r="L79" s="19"/>
     </row>
     <row r="80" spans="1:12" ht="23">
-      <c r="A80" s="17" t="s">
+      <c r="A80" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="B80" s="18" t="s">
+      <c r="B80" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="C80" s="17" t="s">
+      <c r="C80" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="D80" s="17" t="s">
+      <c r="D80" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="E80" s="17" t="s">
+      <c r="E80" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="F80" s="17" t="s">
+      <c r="F80" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="G80" s="17" t="s">
+      <c r="G80" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="H80" s="17" t="s">
+      <c r="H80" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="I80" s="17" t="s">
+      <c r="I80" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="J80" s="17" t="s">
+      <c r="J80" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="K80" s="17"/>
-      <c r="L80" s="17"/>
+      <c r="K80" s="20"/>
+      <c r="L80" s="20"/>
     </row>
     <row r="81" spans="1:12" ht="23">
-      <c r="A81" s="17"/>
-      <c r="B81" s="19"/>
-      <c r="C81" s="17"/>
-      <c r="D81" s="17"/>
-      <c r="E81" s="17"/>
-      <c r="F81" s="17"/>
-      <c r="G81" s="17"/>
-      <c r="H81" s="17"/>
-      <c r="I81" s="17"/>
+      <c r="A81" s="20"/>
+      <c r="B81" s="22"/>
+      <c r="C81" s="20"/>
+      <c r="D81" s="20"/>
+      <c r="E81" s="20"/>
+      <c r="F81" s="20"/>
+      <c r="G81" s="20"/>
+      <c r="H81" s="20"/>
+      <c r="I81" s="20"/>
       <c r="J81" s="11" t="s">
         <v>18</v>
       </c>
@@ -16430,7 +16517,7 @@
       <c r="A83" s="12">
         <v>13</v>
       </c>
-      <c r="B83" s="25"/>
+      <c r="B83" s="16"/>
       <c r="C83" s="12" t="s">
         <v>26</v>
       </c>
@@ -16518,18 +16605,55 @@
     </row>
   </sheetData>
   <mergeCells count="77">
-    <mergeCell ref="B82:B83"/>
-    <mergeCell ref="A79:L79"/>
-    <mergeCell ref="A80:A81"/>
-    <mergeCell ref="B80:B81"/>
-    <mergeCell ref="C80:C81"/>
-    <mergeCell ref="D80:D81"/>
-    <mergeCell ref="E80:E81"/>
-    <mergeCell ref="F80:F81"/>
-    <mergeCell ref="G80:G81"/>
-    <mergeCell ref="H80:H81"/>
-    <mergeCell ref="I80:I81"/>
-    <mergeCell ref="J80:L80"/>
+    <mergeCell ref="B59:B60"/>
+    <mergeCell ref="A31:A32"/>
+    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="C31:C32"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="B47:B48"/>
+    <mergeCell ref="B45:B46"/>
+    <mergeCell ref="A45:A46"/>
+    <mergeCell ref="C45:C46"/>
+    <mergeCell ref="A69:L69"/>
+    <mergeCell ref="A70:A71"/>
+    <mergeCell ref="B70:B71"/>
+    <mergeCell ref="C70:C71"/>
+    <mergeCell ref="D70:D71"/>
+    <mergeCell ref="E70:E71"/>
+    <mergeCell ref="F70:F71"/>
+    <mergeCell ref="G70:G71"/>
+    <mergeCell ref="H70:H71"/>
+    <mergeCell ref="I70:I71"/>
+    <mergeCell ref="J70:L70"/>
+    <mergeCell ref="U1:W2"/>
+    <mergeCell ref="I2:I3"/>
+    <mergeCell ref="J2:L2"/>
+    <mergeCell ref="A1:L1"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="G2:G3"/>
+    <mergeCell ref="H2:H3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="A30:L30"/>
+    <mergeCell ref="G45:G46"/>
+    <mergeCell ref="H45:H46"/>
+    <mergeCell ref="I31:I32"/>
+    <mergeCell ref="J31:L31"/>
+    <mergeCell ref="B33:B34"/>
+    <mergeCell ref="B35:B36"/>
+    <mergeCell ref="A44:L44"/>
+    <mergeCell ref="D31:D32"/>
+    <mergeCell ref="E31:E32"/>
+    <mergeCell ref="F31:F32"/>
+    <mergeCell ref="G31:G32"/>
+    <mergeCell ref="H31:H32"/>
     <mergeCell ref="I45:I46"/>
     <mergeCell ref="J45:L45"/>
     <mergeCell ref="A56:L56"/>
@@ -16546,55 +16670,18 @@
     <mergeCell ref="D45:D46"/>
     <mergeCell ref="E45:E46"/>
     <mergeCell ref="F45:F46"/>
-    <mergeCell ref="G45:G46"/>
-    <mergeCell ref="H45:H46"/>
-    <mergeCell ref="I31:I32"/>
-    <mergeCell ref="J31:L31"/>
-    <mergeCell ref="B33:B34"/>
-    <mergeCell ref="B35:B36"/>
-    <mergeCell ref="A44:L44"/>
-    <mergeCell ref="D31:D32"/>
-    <mergeCell ref="E31:E32"/>
-    <mergeCell ref="F31:F32"/>
-    <mergeCell ref="G31:G32"/>
-    <mergeCell ref="H31:H32"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="A30:L30"/>
-    <mergeCell ref="U1:W2"/>
-    <mergeCell ref="I2:I3"/>
-    <mergeCell ref="J2:L2"/>
-    <mergeCell ref="A1:L1"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="F2:F3"/>
-    <mergeCell ref="G2:G3"/>
-    <mergeCell ref="H2:H3"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="A69:L69"/>
-    <mergeCell ref="A70:A71"/>
-    <mergeCell ref="B70:B71"/>
-    <mergeCell ref="C70:C71"/>
-    <mergeCell ref="D70:D71"/>
-    <mergeCell ref="E70:E71"/>
-    <mergeCell ref="F70:F71"/>
-    <mergeCell ref="G70:G71"/>
-    <mergeCell ref="H70:H71"/>
-    <mergeCell ref="I70:I71"/>
-    <mergeCell ref="J70:L70"/>
-    <mergeCell ref="B59:B60"/>
-    <mergeCell ref="A31:A32"/>
-    <mergeCell ref="B31:B32"/>
-    <mergeCell ref="C31:C32"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="B47:B48"/>
-    <mergeCell ref="B45:B46"/>
-    <mergeCell ref="A45:A46"/>
-    <mergeCell ref="C45:C46"/>
+    <mergeCell ref="B82:B83"/>
+    <mergeCell ref="A79:L79"/>
+    <mergeCell ref="A80:A81"/>
+    <mergeCell ref="B80:B81"/>
+    <mergeCell ref="C80:C81"/>
+    <mergeCell ref="D80:D81"/>
+    <mergeCell ref="E80:E81"/>
+    <mergeCell ref="F80:F81"/>
+    <mergeCell ref="G80:G81"/>
+    <mergeCell ref="H80:H81"/>
+    <mergeCell ref="I80:I81"/>
+    <mergeCell ref="J80:L80"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/实验7：配置管理/20F_Commit总表.xlsx
+++ b/实验7：配置管理/20F_Commit总表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mz/Desktop/软工实验/20_F/实验7：配置管理/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38CADA39-A9F5-CB40-A028-4383C93E88C2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FC800DF-E716-F742-B91E-30F718BCC67F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1040" yWindow="480" windowWidth="27760" windowHeight="17040" xr2:uid="{9388D582-CDE4-9A46-9540-D7DCCDE5460A}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="56">
   <si>
     <t>周次</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -252,6 +252,10 @@
     <t>添加实验五复评审期间统计</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>添加实验六-八第二次展示期间统计</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -421,7 +425,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -499,6 +503,9 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -849,7 +856,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>39</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>91</c:v>
@@ -3297,7 +3304,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>74</c:v>
+                  <c:v>75</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>100</c:v>
@@ -5573,6 +5580,11 @@
                 </a:contourClr>
               </a:sp3d>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000B-851E-A84A-ADBF-80EA28D9FBE1}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="6"/>
@@ -5595,6 +5607,11 @@
                 </a:contourClr>
               </a:sp3d>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000D-851E-A84A-ADBF-80EA28D9FBE1}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="7"/>
@@ -5617,6 +5634,11 @@
                 </a:contourClr>
               </a:sp3d>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000F-851E-A84A-ADBF-80EA28D9FBE1}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dLbls>
             <c:spPr>
@@ -5961,7 +5983,7 @@
                   <c:v>26</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>0</c:v>
@@ -13986,7 +14008,7 @@
       <xdr:grpSpPr>
         <a:xfrm>
           <a:off x="13246100" y="101600"/>
-          <a:ext cx="4953000" cy="5664200"/>
+          <a:ext cx="4953000" cy="5803900"/>
           <a:chOff x="11582400" y="101600"/>
           <a:chExt cx="4953000" cy="6248400"/>
         </a:xfrm>
@@ -14789,7 +14811,7 @@
   <dimension ref="A1:W84"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Y8" sqref="Y8"/>
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -15148,7 +15170,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="10" spans="1:23" ht="23">
+    <row r="10" spans="1:23" ht="34">
       <c r="A10" s="2">
         <v>8</v>
       </c>
@@ -15183,9 +15205,15 @@
         <f>J10</f>
         <v>8</v>
       </c>
-      <c r="U10" s="7"/>
-      <c r="V10" s="7"/>
-      <c r="W10" s="7"/>
+      <c r="U10" s="7">
+        <v>6.5</v>
+      </c>
+      <c r="V10" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="W10" s="26" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="11" spans="1:23" ht="23">
       <c r="A11" s="2">
@@ -15365,7 +15393,7 @@
         <v>27</v>
       </c>
       <c r="D16" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
@@ -15373,7 +15401,7 @@
       <c r="H16" s="2"/>
       <c r="I16" s="2"/>
       <c r="J16" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K16" s="2">
         <f t="shared" si="0"/>
@@ -15381,7 +15409,7 @@
       </c>
       <c r="L16" s="2">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M16">
         <v>1</v>
@@ -15451,10 +15479,10 @@
       <c r="C19" s="3"/>
       <c r="D19" s="2">
         <f>SUM(D4:D18)</f>
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E19" s="2">
-        <f t="shared" ref="D19:J19" si="3">SUM(E4:E18)</f>
+        <f t="shared" ref="E19:J19" si="3">SUM(E4:E18)</f>
         <v>91</v>
       </c>
       <c r="F19" s="2">
@@ -15475,7 +15503,7 @@
       </c>
       <c r="J19" s="2">
         <f t="shared" si="3"/>
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="K19" s="2">
         <f t="shared" si="0"/>
@@ -15483,7 +15511,7 @@
       </c>
       <c r="L19" s="2">
         <f>SUM(D19:I19)</f>
-        <v>174</v>
+        <v>175</v>
       </c>
     </row>
     <row r="30" spans="1:12" ht="33">
@@ -16614,6 +16642,13 @@
     <mergeCell ref="B45:B46"/>
     <mergeCell ref="A45:A46"/>
     <mergeCell ref="C45:C46"/>
+    <mergeCell ref="A56:L56"/>
+    <mergeCell ref="A57:A58"/>
+    <mergeCell ref="B57:B58"/>
+    <mergeCell ref="C57:C58"/>
+    <mergeCell ref="D57:D58"/>
+    <mergeCell ref="E57:E58"/>
+    <mergeCell ref="F57:F58"/>
     <mergeCell ref="A69:L69"/>
     <mergeCell ref="A70:A71"/>
     <mergeCell ref="B70:B71"/>
@@ -16642,8 +16677,6 @@
     <mergeCell ref="B8:B9"/>
     <mergeCell ref="B11:B12"/>
     <mergeCell ref="A30:L30"/>
-    <mergeCell ref="G45:G46"/>
-    <mergeCell ref="H45:H46"/>
     <mergeCell ref="I31:I32"/>
     <mergeCell ref="J31:L31"/>
     <mergeCell ref="B33:B34"/>
@@ -16654,15 +16687,6 @@
     <mergeCell ref="F31:F32"/>
     <mergeCell ref="G31:G32"/>
     <mergeCell ref="H31:H32"/>
-    <mergeCell ref="I45:I46"/>
-    <mergeCell ref="J45:L45"/>
-    <mergeCell ref="A56:L56"/>
-    <mergeCell ref="A57:A58"/>
-    <mergeCell ref="B57:B58"/>
-    <mergeCell ref="C57:C58"/>
-    <mergeCell ref="D57:D58"/>
-    <mergeCell ref="E57:E58"/>
-    <mergeCell ref="F57:F58"/>
     <mergeCell ref="G57:G58"/>
     <mergeCell ref="H57:H58"/>
     <mergeCell ref="I57:I58"/>
@@ -16670,6 +16694,10 @@
     <mergeCell ref="D45:D46"/>
     <mergeCell ref="E45:E46"/>
     <mergeCell ref="F45:F46"/>
+    <mergeCell ref="G45:G46"/>
+    <mergeCell ref="H45:H46"/>
+    <mergeCell ref="I45:I46"/>
+    <mergeCell ref="J45:L45"/>
     <mergeCell ref="B82:B83"/>
     <mergeCell ref="A79:L79"/>
     <mergeCell ref="A80:A81"/>
